--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -438,6 +438,75 @@
   </si>
   <si>
     <t>NOMINA # 4</t>
+  </si>
+  <si>
+    <t>00735 E</t>
+  </si>
+  <si>
+    <t>00841 E</t>
+  </si>
+  <si>
+    <t>00856 E</t>
+  </si>
+  <si>
+    <t>00994 E</t>
+  </si>
+  <si>
+    <t>01082 E</t>
+  </si>
+  <si>
+    <t>01222 E</t>
+  </si>
+  <si>
+    <t>01330 E</t>
+  </si>
+  <si>
+    <t>01369 E</t>
+  </si>
+  <si>
+    <t>01407 E</t>
+  </si>
+  <si>
+    <t>01504 E</t>
+  </si>
+  <si>
+    <t>01524 E</t>
+  </si>
+  <si>
+    <t>01628 E</t>
+  </si>
+  <si>
+    <t>01742 E</t>
+  </si>
+  <si>
+    <t>01809 E</t>
+  </si>
+  <si>
+    <t>01812 E</t>
+  </si>
+  <si>
+    <t>01868 E</t>
+  </si>
+  <si>
+    <t>01904 E</t>
+  </si>
+  <si>
+    <t>02052 E</t>
+  </si>
+  <si>
+    <t>02197 E</t>
+  </si>
+  <si>
+    <t>02403 E</t>
+  </si>
+  <si>
+    <t>02520 E</t>
+  </si>
+  <si>
+    <t>02598 E</t>
+  </si>
+  <si>
+    <t>02237 E</t>
   </si>
 </sst>
 </file>
@@ -826,7 +895,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,6 +962,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="62">
     <border>
@@ -1654,7 +1735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="273">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2021,9 +2102,6 @@
     <xf numFmtId="44" fontId="39" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2101,6 +2179,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="12" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2224,6 +2308,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFCCFF33"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
@@ -2246,13 +2332,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2299,13 +2385,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2352,13 +2438,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2405,13 +2491,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2458,13 +2544,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2519,7 +2605,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -2614,13 +2700,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3784,10 +3870,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3812,23 +3898,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="247"/>
-      <c r="C1" s="249" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="248"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -3838,21 +3924,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="230" t="s">
+      <c r="R3" s="235" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3867,14 +3953,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="232" t="s">
+      <c r="E4" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="233"/>
-      <c r="H4" s="234" t="s">
+      <c r="F4" s="238"/>
+      <c r="H4" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="235"/>
+      <c r="I4" s="240"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -3884,11 +3970,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="236" t="s">
+      <c r="P4" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="231"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="236"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -3934,7 +4020,7 @@
       <c r="Q5" s="13">
         <v>0</v>
       </c>
-      <c r="R5" s="227">
+      <c r="R5" s="226">
         <v>17090</v>
       </c>
       <c r="S5" s="37"/>
@@ -3978,7 +4064,7 @@
       <c r="Q6" s="13">
         <v>0</v>
       </c>
-      <c r="R6" s="227">
+      <c r="R6" s="226">
         <v>13800</v>
       </c>
       <c r="S6" s="37"/>
@@ -4071,7 +4157,7 @@
       <c r="Q8" s="13">
         <v>0</v>
       </c>
-      <c r="R8" s="227">
+      <c r="R8" s="226">
         <v>4626</v>
       </c>
       <c r="S8" s="37"/>
@@ -4219,7 +4305,7 @@
       <c r="Q11" s="13">
         <v>0</v>
       </c>
-      <c r="R11" s="227">
+      <c r="R11" s="226">
         <v>17820</v>
       </c>
       <c r="S11" s="37"/>
@@ -4249,7 +4335,7 @@
       <c r="J12" s="39">
         <v>44942</v>
       </c>
-      <c r="K12" s="228" t="s">
+      <c r="K12" s="227" t="s">
         <v>72</v>
       </c>
       <c r="L12" s="41">
@@ -4440,7 +4526,7 @@
       <c r="J16" s="39">
         <v>44946</v>
       </c>
-      <c r="K16" s="229" t="s">
+      <c r="K16" s="228" t="s">
         <v>73</v>
       </c>
       <c r="L16" s="9">
@@ -5675,11 +5761,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="254">
+      <c r="M49" s="259">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="239">
+      <c r="N49" s="244">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -5708,8 +5794,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="255"/>
-      <c r="N50" s="240"/>
+      <c r="M50" s="260"/>
+      <c r="N50" s="245"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -5734,367 +5820,276 @@
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="30"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="25">
+        <v>0</v>
+      </c>
+      <c r="D52" s="117"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="108"/>
+      <c r="H52" s="119"/>
       <c r="I52" s="91"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="106"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="34"/>
       <c r="P52" s="36"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="106"/>
+    <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="124">
+        <f>SUM(C5:C52)</f>
+        <v>63892</v>
+      </c>
+      <c r="D53" s="125"/>
+      <c r="E53" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="127">
+        <f>SUM(F5:F52)</f>
+        <v>1784265</v>
+      </c>
+      <c r="G53" s="125"/>
+      <c r="H53" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="129">
+        <f>SUM(I5:I52)</f>
+        <v>6463.5</v>
+      </c>
+      <c r="J53" s="130"/>
+      <c r="K53" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="132">
+        <f>SUM(L5:L52)</f>
+        <v>51500</v>
+      </c>
+      <c r="M53" s="133"/>
+      <c r="N53" s="133"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="106"/>
+    <row r="54" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="P54" s="36"/>
       <c r="Q54" s="9"/>
     </row>
-    <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="112"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="105"/>
-      <c r="N55" s="106"/>
+    <row r="55" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="135"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="1"/>
+      <c r="H55" s="246" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="247"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="248">
+        <f>I53+L53</f>
+        <v>57963.5</v>
+      </c>
+      <c r="L55" s="249"/>
+      <c r="M55" s="250">
+        <f>N49+M49</f>
+        <v>1715746.5</v>
+      </c>
+      <c r="N55" s="251"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
-    <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="23"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="106"/>
+    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D56" s="243" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="243"/>
+      <c r="F56" s="138">
+        <f>F53-K55-C53</f>
+        <v>1662409.5</v>
+      </c>
+      <c r="I56" s="139"/>
+      <c r="J56" s="140"/>
       <c r="P56" s="36"/>
       <c r="Q56" s="9"/>
     </row>
-    <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="23"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="116"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="106"/>
+    <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D57" s="261" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="261"/>
+      <c r="F57" s="133">
+        <v>-1524395.48</v>
+      </c>
+      <c r="I57" s="262" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="263"/>
+      <c r="K57" s="264">
+        <f>F59+F60+F61</f>
+        <v>399275.92000000004</v>
+      </c>
+      <c r="L57" s="265"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
-    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="23"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="106"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="9"/>
-    </row>
-    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="25">
-        <v>0</v>
-      </c>
-      <c r="D59" s="117"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="108"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="120"/>
-      <c r="K59" s="121"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="122"/>
-      <c r="N59" s="34"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="9"/>
-    </row>
-    <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="124">
-        <f>SUM(C5:C59)</f>
-        <v>63892</v>
-      </c>
-      <c r="D60" s="125"/>
-      <c r="E60" s="126" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="127">
-        <f>SUM(F5:F59)</f>
-        <v>1784265</v>
-      </c>
-      <c r="G60" s="125"/>
-      <c r="H60" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="129">
-        <f>SUM(I5:I59)</f>
-        <v>6463.5</v>
-      </c>
-      <c r="J60" s="130"/>
-      <c r="K60" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="L60" s="132">
-        <f>SUM(L5:L59)</f>
-        <v>51500</v>
-      </c>
-      <c r="M60" s="133"/>
-      <c r="N60" s="133"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="9"/>
-    </row>
-    <row r="61" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="4" t="s">
+    <row r="58" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="141"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="143">
+        <v>0</v>
+      </c>
+      <c r="I58" s="144"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="146"/>
+      <c r="L58" s="147"/>
+    </row>
+    <row r="59" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="9"/>
-    </row>
-    <row r="62" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="135"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="1"/>
-      <c r="H62" s="241" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="242"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="243">
-        <f>I60+L60</f>
-        <v>57963.5</v>
-      </c>
-      <c r="L62" s="244"/>
-      <c r="M62" s="245">
-        <f>N49+M49</f>
-        <v>1715746.5</v>
-      </c>
-      <c r="N62" s="246"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="9"/>
-    </row>
-    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="238" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="238"/>
-      <c r="F63" s="138">
-        <f>F60-K62-C60</f>
-        <v>1662409.5</v>
-      </c>
-      <c r="I63" s="139"/>
-      <c r="J63" s="140"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="9"/>
-    </row>
-    <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="256" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="256"/>
-      <c r="F64" s="133">
-        <v>-1524395.48</v>
-      </c>
-      <c r="I64" s="257" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="258"/>
-      <c r="K64" s="259">
-        <f>F66+F67+F68</f>
-        <v>399275.92000000004</v>
-      </c>
-      <c r="L64" s="260"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="9"/>
-    </row>
-    <row r="65" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D65" s="141"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="143">
-        <v>0</v>
-      </c>
-      <c r="I65" s="144"/>
-      <c r="J65" s="145"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="147"/>
-    </row>
-    <row r="66" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="135" t="s">
+      <c r="E59" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="133">
-        <f>SUM(F63:F65)</f>
+      <c r="F59" s="133">
+        <f>SUM(F56:F58)</f>
         <v>138014.02000000002</v>
       </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="148" t="s">
+      <c r="H59" s="23"/>
+      <c r="I59" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="149"/>
-      <c r="K66" s="261">
+      <c r="J59" s="149"/>
+      <c r="K59" s="266">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L66" s="262"/>
-    </row>
-    <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="150" t="s">
+      <c r="L59" s="267"/>
+    </row>
+    <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="135" t="s">
+      <c r="E60" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="151">
+      <c r="F60" s="151">
         <v>37733</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="152">
+    <row r="61" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="263" t="s">
+      <c r="D61" s="268" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="264"/>
-      <c r="F68" s="153">
+      <c r="E61" s="269"/>
+      <c r="F61" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="265" t="s">
+      <c r="I61" s="270" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="266"/>
-      <c r="K68" s="267">
-        <f>K64+K66</f>
+      <c r="J61" s="271"/>
+      <c r="K61" s="272">
+        <f>K57+K59</f>
         <v>25327.20000000007</v>
       </c>
-      <c r="L68" s="267"/>
-    </row>
-    <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C69" s="154"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="157"/>
-      <c r="J69" s="158"/>
-    </row>
-    <row r="70" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I70" s="159"/>
-      <c r="J70" s="159"/>
-      <c r="K70" s="160"/>
-      <c r="L70" s="160"/>
-    </row>
-    <row r="71" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="161"/>
-      <c r="C71" s="162"/>
-      <c r="D71" s="163"/>
-      <c r="E71" s="36"/>
-      <c r="I71" s="159"/>
-      <c r="J71" s="159"/>
-      <c r="K71" s="160"/>
-      <c r="L71" s="160"/>
-      <c r="M71" s="164"/>
-      <c r="N71" s="135"/>
-    </row>
-    <row r="72" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="161"/>
-      <c r="C72" s="165"/>
-      <c r="E72" s="36"/>
-      <c r="M72" s="164"/>
-      <c r="N72" s="135"/>
-    </row>
-    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="161"/>
-      <c r="C73" s="165"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="166"/>
-      <c r="L73" s="167"/>
+      <c r="L61" s="272"/>
+    </row>
+    <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C62" s="154"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="157"/>
+      <c r="J62" s="158"/>
+    </row>
+    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="159"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="160"/>
+      <c r="L63" s="160"/>
+    </row>
+    <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="161"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="163"/>
+      <c r="E64" s="36"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="160"/>
+      <c r="L64" s="160"/>
+      <c r="M64" s="164"/>
+      <c r="N64" s="135"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="161"/>
+      <c r="C65" s="165"/>
+      <c r="E65" s="36"/>
+      <c r="M65" s="164"/>
+      <c r="N65" s="135"/>
+    </row>
+    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="161"/>
+      <c r="C66" s="165"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="166"/>
+      <c r="L66" s="167"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="161"/>
+      <c r="C67" s="165"/>
+      <c r="E67" s="36"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="161"/>
+      <c r="C68" s="165"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="168"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E69" s="169"/>
+      <c r="F69" s="36"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E70" s="169"/>
+      <c r="F70" s="36"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E71" s="169"/>
+      <c r="F71" s="36"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E72" s="169"/>
+      <c r="F72" s="36"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E73" s="169"/>
+      <c r="F73" s="36"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="161"/>
-      <c r="C74" s="165"/>
-      <c r="E74" s="36"/>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E74" s="169"/>
+      <c r="F74" s="36"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="161"/>
-      <c r="C75" s="165"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="168"/>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E75" s="169"/>
+      <c r="F75" s="36"/>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
@@ -6120,60 +6115,25 @@
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E80" s="169"/>
       <c r="F80" s="36"/>
-      <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="169"/>
-      <c r="F81" s="36"/>
-      <c r="M81" s="1"/>
-    </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E82" s="169"/>
-      <c r="F82" s="36"/>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E83" s="169"/>
-      <c r="F83" s="36"/>
-      <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E84" s="169"/>
-      <c r="F84" s="36"/>
-      <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E85" s="169"/>
-      <c r="F85" s="36"/>
-      <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E86" s="169"/>
-      <c r="F86" s="36"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E87" s="169"/>
-      <c r="F87" s="36"/>
-    </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F88" s="168"/>
-    </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F89" s="168"/>
-    </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F90" s="168"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="168"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="168"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
@@ -6183,11 +6143,11 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="N49:N50"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6209,10 +6169,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="209" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="210" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="208" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="209" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="212" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="211" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.42578125" style="135"/>
@@ -6221,7 +6181,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="213" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="170"/>
@@ -6262,10 +6222,10 @@
       <c r="C3" s="181">
         <v>66876.399999999994</v>
       </c>
-      <c r="D3" s="215">
+      <c r="D3" s="214">
         <v>44940</v>
       </c>
-      <c r="E3" s="216">
+      <c r="E3" s="215">
         <v>66876.399999999994</v>
       </c>
       <c r="F3" s="182">
@@ -6283,10 +6243,10 @@
       <c r="C4" s="151">
         <v>4200</v>
       </c>
-      <c r="D4" s="215">
+      <c r="D4" s="214">
         <v>44940</v>
       </c>
-      <c r="E4" s="217">
+      <c r="E4" s="216">
         <v>4200</v>
       </c>
       <c r="F4" s="185">
@@ -6304,10 +6264,10 @@
       <c r="C5" s="151">
         <v>69024</v>
       </c>
-      <c r="D5" s="215">
+      <c r="D5" s="214">
         <v>44940</v>
       </c>
-      <c r="E5" s="217">
+      <c r="E5" s="216">
         <v>69024</v>
       </c>
       <c r="F5" s="185">
@@ -6325,10 +6285,10 @@
       <c r="C6" s="151">
         <v>15219.6</v>
       </c>
-      <c r="D6" s="215">
+      <c r="D6" s="214">
         <v>44940</v>
       </c>
-      <c r="E6" s="217">
+      <c r="E6" s="216">
         <v>15219.6</v>
       </c>
       <c r="F6" s="185">
@@ -6347,10 +6307,10 @@
       <c r="C7" s="151">
         <v>121464.92</v>
       </c>
-      <c r="D7" s="215">
+      <c r="D7" s="214">
         <v>44940</v>
       </c>
-      <c r="E7" s="217">
+      <c r="E7" s="216">
         <v>121464.92</v>
       </c>
       <c r="F7" s="185">
@@ -6368,10 +6328,10 @@
       <c r="C8" s="151">
         <v>97453.87</v>
       </c>
-      <c r="D8" s="218">
+      <c r="D8" s="217">
         <v>44946</v>
       </c>
-      <c r="E8" s="219">
+      <c r="E8" s="218">
         <v>97453.87</v>
       </c>
       <c r="F8" s="185">
@@ -6389,10 +6349,10 @@
       <c r="C9" s="151">
         <v>142167.48000000001</v>
       </c>
-      <c r="D9" s="218">
+      <c r="D9" s="217">
         <v>44946</v>
       </c>
-      <c r="E9" s="219">
+      <c r="E9" s="218">
         <v>142167.48000000001</v>
       </c>
       <c r="F9" s="185">
@@ -6410,10 +6370,10 @@
       <c r="C10" s="151">
         <v>7989.4</v>
       </c>
-      <c r="D10" s="218">
+      <c r="D10" s="217">
         <v>44946</v>
       </c>
-      <c r="E10" s="219">
+      <c r="E10" s="218">
         <v>7989.4</v>
       </c>
       <c r="F10" s="185">
@@ -6431,10 +6391,10 @@
       <c r="C11" s="151">
         <v>89578.1</v>
       </c>
-      <c r="D11" s="218">
+      <c r="D11" s="217">
         <v>44946</v>
       </c>
-      <c r="E11" s="219">
+      <c r="E11" s="218">
         <v>89578.1</v>
       </c>
       <c r="F11" s="185">
@@ -6452,10 +6412,10 @@
       <c r="C12" s="151">
         <v>84731.3</v>
       </c>
-      <c r="D12" s="218">
+      <c r="D12" s="217">
         <v>44946</v>
       </c>
-      <c r="E12" s="219">
+      <c r="E12" s="218">
         <v>84731.3</v>
       </c>
       <c r="F12" s="185">
@@ -6474,10 +6434,10 @@
       <c r="C13" s="151">
         <v>9527</v>
       </c>
-      <c r="D13" s="218">
+      <c r="D13" s="217">
         <v>44946</v>
       </c>
-      <c r="E13" s="219">
+      <c r="E13" s="218">
         <v>9527</v>
       </c>
       <c r="F13" s="185">
@@ -6495,10 +6455,10 @@
       <c r="C14" s="151">
         <v>12017.19</v>
       </c>
-      <c r="D14" s="218">
+      <c r="D14" s="217">
         <v>44946</v>
       </c>
-      <c r="E14" s="219">
+      <c r="E14" s="218">
         <v>12017.19</v>
       </c>
       <c r="F14" s="185">
@@ -6516,10 +6476,10 @@
       <c r="C15" s="151">
         <v>155214</v>
       </c>
-      <c r="D15" s="218">
+      <c r="D15" s="217">
         <v>44946</v>
       </c>
-      <c r="E15" s="219">
+      <c r="E15" s="218">
         <v>155214</v>
       </c>
       <c r="F15" s="185">
@@ -6537,10 +6497,10 @@
       <c r="C16" s="151">
         <v>87505.3</v>
       </c>
-      <c r="D16" s="220">
+      <c r="D16" s="219">
         <v>44953</v>
       </c>
-      <c r="E16" s="221">
+      <c r="E16" s="220">
         <v>87505.3</v>
       </c>
       <c r="F16" s="185">
@@ -6558,10 +6518,10 @@
       <c r="C17" s="151">
         <v>124226.23</v>
       </c>
-      <c r="D17" s="220">
+      <c r="D17" s="219">
         <v>44953</v>
       </c>
-      <c r="E17" s="221">
+      <c r="E17" s="220">
         <v>124226.23</v>
       </c>
       <c r="F17" s="185">
@@ -6579,10 +6539,10 @@
       <c r="C18" s="151">
         <v>74380.55</v>
       </c>
-      <c r="D18" s="220">
+      <c r="D18" s="219">
         <v>44953</v>
       </c>
-      <c r="E18" s="221">
+      <c r="E18" s="220">
         <v>74380.55</v>
       </c>
       <c r="F18" s="185">
@@ -6600,10 +6560,10 @@
       <c r="C19" s="151">
         <v>17080</v>
       </c>
-      <c r="D19" s="220">
+      <c r="D19" s="219">
         <v>44953</v>
       </c>
-      <c r="E19" s="221">
+      <c r="E19" s="220">
         <v>17080</v>
       </c>
       <c r="F19" s="185">
@@ -6621,10 +6581,10 @@
       <c r="C20" s="151">
         <v>135608.74</v>
       </c>
-      <c r="D20" s="220">
+      <c r="D20" s="219">
         <v>44953</v>
       </c>
-      <c r="E20" s="221">
+      <c r="E20" s="220">
         <v>135608.74</v>
       </c>
       <c r="F20" s="185">
@@ -6642,10 +6602,10 @@
       <c r="C21" s="151">
         <v>21961.200000000001</v>
       </c>
-      <c r="D21" s="220">
+      <c r="D21" s="219">
         <v>44953</v>
       </c>
-      <c r="E21" s="221">
+      <c r="E21" s="220">
         <v>21961.200000000001</v>
       </c>
       <c r="F21" s="185">
@@ -6663,10 +6623,10 @@
       <c r="C22" s="151">
         <v>748</v>
       </c>
-      <c r="D22" s="220">
+      <c r="D22" s="219">
         <v>44953</v>
       </c>
-      <c r="E22" s="221">
+      <c r="E22" s="220">
         <v>748</v>
       </c>
       <c r="F22" s="185">
@@ -6684,10 +6644,10 @@
       <c r="C23" s="151">
         <v>70003</v>
       </c>
-      <c r="D23" s="220">
+      <c r="D23" s="219">
         <v>44953</v>
       </c>
-      <c r="E23" s="221">
+      <c r="E23" s="220">
         <v>70003</v>
       </c>
       <c r="F23" s="185">
@@ -6705,10 +6665,10 @@
       <c r="C24" s="151">
         <v>616</v>
       </c>
-      <c r="D24" s="222">
+      <c r="D24" s="221">
         <v>44960</v>
       </c>
-      <c r="E24" s="223">
+      <c r="E24" s="222">
         <v>616</v>
       </c>
       <c r="F24" s="185">
@@ -6727,10 +6687,10 @@
       <c r="C25" s="151">
         <v>6048.9</v>
       </c>
-      <c r="D25" s="222">
+      <c r="D25" s="221">
         <v>44960</v>
       </c>
-      <c r="E25" s="223">
+      <c r="E25" s="222">
         <v>6048.9</v>
       </c>
       <c r="F25" s="185">
@@ -6748,10 +6708,10 @@
       <c r="C26" s="151">
         <v>110754.3</v>
       </c>
-      <c r="D26" s="222">
+      <c r="D26" s="221">
         <v>44960</v>
       </c>
-      <c r="E26" s="223">
+      <c r="E26" s="222">
         <v>110754.3</v>
       </c>
       <c r="F26" s="185">
@@ -6797,7 +6757,7 @@
     </row>
     <row r="30" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="187"/>
-      <c r="B30" s="189"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="151"/>
       <c r="D30" s="187"/>
       <c r="E30" s="151"/>
@@ -6811,7 +6771,7 @@
     </row>
     <row r="31" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="187"/>
-      <c r="B31" s="189"/>
+      <c r="B31" s="188"/>
       <c r="C31" s="151"/>
       <c r="D31" s="187"/>
       <c r="E31" s="151"/>
@@ -6825,7 +6785,7 @@
     </row>
     <row r="32" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="187"/>
-      <c r="B32" s="189"/>
+      <c r="B32" s="188"/>
       <c r="C32" s="151"/>
       <c r="D32" s="187"/>
       <c r="E32" s="151"/>
@@ -6840,7 +6800,7 @@
     </row>
     <row r="33" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="187"/>
-      <c r="B33" s="189"/>
+      <c r="B33" s="188"/>
       <c r="C33" s="151"/>
       <c r="D33" s="187"/>
       <c r="E33" s="151"/>
@@ -6854,7 +6814,7 @@
     </row>
     <row r="34" spans="1:10" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="187"/>
-      <c r="B34" s="189"/>
+      <c r="B34" s="188"/>
       <c r="C34" s="151"/>
       <c r="D34" s="187"/>
       <c r="E34" s="151"/>
@@ -6868,7 +6828,7 @@
     </row>
     <row r="35" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="187"/>
-      <c r="B35" s="189"/>
+      <c r="B35" s="188"/>
       <c r="C35" s="151"/>
       <c r="D35" s="187"/>
       <c r="E35" s="151"/>
@@ -6882,7 +6842,7 @@
     </row>
     <row r="36" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="187"/>
-      <c r="B36" s="189"/>
+      <c r="B36" s="188"/>
       <c r="C36" s="151"/>
       <c r="D36" s="187"/>
       <c r="E36" s="151"/>
@@ -6896,7 +6856,7 @@
     </row>
     <row r="37" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="187"/>
-      <c r="B37" s="189"/>
+      <c r="B37" s="188"/>
       <c r="C37" s="151"/>
       <c r="D37" s="187"/>
       <c r="E37" s="151"/>
@@ -6904,14 +6864,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="190">
+      <c r="J37" s="189">
         <f>SUM(J29:J36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="187"/>
-      <c r="B38" s="189"/>
+      <c r="B38" s="188"/>
       <c r="C38" s="151"/>
       <c r="D38" s="187"/>
       <c r="E38" s="151"/>
@@ -6922,7 +6882,7 @@
     </row>
     <row r="39" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="187"/>
-      <c r="B39" s="189"/>
+      <c r="B39" s="188"/>
       <c r="C39" s="151"/>
       <c r="D39" s="187"/>
       <c r="E39" s="151"/>
@@ -6933,7 +6893,7 @@
     </row>
     <row r="40" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="187"/>
-      <c r="B40" s="189"/>
+      <c r="B40" s="188"/>
       <c r="C40" s="151"/>
       <c r="D40" s="187"/>
       <c r="E40" s="100"/>
@@ -6944,7 +6904,7 @@
     </row>
     <row r="41" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="187"/>
-      <c r="B41" s="189"/>
+      <c r="B41" s="188"/>
       <c r="C41" s="151"/>
       <c r="D41" s="187"/>
       <c r="E41" s="100"/>
@@ -6954,8 +6914,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="191"/>
-      <c r="B42" s="192"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="191"/>
       <c r="C42" s="100"/>
       <c r="D42" s="187"/>
       <c r="E42" s="100"/>
@@ -6965,10 +6925,10 @@
       </c>
     </row>
     <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="193"/>
-      <c r="B43" s="194"/>
+      <c r="A43" s="192"/>
+      <c r="B43" s="193"/>
       <c r="C43" s="100"/>
-      <c r="D43" s="195"/>
+      <c r="D43" s="194"/>
       <c r="E43" s="100"/>
       <c r="F43" s="185">
         <f t="shared" si="0"/>
@@ -6976,10 +6936,10 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="196"/>
-      <c r="B44" s="197"/>
+      <c r="A44" s="195"/>
+      <c r="B44" s="196"/>
       <c r="C44" s="100"/>
-      <c r="D44" s="195"/>
+      <c r="D44" s="194"/>
       <c r="E44" s="100"/>
       <c r="F44" s="185">
         <f t="shared" si="0"/>
@@ -6987,10 +6947,10 @@
       </c>
     </row>
     <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="196"/>
-      <c r="B45" s="197"/>
+      <c r="A45" s="195"/>
+      <c r="B45" s="196"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="195"/>
+      <c r="D45" s="194"/>
       <c r="E45" s="100"/>
       <c r="F45" s="185">
         <f t="shared" si="0"/>
@@ -6998,10 +6958,10 @@
       </c>
     </row>
     <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="196"/>
-      <c r="B46" s="197"/>
+      <c r="A46" s="195"/>
+      <c r="B46" s="196"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="195"/>
+      <c r="D46" s="194"/>
       <c r="E46" s="100"/>
       <c r="F46" s="185">
         <f t="shared" si="0"/>
@@ -7009,10 +6969,10 @@
       </c>
     </row>
     <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="196"/>
-      <c r="B47" s="197"/>
+      <c r="A47" s="195"/>
+      <c r="B47" s="196"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="195"/>
+      <c r="D47" s="194"/>
       <c r="E47" s="100"/>
       <c r="F47" s="185">
         <f t="shared" si="0"/>
@@ -7020,10 +6980,10 @@
       </c>
     </row>
     <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="196"/>
-      <c r="B48" s="197"/>
+      <c r="A48" s="195"/>
+      <c r="B48" s="196"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="195"/>
+      <c r="D48" s="194"/>
       <c r="E48" s="100"/>
       <c r="F48" s="185">
         <f t="shared" si="0"/>
@@ -7031,10 +6991,10 @@
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="196"/>
-      <c r="B49" s="197"/>
+      <c r="A49" s="195"/>
+      <c r="B49" s="196"/>
       <c r="C49" s="100"/>
-      <c r="D49" s="195"/>
+      <c r="D49" s="194"/>
       <c r="E49" s="100"/>
       <c r="F49" s="185">
         <f t="shared" si="0"/>
@@ -7042,10 +7002,10 @@
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="196"/>
-      <c r="B50" s="197"/>
+      <c r="A50" s="195"/>
+      <c r="B50" s="196"/>
       <c r="C50" s="100"/>
-      <c r="D50" s="195"/>
+      <c r="D50" s="194"/>
       <c r="E50" s="100"/>
       <c r="F50" s="185">
         <f t="shared" si="0"/>
@@ -7053,10 +7013,10 @@
       </c>
     </row>
     <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="196"/>
-      <c r="B51" s="197"/>
+      <c r="A51" s="195"/>
+      <c r="B51" s="196"/>
       <c r="C51" s="100"/>
-      <c r="D51" s="195"/>
+      <c r="D51" s="194"/>
       <c r="E51" s="100"/>
       <c r="F51" s="185">
         <f t="shared" si="0"/>
@@ -7064,10 +7024,10 @@
       </c>
     </row>
     <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
+      <c r="A52" s="195"/>
+      <c r="B52" s="196"/>
       <c r="C52" s="100"/>
-      <c r="D52" s="195"/>
+      <c r="D52" s="194"/>
       <c r="E52" s="100"/>
       <c r="F52" s="185">
         <f t="shared" si="0"/>
@@ -7075,10 +7035,10 @@
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="196"/>
-      <c r="B53" s="197"/>
+      <c r="A53" s="195"/>
+      <c r="B53" s="196"/>
       <c r="C53" s="100"/>
-      <c r="D53" s="195"/>
+      <c r="D53" s="194"/>
       <c r="E53" s="100"/>
       <c r="F53" s="185">
         <f t="shared" si="0"/>
@@ -7086,10 +7046,10 @@
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="196"/>
-      <c r="B54" s="197"/>
+      <c r="A54" s="195"/>
+      <c r="B54" s="196"/>
       <c r="C54" s="100"/>
-      <c r="D54" s="195"/>
+      <c r="D54" s="194"/>
       <c r="E54" s="100"/>
       <c r="F54" s="185">
         <f t="shared" si="0"/>
@@ -7097,10 +7057,10 @@
       </c>
     </row>
     <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="196"/>
-      <c r="B55" s="197"/>
+      <c r="A55" s="195"/>
+      <c r="B55" s="196"/>
       <c r="C55" s="100"/>
-      <c r="D55" s="195"/>
+      <c r="D55" s="194"/>
       <c r="E55" s="100"/>
       <c r="F55" s="185">
         <f t="shared" si="0"/>
@@ -7108,10 +7068,10 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="196"/>
-      <c r="B56" s="197"/>
+      <c r="A56" s="195"/>
+      <c r="B56" s="196"/>
       <c r="C56" s="100"/>
-      <c r="D56" s="195"/>
+      <c r="D56" s="194"/>
       <c r="E56" s="100"/>
       <c r="F56" s="185">
         <f t="shared" si="0"/>
@@ -7119,10 +7079,10 @@
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="196"/>
-      <c r="B57" s="197"/>
+      <c r="A57" s="195"/>
+      <c r="B57" s="196"/>
       <c r="C57" s="100"/>
-      <c r="D57" s="195"/>
+      <c r="D57" s="194"/>
       <c r="E57" s="100"/>
       <c r="F57" s="185">
         <f t="shared" si="0"/>
@@ -7130,10 +7090,10 @@
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="196"/>
-      <c r="B58" s="197"/>
+      <c r="A58" s="195"/>
+      <c r="B58" s="196"/>
       <c r="C58" s="100"/>
-      <c r="D58" s="195"/>
+      <c r="D58" s="194"/>
       <c r="E58" s="100"/>
       <c r="F58" s="185">
         <f t="shared" si="0"/>
@@ -7141,10 +7101,10 @@
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="196"/>
-      <c r="B59" s="197"/>
+      <c r="A59" s="195"/>
+      <c r="B59" s="196"/>
       <c r="C59" s="100"/>
-      <c r="D59" s="195"/>
+      <c r="D59" s="194"/>
       <c r="E59" s="100"/>
       <c r="F59" s="185">
         <f t="shared" si="0"/>
@@ -7152,10 +7112,10 @@
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="196"/>
-      <c r="B60" s="197"/>
+      <c r="A60" s="195"/>
+      <c r="B60" s="196"/>
       <c r="C60" s="100"/>
-      <c r="D60" s="195"/>
+      <c r="D60" s="194"/>
       <c r="E60" s="100"/>
       <c r="F60" s="185">
         <f t="shared" si="0"/>
@@ -7163,10 +7123,10 @@
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="196"/>
-      <c r="B61" s="197"/>
+      <c r="A61" s="195"/>
+      <c r="B61" s="196"/>
       <c r="C61" s="100"/>
-      <c r="D61" s="195"/>
+      <c r="D61" s="194"/>
       <c r="E61" s="100"/>
       <c r="F61" s="185">
         <f t="shared" si="0"/>
@@ -7174,10 +7134,10 @@
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="198"/>
-      <c r="B62" s="199"/>
+      <c r="A62" s="197"/>
+      <c r="B62" s="198"/>
       <c r="C62" s="36"/>
-      <c r="D62" s="200"/>
+      <c r="D62" s="199"/>
       <c r="E62" s="36"/>
       <c r="F62" s="185">
         <f t="shared" si="0"/>
@@ -7185,10 +7145,10 @@
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="198"/>
-      <c r="B63" s="199"/>
+      <c r="A63" s="197"/>
+      <c r="B63" s="198"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="200"/>
+      <c r="D63" s="199"/>
       <c r="E63" s="36"/>
       <c r="F63" s="185">
         <f t="shared" si="0"/>
@@ -7196,10 +7156,10 @@
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="198"/>
-      <c r="B64" s="199"/>
+      <c r="A64" s="197"/>
+      <c r="B64" s="198"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="200"/>
+      <c r="D64" s="199"/>
       <c r="E64" s="36"/>
       <c r="F64" s="185">
         <f t="shared" si="0"/>
@@ -7207,10 +7167,10 @@
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="198"/>
-      <c r="B65" s="199"/>
+      <c r="A65" s="197"/>
+      <c r="B65" s="198"/>
       <c r="C65" s="36"/>
-      <c r="D65" s="200"/>
+      <c r="D65" s="199"/>
       <c r="E65" s="36"/>
       <c r="F65" s="185">
         <f t="shared" si="0"/>
@@ -7218,10 +7178,10 @@
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="198"/>
-      <c r="B66" s="199"/>
+      <c r="A66" s="197"/>
+      <c r="B66" s="198"/>
       <c r="C66" s="36"/>
-      <c r="D66" s="200"/>
+      <c r="D66" s="199"/>
       <c r="E66" s="36"/>
       <c r="F66" s="185">
         <f t="shared" si="0"/>
@@ -7229,10 +7189,10 @@
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="198"/>
-      <c r="B67" s="199"/>
+      <c r="A67" s="197"/>
+      <c r="B67" s="198"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="200"/>
+      <c r="D67" s="199"/>
       <c r="E67" s="36"/>
       <c r="F67" s="185">
         <f t="shared" si="0"/>
@@ -7240,10 +7200,10 @@
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="196"/>
-      <c r="B68" s="201"/>
+      <c r="A68" s="195"/>
+      <c r="B68" s="200"/>
       <c r="C68" s="100"/>
-      <c r="D68" s="195"/>
+      <c r="D68" s="194"/>
       <c r="E68" s="100"/>
       <c r="F68" s="185">
         <f t="shared" si="0"/>
@@ -7251,10 +7211,10 @@
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="196"/>
-      <c r="B69" s="201"/>
+      <c r="A69" s="195"/>
+      <c r="B69" s="200"/>
       <c r="C69" s="100"/>
-      <c r="D69" s="195"/>
+      <c r="D69" s="194"/>
       <c r="E69" s="100"/>
       <c r="F69" s="185">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
@@ -7262,10 +7222,10 @@
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="196"/>
-      <c r="B70" s="201"/>
+      <c r="A70" s="195"/>
+      <c r="B70" s="200"/>
       <c r="C70" s="100"/>
-      <c r="D70" s="195"/>
+      <c r="D70" s="194"/>
       <c r="E70" s="100"/>
       <c r="F70" s="185">
         <f t="shared" si="1"/>
@@ -7273,10 +7233,10 @@
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="196"/>
-      <c r="B71" s="201"/>
+      <c r="A71" s="195"/>
+      <c r="B71" s="200"/>
       <c r="C71" s="100"/>
-      <c r="D71" s="195"/>
+      <c r="D71" s="194"/>
       <c r="E71" s="100"/>
       <c r="F71" s="185">
         <f t="shared" si="1"/>
@@ -7284,10 +7244,10 @@
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="196"/>
-      <c r="B72" s="201"/>
+      <c r="A72" s="195"/>
+      <c r="B72" s="200"/>
       <c r="C72" s="100"/>
-      <c r="D72" s="195"/>
+      <c r="D72" s="194"/>
       <c r="E72" s="100"/>
       <c r="F72" s="185">
         <f t="shared" si="1"/>
@@ -7295,10 +7255,10 @@
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="196"/>
-      <c r="B73" s="201"/>
+      <c r="A73" s="195"/>
+      <c r="B73" s="200"/>
       <c r="C73" s="100"/>
-      <c r="D73" s="195"/>
+      <c r="D73" s="194"/>
       <c r="E73" s="100"/>
       <c r="F73" s="185">
         <f t="shared" si="1"/>
@@ -7306,10 +7266,10 @@
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="196"/>
-      <c r="B74" s="201"/>
+      <c r="A74" s="195"/>
+      <c r="B74" s="200"/>
       <c r="C74" s="100"/>
-      <c r="D74" s="195"/>
+      <c r="D74" s="194"/>
       <c r="E74" s="100"/>
       <c r="F74" s="185">
         <f t="shared" si="1"/>
@@ -7317,10 +7277,10 @@
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="196"/>
-      <c r="B75" s="201"/>
+      <c r="A75" s="195"/>
+      <c r="B75" s="200"/>
       <c r="C75" s="100"/>
-      <c r="D75" s="195"/>
+      <c r="D75" s="194"/>
       <c r="E75" s="100"/>
       <c r="F75" s="185">
         <f t="shared" si="1"/>
@@ -7328,10 +7288,10 @@
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="196"/>
-      <c r="B76" s="201"/>
+      <c r="A76" s="195"/>
+      <c r="B76" s="200"/>
       <c r="C76" s="100"/>
-      <c r="D76" s="195"/>
+      <c r="D76" s="194"/>
       <c r="E76" s="100"/>
       <c r="F76" s="185">
         <f t="shared" si="1"/>
@@ -7339,10 +7299,10 @@
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="196"/>
-      <c r="B77" s="201"/>
+      <c r="A77" s="195"/>
+      <c r="B77" s="200"/>
       <c r="C77" s="100"/>
-      <c r="D77" s="195"/>
+      <c r="D77" s="194"/>
       <c r="E77" s="100"/>
       <c r="F77" s="185">
         <f t="shared" si="1"/>
@@ -7350,12 +7310,12 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="202"/>
-      <c r="B78" s="203"/>
+      <c r="A78" s="201"/>
+      <c r="B78" s="202"/>
       <c r="C78" s="36">
         <v>0</v>
       </c>
-      <c r="D78" s="200"/>
+      <c r="D78" s="199"/>
       <c r="E78" s="36"/>
       <c r="F78" s="185">
         <f t="shared" si="1"/>
@@ -7363,159 +7323,159 @@
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="204"/>
-      <c r="B79" s="205"/>
-      <c r="C79" s="206">
+      <c r="A79" s="203"/>
+      <c r="B79" s="204"/>
+      <c r="C79" s="205">
         <f>SUM(C3:C78)</f>
         <v>1524395.48</v>
       </c>
       <c r="D79" s="177"/>
-      <c r="E79" s="207">
+      <c r="E79" s="206">
         <f>SUM(E3:E78)</f>
         <v>1524395.48</v>
       </c>
-      <c r="F79" s="208">
+      <c r="F79" s="207">
         <f>F78</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="200"/>
+      <c r="D80" s="199"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="200"/>
+      <c r="D81" s="199"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="211"/>
+      <c r="B82" s="210"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="211"/>
+      <c r="B83" s="210"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="211"/>
+      <c r="B84" s="210"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="211"/>
+      <c r="B85" s="210"/>
       <c r="F85" s="135"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="211"/>
+      <c r="B86" s="210"/>
       <c r="F86" s="135"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="211"/>
+      <c r="B87" s="210"/>
       <c r="F87" s="135"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="211"/>
+      <c r="B88" s="210"/>
       <c r="F88" s="135"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="211"/>
+      <c r="B89" s="210"/>
       <c r="F89" s="135"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="211"/>
+      <c r="B90" s="210"/>
       <c r="F90" s="135"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="211"/>
+      <c r="B91" s="210"/>
       <c r="F91" s="135"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="211"/>
+      <c r="B92" s="210"/>
       <c r="F92" s="135"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="211"/>
+      <c r="B93" s="210"/>
       <c r="F93" s="135"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="211"/>
+      <c r="B94" s="210"/>
       <c r="E94" s="135"/>
       <c r="F94" s="135"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="211"/>
+      <c r="B95" s="210"/>
       <c r="E95" s="135"/>
       <c r="F95" s="135"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="211"/>
+      <c r="B96" s="210"/>
       <c r="E96" s="135"/>
       <c r="F96" s="135"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="211"/>
+      <c r="B97" s="210"/>
       <c r="E97" s="135"/>
       <c r="F97" s="135"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="211"/>
+      <c r="B98" s="210"/>
       <c r="E98" s="135"/>
       <c r="F98" s="135"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="211"/>
+      <c r="B99" s="210"/>
       <c r="E99" s="135"/>
       <c r="F99" s="135"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="211"/>
+      <c r="B100" s="210"/>
       <c r="E100" s="135"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="211"/>
+      <c r="B101" s="210"/>
       <c r="E101" s="135"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="211"/>
+      <c r="B102" s="210"/>
       <c r="E102" s="135"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="211"/>
+      <c r="B103" s="210"/>
       <c r="E103" s="135"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="211"/>
+      <c r="B104" s="210"/>
       <c r="E104" s="135"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="211"/>
+      <c r="B105" s="210"/>
       <c r="E105" s="135"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="211"/>
+      <c r="B106" s="210"/>
       <c r="E106" s="135"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="211"/>
+      <c r="B107" s="210"/>
       <c r="E107" s="135"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="211"/>
+      <c r="B108" s="210"/>
       <c r="E108" s="135"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="211"/>
+      <c r="B109" s="210"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="211"/>
+      <c r="B110" s="210"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="211"/>
+      <c r="B111" s="210"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="211"/>
+      <c r="B112" s="210"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="211"/>
+      <c r="B113" s="210"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="211"/>
+      <c r="B114" s="210"/>
     </row>
     <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C115" s="213"/>
+      <c r="C115" s="212"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7529,8 +7489,8 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7555,23 +7515,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="247"/>
-      <c r="C1" s="249" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="248"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7581,21 +7541,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="230" t="s">
+      <c r="R3" s="235" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7610,14 +7570,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="232" t="s">
+      <c r="E4" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="233"/>
-      <c r="H4" s="234" t="s">
+      <c r="F4" s="238"/>
+      <c r="H4" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="235"/>
+      <c r="I4" s="240"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7627,11 +7587,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="236" t="s">
+      <c r="P4" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="231"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="236"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9450,11 +9410,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="254">
+      <c r="M49" s="259">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="239">
+      <c r="N49" s="244">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -9483,8 +9443,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="255"/>
-      <c r="N50" s="240"/>
+      <c r="M50" s="260"/>
+      <c r="N50" s="245"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9702,29 +9662,29 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="241" t="s">
+      <c r="H62" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="242"/>
+      <c r="I62" s="247"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="243">
+      <c r="K62" s="248">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="244"/>
-      <c r="M62" s="245">
+      <c r="L62" s="249"/>
+      <c r="M62" s="250">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="246"/>
+      <c r="N62" s="251"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="238" t="s">
+      <c r="D63" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="238"/>
+      <c r="E63" s="243"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
         <v>0</v>
@@ -9735,22 +9695,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="256" t="s">
+      <c r="D64" s="261" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="256"/>
+      <c r="E64" s="261"/>
       <c r="F64" s="133">
-        <v>-1524395.48</v>
-      </c>
-      <c r="I64" s="257" t="s">
+        <v>-2061966.34</v>
+      </c>
+      <c r="I64" s="262" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="258"/>
-      <c r="K64" s="259">
+      <c r="J64" s="263"/>
+      <c r="K64" s="264">
         <f>F66+F67+F68</f>
-        <v>-1524395.48</v>
-      </c>
-      <c r="L64" s="260"/>
+        <v>-2061966.34</v>
+      </c>
+      <c r="L64" s="265"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -9774,18 +9734,18 @@
       </c>
       <c r="F66" s="133">
         <f>SUM(F63:F65)</f>
-        <v>-1524395.48</v>
+        <v>-2061966.34</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="148" t="s">
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="261">
+      <c r="K66" s="266">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="262"/>
+      <c r="L66" s="267"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -9802,22 +9762,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="263" t="s">
+      <c r="D68" s="268" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="264"/>
+      <c r="E68" s="269"/>
       <c r="F68" s="153">
         <v>0</v>
       </c>
-      <c r="I68" s="265" t="s">
+      <c r="I68" s="270" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="266"/>
-      <c r="K68" s="267">
+      <c r="J68" s="271"/>
+      <c r="K68" s="272">
         <f>K64+K66</f>
-        <v>-1524395.48</v>
-      </c>
-      <c r="L68" s="267"/>
+        <v>-2061966.34</v>
+      </c>
+      <c r="L68" s="272"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
@@ -9977,16 +9937,16 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="209" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="210" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="208" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="209" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="212" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="211" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.42578125" style="135"/>
@@ -9995,7 +9955,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="213" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="170"/>
@@ -10036,10 +9996,10 @@
       <c r="C3" s="151">
         <v>78896</v>
       </c>
-      <c r="D3" s="224">
+      <c r="D3" s="223">
         <v>44960</v>
       </c>
-      <c r="E3" s="223">
+      <c r="E3" s="222">
         <v>78896</v>
       </c>
       <c r="F3" s="182">
@@ -10057,10 +10017,10 @@
       <c r="C4" s="151">
         <v>3852.85</v>
       </c>
-      <c r="D4" s="224">
+      <c r="D4" s="223">
         <v>44960</v>
       </c>
-      <c r="E4" s="223">
+      <c r="E4" s="222">
         <v>3852.85</v>
       </c>
       <c r="F4" s="185">
@@ -10078,10 +10038,10 @@
       <c r="C5" s="151">
         <v>33129.599999999999</v>
       </c>
-      <c r="D5" s="224">
+      <c r="D5" s="223">
         <v>44960</v>
       </c>
-      <c r="E5" s="223">
+      <c r="E5" s="222">
         <v>33129.599999999999</v>
       </c>
       <c r="F5" s="185">
@@ -10093,16 +10053,16 @@
       <c r="A6" s="187">
         <v>44958</v>
       </c>
-      <c r="B6" s="189" t="s">
+      <c r="B6" s="188" t="s">
         <v>59</v>
       </c>
       <c r="C6" s="151">
         <v>77299.399999999994</v>
       </c>
-      <c r="D6" s="224">
+      <c r="D6" s="223">
         <v>44960</v>
       </c>
-      <c r="E6" s="223">
+      <c r="E6" s="222">
         <v>77299.399999999994</v>
       </c>
       <c r="F6" s="185">
@@ -10115,16 +10075,16 @@
       <c r="A7" s="187">
         <v>44959</v>
       </c>
-      <c r="B7" s="189" t="s">
+      <c r="B7" s="188" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="151">
         <v>83397.55</v>
       </c>
-      <c r="D7" s="224">
+      <c r="D7" s="223">
         <v>44960</v>
       </c>
-      <c r="E7" s="223">
+      <c r="E7" s="222">
         <v>83397.55</v>
       </c>
       <c r="F7" s="185">
@@ -10136,16 +10096,16 @@
       <c r="A8" s="187">
         <v>44959</v>
       </c>
-      <c r="B8" s="189" t="s">
+      <c r="B8" s="188" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="151">
         <v>44916</v>
       </c>
-      <c r="D8" s="224">
+      <c r="D8" s="223">
         <v>44960</v>
       </c>
-      <c r="E8" s="223">
+      <c r="E8" s="222">
         <v>44916</v>
       </c>
       <c r="F8" s="185">
@@ -10163,11 +10123,15 @@
       <c r="C9" s="151">
         <v>59628.54</v>
       </c>
-      <c r="D9" s="187"/>
-      <c r="E9" s="151"/>
+      <c r="D9" s="229">
+        <v>44968</v>
+      </c>
+      <c r="E9" s="230">
+        <v>59628.54</v>
+      </c>
       <c r="F9" s="185">
         <f t="shared" si="0"/>
-        <v>59628.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10180,11 +10144,15 @@
       <c r="C10" s="151">
         <v>34552</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="151"/>
+      <c r="D10" s="229">
+        <v>44968</v>
+      </c>
+      <c r="E10" s="230">
+        <v>34552</v>
+      </c>
       <c r="F10" s="185">
         <f t="shared" si="0"/>
-        <v>94180.540000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -10197,11 +10165,15 @@
       <c r="C11" s="151">
         <v>111300.16</v>
       </c>
-      <c r="D11" s="187"/>
-      <c r="E11" s="151"/>
+      <c r="D11" s="229">
+        <v>44968</v>
+      </c>
+      <c r="E11" s="230">
+        <v>111300.16</v>
+      </c>
       <c r="F11" s="185">
         <f t="shared" si="0"/>
-        <v>205480.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -10214,11 +10186,15 @@
       <c r="C12" s="151">
         <v>9963</v>
       </c>
-      <c r="D12" s="187"/>
-      <c r="E12" s="151"/>
+      <c r="D12" s="229">
+        <v>44968</v>
+      </c>
+      <c r="E12" s="230">
+        <v>9963</v>
+      </c>
       <c r="F12" s="185">
         <f t="shared" si="0"/>
-        <v>215443.7</v>
+        <v>0</v>
       </c>
       <c r="G12" s="186"/>
     </row>
@@ -10232,230 +10208,424 @@
       <c r="C13" s="151">
         <v>75529.25</v>
       </c>
-      <c r="D13" s="187"/>
-      <c r="E13" s="151"/>
+      <c r="D13" s="229">
+        <v>44968</v>
+      </c>
+      <c r="E13" s="230">
+        <v>75529.25</v>
+      </c>
       <c r="F13" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="183"/>
-      <c r="B14" s="184"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="151"/>
+      <c r="A14" s="183">
+        <v>44964</v>
+      </c>
+      <c r="B14" s="184" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="151">
+        <v>83670.740000000005</v>
+      </c>
+      <c r="D14" s="229">
+        <v>44968</v>
+      </c>
+      <c r="E14" s="230">
+        <v>83670.740000000005</v>
+      </c>
       <c r="F14" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="183"/>
-      <c r="B15" s="184"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="151"/>
+      <c r="A15" s="183">
+        <v>44965</v>
+      </c>
+      <c r="B15" s="184" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="151">
+        <v>12446</v>
+      </c>
+      <c r="D15" s="229">
+        <v>44968</v>
+      </c>
+      <c r="E15" s="230">
+        <v>12446</v>
+      </c>
       <c r="F15" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="183"/>
-      <c r="B16" s="184"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="151"/>
+      <c r="A16" s="183">
+        <v>44965</v>
+      </c>
+      <c r="B16" s="184" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="151">
+        <v>45123.76</v>
+      </c>
+      <c r="D16" s="229">
+        <v>44968</v>
+      </c>
+      <c r="E16" s="230">
+        <v>45123.76</v>
+      </c>
       <c r="F16" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="183"/>
-      <c r="B17" s="184"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="151"/>
+      <c r="A17" s="183">
+        <v>44967</v>
+      </c>
+      <c r="B17" s="184" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="151">
+        <v>166731.16</v>
+      </c>
+      <c r="D17" s="229">
+        <v>44968</v>
+      </c>
+      <c r="E17" s="230">
+        <v>166731.16</v>
+      </c>
       <c r="F17" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="183"/>
-      <c r="B18" s="184"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="151"/>
+      <c r="A18" s="183">
+        <v>44967</v>
+      </c>
+      <c r="B18" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="151">
+        <v>6377.4</v>
+      </c>
+      <c r="D18" s="229">
+        <v>44968</v>
+      </c>
+      <c r="E18" s="230">
+        <v>6377.4</v>
+      </c>
       <c r="F18" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="183"/>
-      <c r="B19" s="184"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="151"/>
+      <c r="A19" s="183">
+        <v>44968</v>
+      </c>
+      <c r="B19" s="184" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="151">
+        <v>152217.42000000001</v>
+      </c>
+      <c r="D19" s="231">
+        <v>44975</v>
+      </c>
+      <c r="E19" s="232">
+        <v>152217.42000000001</v>
+      </c>
       <c r="F19" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="183"/>
-      <c r="B20" s="184"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="151"/>
+      <c r="A20" s="183">
+        <v>44970</v>
+      </c>
+      <c r="B20" s="184" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="151">
+        <v>45703.76</v>
+      </c>
+      <c r="D20" s="231">
+        <v>44975</v>
+      </c>
+      <c r="E20" s="232">
+        <v>45703.76</v>
+      </c>
       <c r="F20" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="183"/>
-      <c r="B21" s="184"/>
-      <c r="C21" s="151"/>
-      <c r="D21" s="188"/>
-      <c r="E21" s="151"/>
+      <c r="A21" s="183">
+        <v>44971</v>
+      </c>
+      <c r="B21" s="184" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="151">
+        <v>8278.6</v>
+      </c>
+      <c r="D21" s="231">
+        <v>44975</v>
+      </c>
+      <c r="E21" s="232">
+        <v>8278.6</v>
+      </c>
       <c r="F21" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="183"/>
-      <c r="B22" s="184"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="151"/>
+      <c r="A22" s="183">
+        <v>44971</v>
+      </c>
+      <c r="B22" s="184" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="151">
+        <v>110776.46</v>
+      </c>
+      <c r="D22" s="231">
+        <v>44975</v>
+      </c>
+      <c r="E22" s="232">
+        <v>110776.46</v>
+      </c>
       <c r="F22" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="183"/>
-      <c r="B23" s="184"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="151"/>
+      <c r="A23" s="183">
+        <v>44972</v>
+      </c>
+      <c r="B23" s="184" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="151">
+        <v>20044.8</v>
+      </c>
+      <c r="D23" s="231">
+        <v>44975</v>
+      </c>
+      <c r="E23" s="232">
+        <v>20044.8</v>
+      </c>
       <c r="F23" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="183"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="151"/>
+      <c r="A24" s="183">
+        <v>44972</v>
+      </c>
+      <c r="B24" s="184" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="151">
+        <v>844.44</v>
+      </c>
+      <c r="D24" s="231">
+        <v>44975</v>
+      </c>
+      <c r="E24" s="232">
+        <v>844.44</v>
+      </c>
       <c r="F24" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
       <c r="G24" s="186"/>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="183"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="151"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="151"/>
+      <c r="A25" s="183">
+        <v>44973</v>
+      </c>
+      <c r="B25" s="184" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="151">
+        <v>69518.399999999994</v>
+      </c>
+      <c r="D25" s="231">
+        <v>44975</v>
+      </c>
+      <c r="E25" s="232">
+        <v>69518.399999999994</v>
+      </c>
       <c r="F25" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="183"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="151"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="151"/>
+      <c r="A26" s="183">
+        <v>44974</v>
+      </c>
+      <c r="B26" s="184" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="151">
+        <v>105172.87</v>
+      </c>
+      <c r="D26" s="233">
+        <v>44982</v>
+      </c>
+      <c r="E26" s="234">
+        <v>105172.87</v>
+      </c>
       <c r="F26" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="183"/>
-      <c r="B27" s="184"/>
-      <c r="C27" s="151"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="151"/>
+      <c r="A27" s="183">
+        <v>44975</v>
+      </c>
+      <c r="B27" s="184" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="151">
+        <v>116872.96000000001</v>
+      </c>
+      <c r="D27" s="233">
+        <v>44982</v>
+      </c>
+      <c r="E27" s="234">
+        <v>116872.96000000001</v>
+      </c>
       <c r="F27" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="183"/>
-      <c r="B28" s="184"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="151"/>
+      <c r="A28" s="183">
+        <v>44975</v>
+      </c>
+      <c r="B28" s="184" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="151">
+        <v>4177.6000000000004</v>
+      </c>
+      <c r="D28" s="233">
+        <v>44982</v>
+      </c>
+      <c r="E28" s="234">
+        <v>4177.6000000000004</v>
+      </c>
       <c r="F28" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="183"/>
-      <c r="B29" s="184"/>
-      <c r="C29" s="151"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="151"/>
+      <c r="A29" s="183">
+        <v>44975</v>
+      </c>
+      <c r="B29" s="184" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="151">
+        <v>16299.2</v>
+      </c>
+      <c r="D29" s="233">
+        <v>44982</v>
+      </c>
+      <c r="E29" s="234">
+        <v>16299.2</v>
+      </c>
       <c r="F29" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
       <c r="J29" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="187"/>
-      <c r="B30" s="189"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="151"/>
+      <c r="A30" s="187">
+        <v>44975</v>
+      </c>
+      <c r="B30" s="188" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="151">
+        <v>4728</v>
+      </c>
+      <c r="D30" s="233">
+        <v>44982</v>
+      </c>
+      <c r="E30" s="234">
+        <v>4728</v>
+      </c>
       <c r="F30" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
       <c r="J30" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="187"/>
-      <c r="B31" s="189"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="151"/>
+      <c r="A31" s="187">
+        <v>44978</v>
+      </c>
+      <c r="B31" s="188" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="151">
+        <v>152507.28</v>
+      </c>
+      <c r="D31" s="233">
+        <v>44982</v>
+      </c>
+      <c r="E31" s="234">
+        <v>152507.28</v>
+      </c>
       <c r="F31" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
       <c r="J31" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="187"/>
-      <c r="B32" s="189"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="151"/>
+      <c r="A32" s="187">
+        <v>44980</v>
+      </c>
+      <c r="B32" s="188" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="151">
+        <v>36653.4</v>
+      </c>
+      <c r="D32" s="233">
+        <v>44982</v>
+      </c>
+      <c r="E32" s="234">
+        <v>36653.4</v>
+      </c>
       <c r="F32" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
       <c r="G32" s="186"/>
       <c r="J32" s="151">
@@ -10463,56 +10633,84 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="187"/>
-      <c r="B33" s="189"/>
-      <c r="C33" s="151"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="151"/>
+      <c r="A33" s="187">
+        <v>44980</v>
+      </c>
+      <c r="B33" s="188" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="151">
+        <v>139527.16</v>
+      </c>
+      <c r="D33" s="233">
+        <v>44982</v>
+      </c>
+      <c r="E33" s="234">
+        <v>139527.16</v>
+      </c>
       <c r="F33" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>0</v>
       </c>
       <c r="J33" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="187"/>
-      <c r="B34" s="189"/>
-      <c r="C34" s="151"/>
+      <c r="A34" s="187">
+        <v>44982</v>
+      </c>
+      <c r="B34" s="188" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="151">
+        <v>146926.39000000001</v>
+      </c>
       <c r="D34" s="187"/>
       <c r="E34" s="151"/>
       <c r="F34" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>146926.39000000001</v>
       </c>
       <c r="J34" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="187"/>
-      <c r="B35" s="189"/>
-      <c r="C35" s="151"/>
+      <c r="A35" s="187">
+        <v>44982</v>
+      </c>
+      <c r="B35" s="188" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="151">
+        <v>77936.95</v>
+      </c>
       <c r="D35" s="187"/>
       <c r="E35" s="151"/>
       <c r="F35" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>224863.34000000003</v>
       </c>
       <c r="J35" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="187"/>
-      <c r="B36" s="189"/>
-      <c r="C36" s="151"/>
+      <c r="A36" s="187">
+        <v>44984</v>
+      </c>
+      <c r="B36" s="188" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="151">
+        <v>89190.64</v>
+      </c>
       <c r="D36" s="187"/>
       <c r="E36" s="151"/>
       <c r="F36" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
       <c r="J36" s="135">
         <v>0</v>
@@ -10520,626 +10718,626 @@
     </row>
     <row r="37" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="187"/>
-      <c r="B37" s="189"/>
+      <c r="B37" s="188"/>
       <c r="C37" s="151"/>
       <c r="D37" s="187"/>
       <c r="E37" s="151"/>
       <c r="F37" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
-      </c>
-      <c r="J37" s="190">
+        <v>314053.98000000004</v>
+      </c>
+      <c r="J37" s="189">
         <f>SUM(J29:J36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="187"/>
-      <c r="B38" s="189"/>
+      <c r="B38" s="188"/>
       <c r="C38" s="151"/>
       <c r="D38" s="187"/>
       <c r="E38" s="151"/>
       <c r="F38" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="187"/>
-      <c r="B39" s="189"/>
+      <c r="B39" s="188"/>
       <c r="C39" s="151"/>
       <c r="D39" s="187"/>
       <c r="E39" s="151"/>
       <c r="F39" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="187"/>
-      <c r="B40" s="189"/>
+      <c r="B40" s="188"/>
       <c r="C40" s="151"/>
       <c r="D40" s="187"/>
       <c r="E40" s="100"/>
       <c r="F40" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="187"/>
-      <c r="B41" s="189"/>
+      <c r="B41" s="188"/>
       <c r="C41" s="151"/>
       <c r="D41" s="187"/>
       <c r="E41" s="100"/>
       <c r="F41" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="191"/>
-      <c r="B42" s="192"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="191"/>
       <c r="C42" s="100"/>
       <c r="D42" s="187"/>
       <c r="E42" s="100"/>
       <c r="F42" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="193"/>
-      <c r="B43" s="194"/>
+      <c r="A43" s="192"/>
+      <c r="B43" s="193"/>
       <c r="C43" s="100"/>
-      <c r="D43" s="195"/>
+      <c r="D43" s="194"/>
       <c r="E43" s="100"/>
       <c r="F43" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="196"/>
-      <c r="B44" s="197"/>
+      <c r="A44" s="195"/>
+      <c r="B44" s="196"/>
       <c r="C44" s="100"/>
-      <c r="D44" s="195"/>
+      <c r="D44" s="194"/>
       <c r="E44" s="100"/>
       <c r="F44" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="196"/>
-      <c r="B45" s="197"/>
+      <c r="A45" s="195"/>
+      <c r="B45" s="196"/>
       <c r="C45" s="100"/>
-      <c r="D45" s="195"/>
+      <c r="D45" s="194"/>
       <c r="E45" s="100"/>
       <c r="F45" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="196"/>
-      <c r="B46" s="197"/>
+      <c r="A46" s="195"/>
+      <c r="B46" s="196"/>
       <c r="C46" s="100"/>
-      <c r="D46" s="195"/>
+      <c r="D46" s="194"/>
       <c r="E46" s="100"/>
       <c r="F46" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="196"/>
-      <c r="B47" s="197"/>
+      <c r="A47" s="195"/>
+      <c r="B47" s="196"/>
       <c r="C47" s="100"/>
-      <c r="D47" s="195"/>
+      <c r="D47" s="194"/>
       <c r="E47" s="100"/>
       <c r="F47" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="196"/>
-      <c r="B48" s="197"/>
+      <c r="A48" s="195"/>
+      <c r="B48" s="196"/>
       <c r="C48" s="100"/>
-      <c r="D48" s="195"/>
+      <c r="D48" s="194"/>
       <c r="E48" s="100"/>
       <c r="F48" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="196"/>
-      <c r="B49" s="197"/>
+      <c r="A49" s="195"/>
+      <c r="B49" s="196"/>
       <c r="C49" s="100"/>
-      <c r="D49" s="195"/>
+      <c r="D49" s="194"/>
       <c r="E49" s="100"/>
       <c r="F49" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="196"/>
-      <c r="B50" s="197"/>
+      <c r="A50" s="195"/>
+      <c r="B50" s="196"/>
       <c r="C50" s="100"/>
-      <c r="D50" s="195"/>
+      <c r="D50" s="194"/>
       <c r="E50" s="100"/>
       <c r="F50" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="196"/>
-      <c r="B51" s="197"/>
+      <c r="A51" s="195"/>
+      <c r="B51" s="196"/>
       <c r="C51" s="100"/>
-      <c r="D51" s="195"/>
+      <c r="D51" s="194"/>
       <c r="E51" s="100"/>
       <c r="F51" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="196"/>
-      <c r="B52" s="197"/>
+      <c r="A52" s="195"/>
+      <c r="B52" s="196"/>
       <c r="C52" s="100"/>
-      <c r="D52" s="195"/>
+      <c r="D52" s="194"/>
       <c r="E52" s="100"/>
       <c r="F52" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="196"/>
-      <c r="B53" s="197"/>
+      <c r="A53" s="195"/>
+      <c r="B53" s="196"/>
       <c r="C53" s="100"/>
-      <c r="D53" s="195"/>
+      <c r="D53" s="194"/>
       <c r="E53" s="100"/>
       <c r="F53" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="196"/>
-      <c r="B54" s="197"/>
+      <c r="A54" s="195"/>
+      <c r="B54" s="196"/>
       <c r="C54" s="100"/>
-      <c r="D54" s="195"/>
+      <c r="D54" s="194"/>
       <c r="E54" s="100"/>
       <c r="F54" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="196"/>
-      <c r="B55" s="197"/>
+      <c r="A55" s="195"/>
+      <c r="B55" s="196"/>
       <c r="C55" s="100"/>
-      <c r="D55" s="195"/>
+      <c r="D55" s="194"/>
       <c r="E55" s="100"/>
       <c r="F55" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="196"/>
-      <c r="B56" s="197"/>
+      <c r="A56" s="195"/>
+      <c r="B56" s="196"/>
       <c r="C56" s="100"/>
-      <c r="D56" s="195"/>
+      <c r="D56" s="194"/>
       <c r="E56" s="100"/>
       <c r="F56" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="196"/>
-      <c r="B57" s="197"/>
+      <c r="A57" s="195"/>
+      <c r="B57" s="196"/>
       <c r="C57" s="100"/>
-      <c r="D57" s="195"/>
+      <c r="D57" s="194"/>
       <c r="E57" s="100"/>
       <c r="F57" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="196"/>
-      <c r="B58" s="197"/>
+      <c r="A58" s="195"/>
+      <c r="B58" s="196"/>
       <c r="C58" s="100"/>
-      <c r="D58" s="195"/>
+      <c r="D58" s="194"/>
       <c r="E58" s="100"/>
       <c r="F58" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="196"/>
-      <c r="B59" s="197"/>
+      <c r="A59" s="195"/>
+      <c r="B59" s="196"/>
       <c r="C59" s="100"/>
-      <c r="D59" s="195"/>
+      <c r="D59" s="194"/>
       <c r="E59" s="100"/>
       <c r="F59" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="196"/>
-      <c r="B60" s="197"/>
+      <c r="A60" s="195"/>
+      <c r="B60" s="196"/>
       <c r="C60" s="100"/>
-      <c r="D60" s="195"/>
+      <c r="D60" s="194"/>
       <c r="E60" s="100"/>
       <c r="F60" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="196"/>
-      <c r="B61" s="197"/>
+      <c r="A61" s="195"/>
+      <c r="B61" s="196"/>
       <c r="C61" s="100"/>
-      <c r="D61" s="195"/>
+      <c r="D61" s="194"/>
       <c r="E61" s="100"/>
       <c r="F61" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="198"/>
-      <c r="B62" s="199"/>
+      <c r="A62" s="197"/>
+      <c r="B62" s="198"/>
       <c r="C62" s="36"/>
-      <c r="D62" s="200"/>
+      <c r="D62" s="199"/>
       <c r="E62" s="36"/>
       <c r="F62" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="198"/>
-      <c r="B63" s="199"/>
+      <c r="A63" s="197"/>
+      <c r="B63" s="198"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="200"/>
+      <c r="D63" s="199"/>
       <c r="E63" s="36"/>
       <c r="F63" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="198"/>
-      <c r="B64" s="199"/>
+      <c r="A64" s="197"/>
+      <c r="B64" s="198"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="200"/>
+      <c r="D64" s="199"/>
       <c r="E64" s="36"/>
       <c r="F64" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="198"/>
-      <c r="B65" s="199"/>
+      <c r="A65" s="197"/>
+      <c r="B65" s="198"/>
       <c r="C65" s="36"/>
-      <c r="D65" s="200"/>
+      <c r="D65" s="199"/>
       <c r="E65" s="36"/>
       <c r="F65" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="198"/>
-      <c r="B66" s="199"/>
+      <c r="A66" s="197"/>
+      <c r="B66" s="198"/>
       <c r="C66" s="36"/>
-      <c r="D66" s="200"/>
+      <c r="D66" s="199"/>
       <c r="E66" s="36"/>
       <c r="F66" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="198"/>
-      <c r="B67" s="199"/>
+      <c r="A67" s="197"/>
+      <c r="B67" s="198"/>
       <c r="C67" s="36"/>
-      <c r="D67" s="200"/>
+      <c r="D67" s="199"/>
       <c r="E67" s="36"/>
       <c r="F67" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="196"/>
-      <c r="B68" s="201"/>
+      <c r="A68" s="195"/>
+      <c r="B68" s="200"/>
       <c r="C68" s="100"/>
-      <c r="D68" s="195"/>
+      <c r="D68" s="194"/>
       <c r="E68" s="100"/>
       <c r="F68" s="185">
         <f t="shared" si="0"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="196"/>
-      <c r="B69" s="201"/>
+      <c r="A69" s="195"/>
+      <c r="B69" s="200"/>
       <c r="C69" s="100"/>
-      <c r="D69" s="195"/>
+      <c r="D69" s="194"/>
       <c r="E69" s="100"/>
       <c r="F69" s="185">
         <f t="shared" ref="F69:F78" si="1">C69-E69+F68</f>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="196"/>
-      <c r="B70" s="201"/>
+      <c r="A70" s="195"/>
+      <c r="B70" s="200"/>
       <c r="C70" s="100"/>
-      <c r="D70" s="195"/>
+      <c r="D70" s="194"/>
       <c r="E70" s="100"/>
       <c r="F70" s="185">
         <f t="shared" si="1"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="196"/>
-      <c r="B71" s="201"/>
+      <c r="A71" s="195"/>
+      <c r="B71" s="200"/>
       <c r="C71" s="100"/>
-      <c r="D71" s="195"/>
+      <c r="D71" s="194"/>
       <c r="E71" s="100"/>
       <c r="F71" s="185">
         <f t="shared" si="1"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="196"/>
-      <c r="B72" s="201"/>
+      <c r="A72" s="195"/>
+      <c r="B72" s="200"/>
       <c r="C72" s="100"/>
-      <c r="D72" s="195"/>
+      <c r="D72" s="194"/>
       <c r="E72" s="100"/>
       <c r="F72" s="185">
         <f t="shared" si="1"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="196"/>
-      <c r="B73" s="201"/>
+      <c r="A73" s="195"/>
+      <c r="B73" s="200"/>
       <c r="C73" s="100"/>
-      <c r="D73" s="195"/>
+      <c r="D73" s="194"/>
       <c r="E73" s="100"/>
       <c r="F73" s="185">
         <f t="shared" si="1"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="196"/>
-      <c r="B74" s="201"/>
+      <c r="A74" s="195"/>
+      <c r="B74" s="200"/>
       <c r="C74" s="100"/>
-      <c r="D74" s="195"/>
+      <c r="D74" s="194"/>
       <c r="E74" s="100"/>
       <c r="F74" s="185">
         <f t="shared" si="1"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="196"/>
-      <c r="B75" s="201"/>
+      <c r="A75" s="195"/>
+      <c r="B75" s="200"/>
       <c r="C75" s="100"/>
-      <c r="D75" s="195"/>
+      <c r="D75" s="194"/>
       <c r="E75" s="100"/>
       <c r="F75" s="185">
         <f t="shared" si="1"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="196"/>
-      <c r="B76" s="201"/>
+      <c r="A76" s="195"/>
+      <c r="B76" s="200"/>
       <c r="C76" s="100"/>
-      <c r="D76" s="195"/>
+      <c r="D76" s="194"/>
       <c r="E76" s="100"/>
       <c r="F76" s="185">
         <f t="shared" si="1"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="196"/>
-      <c r="B77" s="201"/>
+      <c r="A77" s="195"/>
+      <c r="B77" s="200"/>
       <c r="C77" s="100"/>
-      <c r="D77" s="195"/>
+      <c r="D77" s="194"/>
       <c r="E77" s="100"/>
       <c r="F77" s="185">
         <f t="shared" si="1"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="202"/>
-      <c r="B78" s="203"/>
+      <c r="A78" s="201"/>
+      <c r="B78" s="202"/>
       <c r="C78" s="36">
         <v>0</v>
       </c>
-      <c r="D78" s="200"/>
+      <c r="D78" s="199"/>
       <c r="E78" s="36"/>
       <c r="F78" s="185">
         <f t="shared" si="1"/>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="204"/>
-      <c r="B79" s="205"/>
-      <c r="C79" s="206">
+      <c r="A79" s="203"/>
+      <c r="B79" s="204"/>
+      <c r="C79" s="205">
         <f>SUM(C3:C78)</f>
-        <v>612464.35</v>
+        <v>2224189.7400000002</v>
       </c>
       <c r="D79" s="177"/>
-      <c r="E79" s="207">
+      <c r="E79" s="206">
         <f>SUM(E3:E78)</f>
-        <v>321491.40000000002</v>
-      </c>
-      <c r="F79" s="208">
+        <v>1910135.76</v>
+      </c>
+      <c r="F79" s="207">
         <f>F78</f>
-        <v>290972.95</v>
+        <v>314053.98000000004</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D80" s="200"/>
+      <c r="D80" s="199"/>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D81" s="200"/>
+      <c r="D81" s="199"/>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="211"/>
+      <c r="B82" s="210"/>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="211"/>
+      <c r="B83" s="210"/>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="211"/>
+      <c r="B84" s="210"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="211"/>
+      <c r="B85" s="210"/>
       <c r="F85" s="135"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="211"/>
+      <c r="B86" s="210"/>
       <c r="F86" s="135"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="211"/>
+      <c r="B87" s="210"/>
       <c r="F87" s="135"/>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="211"/>
+      <c r="B88" s="210"/>
       <c r="F88" s="135"/>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="211"/>
+      <c r="B89" s="210"/>
       <c r="F89" s="135"/>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="211"/>
+      <c r="B90" s="210"/>
       <c r="F90" s="135"/>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="211"/>
+      <c r="B91" s="210"/>
       <c r="F91" s="135"/>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="211"/>
+      <c r="B92" s="210"/>
       <c r="F92" s="135"/>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="211"/>
+      <c r="B93" s="210"/>
       <c r="F93" s="135"/>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="211"/>
+      <c r="B94" s="210"/>
       <c r="E94" s="135"/>
       <c r="F94" s="135"/>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="211"/>
+      <c r="B95" s="210"/>
       <c r="E95" s="135"/>
       <c r="F95" s="135"/>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="211"/>
+      <c r="B96" s="210"/>
       <c r="E96" s="135"/>
       <c r="F96" s="135"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="211"/>
+      <c r="B97" s="210"/>
       <c r="E97" s="135"/>
       <c r="F97" s="135"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="211"/>
+      <c r="B98" s="210"/>
       <c r="E98" s="135"/>
       <c r="F98" s="135"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="211"/>
+      <c r="B99" s="210"/>
       <c r="E99" s="135"/>
       <c r="F99" s="135"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="211"/>
+      <c r="B100" s="210"/>
       <c r="E100" s="135"/>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="211"/>
+      <c r="B101" s="210"/>
       <c r="E101" s="135"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="211"/>
+      <c r="B102" s="210"/>
       <c r="E102" s="135"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="211"/>
+      <c r="B103" s="210"/>
       <c r="E103" s="135"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="211"/>
+      <c r="B104" s="210"/>
       <c r="E104" s="135"/>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="211"/>
+      <c r="B105" s="210"/>
       <c r="E105" s="135"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B106" s="211"/>
+      <c r="B106" s="210"/>
       <c r="E106" s="135"/>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="211"/>
+      <c r="B107" s="210"/>
       <c r="E107" s="135"/>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="211"/>
+      <c r="B108" s="210"/>
       <c r="E108" s="135"/>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="211"/>
+      <c r="B109" s="210"/>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="211"/>
+      <c r="B110" s="210"/>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="211"/>
+      <c r="B111" s="210"/>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="211"/>
+      <c r="B112" s="210"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="211"/>
+      <c r="B113" s="210"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="211"/>
+      <c r="B114" s="210"/>
     </row>
     <row r="115" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C115" s="213"/>
+      <c r="C115" s="212"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11203,23 +11401,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="247"/>
-      <c r="C1" s="249" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="248"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11229,21 +11427,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="230" t="s">
+      <c r="R3" s="235" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11258,14 +11456,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="232" t="s">
+      <c r="E4" s="237" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="233"/>
-      <c r="H4" s="234" t="s">
+      <c r="F4" s="238"/>
+      <c r="H4" s="239" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="235"/>
+      <c r="I4" s="240"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11275,11 +11473,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="236" t="s">
+      <c r="P4" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="231"/>
+      <c r="Q4" s="242"/>
+      <c r="R4" s="236"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -12310,10 +12508,10 @@
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
       <c r="D28" s="42"/>
-      <c r="E28" s="225">
+      <c r="E28" s="224">
         <v>44927</v>
       </c>
-      <c r="F28" s="226">
+      <c r="F28" s="225">
         <v>0</v>
       </c>
       <c r="G28" s="29"/>
@@ -13042,11 +13240,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="254">
+      <c r="M49" s="259">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="239">
+      <c r="N49" s="244">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -13075,8 +13273,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="255"/>
-      <c r="N50" s="240"/>
+      <c r="M50" s="260"/>
+      <c r="N50" s="245"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -13294,29 +13492,29 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="241" t="s">
+      <c r="H62" s="246" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="242"/>
+      <c r="I62" s="247"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="243">
+      <c r="K62" s="248">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="244"/>
-      <c r="M62" s="245">
+      <c r="L62" s="249"/>
+      <c r="M62" s="250">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="246"/>
+      <c r="N62" s="251"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="238" t="s">
+      <c r="D63" s="243" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="238"/>
+      <c r="E63" s="243"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
         <v>780704</v>
@@ -13327,22 +13525,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="256" t="s">
+      <c r="D64" s="261" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="256"/>
+      <c r="E64" s="261"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="257" t="s">
+      <c r="I64" s="262" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="258"/>
-      <c r="K64" s="259">
+      <c r="J64" s="263"/>
+      <c r="K64" s="264">
         <f>F66+F67+F68</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L64" s="260"/>
+      <c r="L64" s="265"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -13373,11 +13571,11 @@
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="261">
+      <c r="K66" s="266">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="262"/>
+      <c r="L66" s="267"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -13394,22 +13592,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="263" t="s">
+      <c r="D68" s="268" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="264"/>
+      <c r="E68" s="269"/>
       <c r="F68" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="265" t="s">
+      <c r="I68" s="270" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="266"/>
-      <c r="K68" s="267">
+      <c r="J68" s="271"/>
+      <c r="K68" s="272">
         <f>K64+K66</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L68" s="267"/>
+      <c r="L68" s="272"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="105">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -508,6 +508,18 @@
   <si>
     <t>02237 E</t>
   </si>
+  <si>
+    <t>CHORIZO</t>
+  </si>
+  <si>
+    <t>Base Refri</t>
+  </si>
+  <si>
+    <t>NOMINA # 5</t>
+  </si>
+  <si>
+    <t>LONGANIZA-CHORIZO</t>
+  </si>
 </sst>
 </file>
 
@@ -521,7 +533,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +906,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1735,7 +1755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2185,6 +2205,69 @@
     <xf numFmtId="44" fontId="3" fillId="12" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2236,69 +2319,7 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3872,7 +3893,7 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
@@ -3898,23 +3919,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="253"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -3924,21 +3945,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="253"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="235" t="s">
+      <c r="R3" s="256" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3953,14 +3974,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="H4" s="239" t="s">
+      <c r="F4" s="259"/>
+      <c r="H4" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="240"/>
+      <c r="I4" s="261"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -3970,11 +3991,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="241" t="s">
+      <c r="P4" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="236"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="257"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5761,11 +5782,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="259">
+      <c r="M49" s="254">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="244">
+      <c r="N49" s="265">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -5794,8 +5815,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="260"/>
-      <c r="N50" s="245"/>
+      <c r="M50" s="255"/>
+      <c r="N50" s="266"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -5887,29 +5908,29 @@
       <c r="A55" s="135"/>
       <c r="B55" s="136"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="246" t="s">
+      <c r="H55" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="247"/>
+      <c r="I55" s="268"/>
       <c r="J55" s="137"/>
-      <c r="K55" s="248">
+      <c r="K55" s="269">
         <f>I53+L53</f>
         <v>57963.5</v>
       </c>
-      <c r="L55" s="249"/>
-      <c r="M55" s="250">
+      <c r="L55" s="270"/>
+      <c r="M55" s="271">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="251"/>
+      <c r="N55" s="272"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="243" t="s">
+      <c r="D56" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="243"/>
+      <c r="E56" s="264"/>
       <c r="F56" s="138">
         <f>F53-K55-C53</f>
         <v>1662409.5</v>
@@ -5920,22 +5941,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="261" t="s">
+      <c r="D57" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="261"/>
+      <c r="E57" s="235"/>
       <c r="F57" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="262" t="s">
+      <c r="I57" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="263"/>
-      <c r="K57" s="264">
+      <c r="J57" s="237"/>
+      <c r="K57" s="238">
         <f>F59+F60+F61</f>
         <v>399275.92000000004</v>
       </c>
-      <c r="L57" s="265"/>
+      <c r="L57" s="239"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -5966,11 +5987,11 @@
         <v>19</v>
       </c>
       <c r="J59" s="149"/>
-      <c r="K59" s="266">
+      <c r="K59" s="240">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="267"/>
+      <c r="L59" s="241"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="150" t="s">
@@ -5987,22 +6008,22 @@
       <c r="C61" s="152">
         <v>44955</v>
       </c>
-      <c r="D61" s="268" t="s">
+      <c r="D61" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="269"/>
+      <c r="E61" s="243"/>
       <c r="F61" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="270" t="s">
+      <c r="I61" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="271"/>
-      <c r="K61" s="272">
+      <c r="J61" s="245"/>
+      <c r="K61" s="246">
         <f>K57+K59</f>
         <v>25327.20000000007</v>
       </c>
-      <c r="L61" s="272"/>
+      <c r="L61" s="246"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="154"/>
@@ -6127,18 +6148,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6148,6 +6157,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7489,8 +7510,8 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7515,23 +7536,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="249" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="253"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7541,21 +7562,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="253"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="235" t="s">
+      <c r="R3" s="256" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7565,19 +7586,19 @@
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16">
-        <v>0</v>
+        <v>223528.9</v>
       </c>
       <c r="D4" s="17">
-        <v>44934</v>
-      </c>
-      <c r="E4" s="237" t="s">
+        <v>44955</v>
+      </c>
+      <c r="E4" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="H4" s="239" t="s">
+      <c r="F4" s="259"/>
+      <c r="H4" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="240"/>
+      <c r="I4" s="261"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7587,11 +7608,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="241" t="s">
+      <c r="P4" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="236"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="257"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7608,35 +7629,35 @@
         <v>44956</v>
       </c>
       <c r="F5" s="28">
-        <v>0</v>
+        <v>45769</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30">
         <v>44956</v>
       </c>
       <c r="I5" s="31">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="J5" s="8"/>
       <c r="K5" s="32"/>
       <c r="L5" s="9"/>
       <c r="M5" s="33">
-        <v>0</v>
+        <f>51930+12500</f>
+        <v>64430</v>
       </c>
       <c r="N5" s="34">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="O5" s="35"/>
       <c r="P5" s="36">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>65454</v>
       </c>
       <c r="Q5" s="13">
-        <f>P5-F5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R5" s="226">
+        <v>19685</v>
       </c>
       <c r="S5" s="37"/>
     </row>
@@ -7653,35 +7674,35 @@
         <v>44957</v>
       </c>
       <c r="F6" s="28">
-        <v>0</v>
+        <v>64735</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30">
         <v>44957</v>
       </c>
       <c r="I6" s="31">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="J6" s="39"/>
       <c r="K6" s="40"/>
       <c r="L6" s="41"/>
       <c r="M6" s="33">
-        <v>0</v>
+        <f>12000+52726</f>
+        <v>64726</v>
       </c>
       <c r="N6" s="34">
-        <v>0</v>
+        <v>1226</v>
       </c>
       <c r="O6" s="35"/>
       <c r="P6" s="36">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>65983</v>
       </c>
       <c r="Q6" s="13">
-        <f t="shared" ref="Q6:Q48" si="0">P6-F6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="226">
+        <v>1248</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="9"/>
@@ -7692,38 +7713,41 @@
         <v>44958</v>
       </c>
       <c r="C7" s="25">
-        <v>0</v>
-      </c>
-      <c r="D7" s="42"/>
+        <v>512.5</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="E7" s="27">
         <v>44958</v>
       </c>
       <c r="F7" s="28">
-        <v>0</v>
+        <v>50236</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30">
         <v>44958</v>
       </c>
       <c r="I7" s="31">
-        <v>0</v>
+        <v>1452</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="43"/>
       <c r="L7" s="41"/>
       <c r="M7" s="33">
-        <v>0</v>
+        <f>46644.5</f>
+        <v>46644.5</v>
       </c>
       <c r="N7" s="34">
-        <v>0</v>
+        <v>1627</v>
       </c>
       <c r="O7" s="35"/>
       <c r="P7" s="36">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>50236</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q6:Q48" si="0">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="13">
@@ -7744,28 +7768,35 @@
         <v>44959</v>
       </c>
       <c r="F8" s="28">
-        <v>0</v>
+        <v>79623</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30">
         <v>44959</v>
       </c>
       <c r="I8" s="31">
-        <v>0</v>
-      </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="41"/>
+        <v>118</v>
+      </c>
+      <c r="J8" s="44">
+        <v>44959</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="41">
+        <v>3200</v>
+      </c>
       <c r="M8" s="33">
-        <v>0</v>
+        <f>15000+57433</f>
+        <v>72433</v>
       </c>
       <c r="N8" s="34">
-        <v>0</v>
+        <v>3872</v>
       </c>
       <c r="O8" s="35"/>
       <c r="P8" s="36">
         <f t="shared" ref="P8:P49" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>79623</v>
       </c>
       <c r="Q8" s="13">
         <f t="shared" si="0"/>
@@ -7782,35 +7813,38 @@
         <v>44960</v>
       </c>
       <c r="C9" s="25">
-        <v>0</v>
-      </c>
-      <c r="D9" s="46"/>
+        <v>15644</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>70</v>
+      </c>
       <c r="E9" s="27">
         <v>44960</v>
       </c>
       <c r="F9" s="28">
-        <v>0</v>
+        <v>85123</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30">
         <v>44960</v>
       </c>
       <c r="I9" s="31">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="J9" s="39"/>
       <c r="K9" s="47"/>
       <c r="L9" s="41"/>
       <c r="M9" s="33">
-        <v>0</v>
+        <f>16000+43637</f>
+        <v>59637</v>
       </c>
       <c r="N9" s="34">
-        <v>0</v>
+        <v>9293</v>
       </c>
       <c r="O9" s="35"/>
       <c r="P9" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85123</v>
       </c>
       <c r="Q9" s="13">
         <f t="shared" si="0"/>
@@ -7834,32 +7868,38 @@
         <v>44961</v>
       </c>
       <c r="F10" s="28">
-        <v>0</v>
+        <v>60461</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30">
         <v>44961</v>
       </c>
       <c r="I10" s="31">
-        <v>0</v>
-      </c>
-      <c r="J10" s="39"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
+        <v>543</v>
+      </c>
+      <c r="J10" s="39">
+        <v>44961</v>
+      </c>
+      <c r="K10" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="49">
+        <v>9000</v>
+      </c>
       <c r="M10" s="33">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="N10" s="34">
-        <v>0</v>
+        <v>7921</v>
       </c>
       <c r="O10" s="35"/>
       <c r="P10" s="36">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>60464</v>
       </c>
       <c r="Q10" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R10" s="13">
         <v>0</v>
@@ -7875,42 +7915,44 @@
         <v>44962</v>
       </c>
       <c r="C11" s="25">
-        <v>0</v>
-      </c>
-      <c r="D11" s="38"/>
+        <v>4120</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>104</v>
+      </c>
       <c r="E11" s="27">
         <v>44962</v>
       </c>
       <c r="F11" s="28">
-        <v>0</v>
+        <v>76230</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30">
         <v>44962</v>
       </c>
       <c r="I11" s="31">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J11" s="44"/>
       <c r="K11" s="50"/>
       <c r="L11" s="41"/>
       <c r="M11" s="33">
-        <v>0</v>
+        <f>71600+12141</f>
+        <v>83741</v>
       </c>
       <c r="N11" s="34">
-        <v>0</v>
+        <v>4669</v>
       </c>
       <c r="O11" s="35"/>
       <c r="P11" s="36">
         <f>N11+M11+L11+I11+C11</f>
-        <v>0</v>
+        <v>93030</v>
       </c>
       <c r="Q11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R11" s="226">
+        <v>16800</v>
       </c>
       <c r="S11" s="37"/>
     </row>
@@ -7927,28 +7969,29 @@
         <v>44963</v>
       </c>
       <c r="F12" s="28">
-        <v>0</v>
+        <v>111609</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30">
         <v>44963</v>
       </c>
       <c r="I12" s="31">
-        <v>0</v>
+        <v>1110.5</v>
       </c>
       <c r="J12" s="39"/>
       <c r="K12" s="51"/>
       <c r="L12" s="41"/>
       <c r="M12" s="33">
-        <v>0</v>
+        <f>7000+102247.5</f>
+        <v>109247.5</v>
       </c>
       <c r="N12" s="34">
-        <v>0</v>
+        <v>1251</v>
       </c>
       <c r="O12" s="35"/>
       <c r="P12" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>111609</v>
       </c>
       <c r="Q12" s="13">
         <f t="shared" si="0"/>
@@ -7972,32 +8015,33 @@
         <v>44964</v>
       </c>
       <c r="F13" s="28">
-        <v>0</v>
+        <v>58474</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30">
         <v>44964</v>
       </c>
       <c r="I13" s="31">
-        <v>0</v>
+        <v>600.5</v>
       </c>
       <c r="J13" s="39"/>
       <c r="K13" s="40"/>
       <c r="L13" s="41"/>
       <c r="M13" s="33">
-        <v>0</v>
+        <f>31300+26470</f>
+        <v>57770</v>
       </c>
       <c r="N13" s="34">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="O13" s="35"/>
       <c r="P13" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>58468.5</v>
+      </c>
+      <c r="Q13" s="273">
+        <f t="shared" si="0"/>
+        <v>-5.5</v>
       </c>
       <c r="R13" s="13">
         <v>0</v>
@@ -9410,21 +9454,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="259">
+      <c r="M49" s="254">
         <f>SUM(M5:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="244">
+        <v>601629</v>
+      </c>
+      <c r="N49" s="265">
         <f>SUM(N5:N39)</f>
-        <v>0</v>
+        <v>30330</v>
       </c>
       <c r="P49" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>631959</v>
       </c>
       <c r="Q49" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="R49" s="13">
         <v>0</v>
@@ -9443,8 +9487,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="260"/>
-      <c r="N50" s="245"/>
+      <c r="M50" s="255"/>
+      <c r="N50" s="266"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9620,7 +9664,7 @@
       </c>
       <c r="C60" s="124">
         <f>SUM(C5:C59)</f>
-        <v>0</v>
+        <v>20276.5</v>
       </c>
       <c r="D60" s="125"/>
       <c r="E60" s="126" t="s">
@@ -9628,7 +9672,7 @@
       </c>
       <c r="F60" s="127">
         <f>SUM(F5:F59)</f>
-        <v>0</v>
+        <v>632260</v>
       </c>
       <c r="G60" s="125"/>
       <c r="H60" s="128" t="s">
@@ -9636,7 +9680,7 @@
       </c>
       <c r="I60" s="129">
         <f>SUM(I5:I59)</f>
-        <v>0</v>
+        <v>5555</v>
       </c>
       <c r="J60" s="130"/>
       <c r="K60" s="131" t="s">
@@ -9644,7 +9688,7 @@
       </c>
       <c r="L60" s="132">
         <f>SUM(L5:L59)</f>
-        <v>0</v>
+        <v>12200</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="133"/>
@@ -9662,32 +9706,32 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="246" t="s">
+      <c r="H62" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="247"/>
+      <c r="I62" s="268"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="248">
+      <c r="K62" s="269">
         <f>I60+L60</f>
-        <v>0</v>
-      </c>
-      <c r="L62" s="249"/>
-      <c r="M62" s="250">
+        <v>17755</v>
+      </c>
+      <c r="L62" s="270"/>
+      <c r="M62" s="271">
         <f>N49+M49</f>
-        <v>0</v>
-      </c>
-      <c r="N62" s="251"/>
+        <v>631959</v>
+      </c>
+      <c r="N62" s="272"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="243" t="s">
+      <c r="D63" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="243"/>
+      <c r="E63" s="264"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
-        <v>0</v>
+        <v>594228.5</v>
       </c>
       <c r="I63" s="139"/>
       <c r="J63" s="140"/>
@@ -9695,22 +9739,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="261" t="s">
+      <c r="D64" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="261"/>
+      <c r="E64" s="235"/>
       <c r="F64" s="133">
-        <v>-2061966.34</v>
-      </c>
-      <c r="I64" s="262" t="s">
+        <v>-2224189.7400000002</v>
+      </c>
+      <c r="I64" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="263"/>
-      <c r="K64" s="264">
+      <c r="J64" s="237"/>
+      <c r="K64" s="238">
         <f>F66+F67+F68</f>
-        <v>-2061966.34</v>
-      </c>
-      <c r="L64" s="265"/>
+        <v>-1629961.2400000002</v>
+      </c>
+      <c r="L64" s="239"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -9734,18 +9778,18 @@
       </c>
       <c r="F66" s="133">
         <f>SUM(F63:F65)</f>
-        <v>-2061966.34</v>
+        <v>-1629961.2400000002</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="148" t="s">
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="266">
+      <c r="K66" s="240">
         <f>-C4</f>
-        <v>0</v>
-      </c>
-      <c r="L66" s="267"/>
+        <v>-223528.9</v>
+      </c>
+      <c r="L66" s="241"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -9760,24 +9804,24 @@
     </row>
     <row r="68" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="152">
-        <v>44955</v>
-      </c>
-      <c r="D68" s="268" t="s">
+        <v>44985</v>
+      </c>
+      <c r="D68" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="269"/>
+      <c r="E68" s="243"/>
       <c r="F68" s="153">
         <v>0</v>
       </c>
-      <c r="I68" s="270" t="s">
+      <c r="I68" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="271"/>
-      <c r="K68" s="272">
+      <c r="J68" s="245"/>
+      <c r="K68" s="246">
         <f>K64+K66</f>
-        <v>-2061966.34</v>
-      </c>
-      <c r="L68" s="272"/>
+        <v>-1853490.1400000001</v>
+      </c>
+      <c r="L68" s="246"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
@@ -9902,18 +9946,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -9923,6 +9955,18 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9937,8 +9981,8 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11401,23 +11445,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="247"/>
+      <c r="C1" s="249" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="250"/>
+      <c r="E1" s="250"/>
+      <c r="F1" s="250"/>
+      <c r="G1" s="250"/>
+      <c r="H1" s="250"/>
+      <c r="I1" s="250"/>
+      <c r="J1" s="250"/>
+      <c r="K1" s="250"/>
+      <c r="L1" s="250"/>
+      <c r="M1" s="250"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="253"/>
+      <c r="B2" s="248"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11427,21 +11471,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="252"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="253"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="235" t="s">
+      <c r="R3" s="256" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11456,14 +11500,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="237" t="s">
+      <c r="E4" s="258" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="H4" s="239" t="s">
+      <c r="F4" s="259"/>
+      <c r="H4" s="260" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="240"/>
+      <c r="I4" s="261"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11473,11 +11517,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="241" t="s">
+      <c r="P4" s="262" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="242"/>
-      <c r="R4" s="236"/>
+      <c r="Q4" s="263"/>
+      <c r="R4" s="257"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13240,11 +13284,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="259">
+      <c r="M49" s="254">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="244">
+      <c r="N49" s="265">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -13273,8 +13317,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="260"/>
-      <c r="N50" s="245"/>
+      <c r="M50" s="255"/>
+      <c r="N50" s="266"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -13492,29 +13536,29 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="246" t="s">
+      <c r="H62" s="267" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="247"/>
+      <c r="I62" s="268"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="248">
+      <c r="K62" s="269">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="249"/>
-      <c r="M62" s="250">
+      <c r="L62" s="270"/>
+      <c r="M62" s="271">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="251"/>
+      <c r="N62" s="272"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="243" t="s">
+      <c r="D63" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="243"/>
+      <c r="E63" s="264"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
         <v>780704</v>
@@ -13525,22 +13569,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="261" t="s">
+      <c r="D64" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="261"/>
+      <c r="E64" s="235"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="262" t="s">
+      <c r="I64" s="236" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="263"/>
-      <c r="K64" s="264">
+      <c r="J64" s="237"/>
+      <c r="K64" s="238">
         <f>F66+F67+F68</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L64" s="265"/>
+      <c r="L64" s="239"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -13571,11 +13615,11 @@
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="266">
+      <c r="K66" s="240">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="267"/>
+      <c r="L66" s="241"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -13592,22 +13636,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="268" t="s">
+      <c r="D68" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="269"/>
+      <c r="E68" s="243"/>
       <c r="F68" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="270" t="s">
+      <c r="I68" s="244" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="271"/>
-      <c r="K68" s="272">
+      <c r="J68" s="245"/>
+      <c r="K68" s="246">
         <f>K64+K66</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L68" s="272"/>
+      <c r="L68" s="246"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
@@ -13732,6 +13776,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13741,18 +13797,6 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>LONGANIZA-CHORIZO</t>
+  </si>
+  <si>
+    <t>NOMINA # 6</t>
   </si>
 </sst>
 </file>
@@ -2205,6 +2208,7 @@
     <xf numFmtId="44" fontId="3" fillId="12" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2319,7 +2323,6 @@
     <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -3919,23 +3922,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="247"/>
-      <c r="C1" s="249" t="s">
+      <c r="B1" s="248"/>
+      <c r="C1" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="248"/>
+      <c r="B2" s="249"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -3945,21 +3948,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="253"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="254"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="256" t="s">
+      <c r="R3" s="257" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3974,14 +3977,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="258" t="s">
+      <c r="E4" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="259"/>
-      <c r="H4" s="260" t="s">
+      <c r="F4" s="260"/>
+      <c r="H4" s="261" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="261"/>
+      <c r="I4" s="262"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -3991,11 +3994,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="P4" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="257"/>
+      <c r="Q4" s="264"/>
+      <c r="R4" s="258"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5782,11 +5785,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="254">
+      <c r="M49" s="255">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="265">
+      <c r="N49" s="266">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -5815,8 +5818,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="255"/>
-      <c r="N50" s="266"/>
+      <c r="M50" s="256"/>
+      <c r="N50" s="267"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -5908,29 +5911,29 @@
       <c r="A55" s="135"/>
       <c r="B55" s="136"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="267" t="s">
+      <c r="H55" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="268"/>
+      <c r="I55" s="269"/>
       <c r="J55" s="137"/>
-      <c r="K55" s="269">
+      <c r="K55" s="270">
         <f>I53+L53</f>
         <v>57963.5</v>
       </c>
-      <c r="L55" s="270"/>
-      <c r="M55" s="271">
+      <c r="L55" s="271"/>
+      <c r="M55" s="272">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="272"/>
+      <c r="N55" s="273"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="264" t="s">
+      <c r="D56" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="264"/>
+      <c r="E56" s="265"/>
       <c r="F56" s="138">
         <f>F53-K55-C53</f>
         <v>1662409.5</v>
@@ -5941,22 +5944,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="235" t="s">
+      <c r="D57" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="235"/>
+      <c r="E57" s="236"/>
       <c r="F57" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="236" t="s">
+      <c r="I57" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="237"/>
-      <c r="K57" s="238">
+      <c r="J57" s="238"/>
+      <c r="K57" s="239">
         <f>F59+F60+F61</f>
         <v>399275.92000000004</v>
       </c>
-      <c r="L57" s="239"/>
+      <c r="L57" s="240"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -5987,11 +5990,11 @@
         <v>19</v>
       </c>
       <c r="J59" s="149"/>
-      <c r="K59" s="240">
+      <c r="K59" s="241">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="241"/>
+      <c r="L59" s="242"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="150" t="s">
@@ -6008,22 +6011,22 @@
       <c r="C61" s="152">
         <v>44955</v>
       </c>
-      <c r="D61" s="242" t="s">
+      <c r="D61" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="243"/>
+      <c r="E61" s="244"/>
       <c r="F61" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="244" t="s">
+      <c r="I61" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="245"/>
-      <c r="K61" s="246">
+      <c r="J61" s="246"/>
+      <c r="K61" s="247">
         <f>K57+K59</f>
         <v>25327.20000000007</v>
       </c>
-      <c r="L61" s="246"/>
+      <c r="L61" s="247"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="154"/>
@@ -7510,8 +7513,8 @@
   </sheetPr>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7536,23 +7539,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="247"/>
-      <c r="C1" s="249" t="s">
+      <c r="B1" s="248"/>
+      <c r="C1" s="250" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="248"/>
+      <c r="B2" s="249"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7562,21 +7565,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="253"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="254"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="256" t="s">
+      <c r="R3" s="257" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7591,14 +7594,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="258" t="s">
+      <c r="E4" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="259"/>
-      <c r="H4" s="260" t="s">
+      <c r="F4" s="260"/>
+      <c r="H4" s="261" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="261"/>
+      <c r="I4" s="262"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7608,11 +7611,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="P4" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="257"/>
+      <c r="Q4" s="264"/>
+      <c r="R4" s="258"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7747,7 +7750,7 @@
         <v>50236</v>
       </c>
       <c r="Q7" s="13">
-        <f t="shared" ref="Q6:Q48" si="0">P7-F7</f>
+        <f t="shared" ref="Q7:Q48" si="0">P7-F7</f>
         <v>0</v>
       </c>
       <c r="R7" s="13">
@@ -8039,7 +8042,7 @@
         <f t="shared" si="1"/>
         <v>58468.5</v>
       </c>
-      <c r="Q13" s="273">
+      <c r="Q13" s="235">
         <f t="shared" si="0"/>
         <v>-5.5</v>
       </c>
@@ -8061,32 +8064,32 @@
         <v>44965</v>
       </c>
       <c r="F14" s="28">
-        <v>0</v>
+        <v>68469</v>
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="30">
         <v>44965</v>
       </c>
       <c r="I14" s="31">
-        <v>0</v>
+        <v>613.5</v>
       </c>
       <c r="J14" s="39"/>
       <c r="K14" s="45"/>
       <c r="L14" s="41"/>
       <c r="M14" s="33">
-        <v>0</v>
+        <v>66691</v>
       </c>
       <c r="N14" s="34">
-        <v>0</v>
+        <v>1164</v>
       </c>
       <c r="O14" s="35"/>
       <c r="P14" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68468.5</v>
+      </c>
+      <c r="Q14" s="235">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
       </c>
       <c r="R14" s="13">
         <v>0</v>
@@ -8106,28 +8109,29 @@
         <v>44966</v>
       </c>
       <c r="F15" s="28">
-        <v>0</v>
+        <v>109720</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30">
         <v>44966</v>
       </c>
       <c r="I15" s="31">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="J15" s="39"/>
       <c r="K15" s="45"/>
       <c r="L15" s="41"/>
       <c r="M15" s="33">
-        <v>0</v>
+        <f>51000+48419</f>
+        <v>99419</v>
       </c>
       <c r="N15" s="34">
-        <v>0</v>
+        <v>10137</v>
       </c>
       <c r="O15" s="35"/>
       <c r="P15" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>109720</v>
       </c>
       <c r="Q15" s="13">
         <f t="shared" si="0"/>
@@ -8144,35 +8148,37 @@
         <v>44967</v>
       </c>
       <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="52"/>
+        <v>20370</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>70</v>
+      </c>
       <c r="E16" s="27">
         <v>44967</v>
       </c>
       <c r="F16" s="28">
-        <v>0</v>
+        <v>68417</v>
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="30">
         <v>44967</v>
       </c>
       <c r="I16" s="31">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="J16" s="39"/>
       <c r="K16" s="45"/>
       <c r="L16" s="9"/>
       <c r="M16" s="33">
-        <v>0</v>
+        <v>47342</v>
       </c>
       <c r="N16" s="34">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="O16" s="35"/>
       <c r="P16" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68417</v>
       </c>
       <c r="Q16" s="13">
         <f t="shared" si="0"/>
@@ -8196,32 +8202,39 @@
         <v>44968</v>
       </c>
       <c r="F17" s="28">
-        <v>0</v>
+        <v>86248</v>
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="30">
         <v>44968</v>
       </c>
       <c r="I17" s="31">
-        <v>0</v>
-      </c>
-      <c r="J17" s="39"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="49"/>
+        <v>671</v>
+      </c>
+      <c r="J17" s="39">
+        <v>44968</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="49">
+        <v>9657</v>
+      </c>
       <c r="M17" s="33">
-        <v>0</v>
+        <f>33400+37466</f>
+        <v>70866</v>
       </c>
       <c r="N17" s="34">
-        <v>0</v>
+        <v>5124</v>
       </c>
       <c r="O17" s="35"/>
       <c r="P17" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86318</v>
       </c>
       <c r="Q17" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="R17" s="13">
         <v>0</v>
@@ -8234,39 +8247,42 @@
         <v>44969</v>
       </c>
       <c r="C18" s="25">
-        <v>0</v>
-      </c>
-      <c r="D18" s="38"/>
+        <v>4604.5</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>104</v>
+      </c>
       <c r="E18" s="27">
         <v>44969</v>
       </c>
       <c r="F18" s="28">
-        <v>0</v>
+        <v>112257</v>
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="30">
         <v>44969</v>
       </c>
       <c r="I18" s="31">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="J18" s="39"/>
       <c r="K18" s="54"/>
       <c r="L18" s="41"/>
       <c r="M18" s="33">
-        <v>0</v>
+        <f>90700+14512</f>
+        <v>105212</v>
       </c>
       <c r="N18" s="34">
-        <v>0</v>
+        <v>1912</v>
       </c>
       <c r="O18" s="35"/>
       <c r="P18" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112260.5</v>
       </c>
       <c r="Q18" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="R18" s="13">
         <v>0</v>
@@ -9454,21 +9470,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="254">
+      <c r="M49" s="255">
         <f>SUM(M5:M39)</f>
-        <v>601629</v>
-      </c>
-      <c r="N49" s="265">
+        <v>991159</v>
+      </c>
+      <c r="N49" s="266">
         <f>SUM(N5:N39)</f>
-        <v>30330</v>
+        <v>48809</v>
       </c>
       <c r="P49" s="98">
         <f t="shared" si="1"/>
-        <v>631959</v>
+        <v>1039968</v>
       </c>
       <c r="Q49" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>-2.5</v>
+        <v>70.5</v>
       </c>
       <c r="R49" s="13">
         <v>0</v>
@@ -9487,8 +9503,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="255"/>
-      <c r="N50" s="266"/>
+      <c r="M50" s="256"/>
+      <c r="N50" s="267"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9664,7 +9680,7 @@
       </c>
       <c r="C60" s="124">
         <f>SUM(C5:C59)</f>
-        <v>20276.5</v>
+        <v>45251</v>
       </c>
       <c r="D60" s="125"/>
       <c r="E60" s="126" t="s">
@@ -9672,7 +9688,7 @@
       </c>
       <c r="F60" s="127">
         <f>SUM(F5:F59)</f>
-        <v>632260</v>
+        <v>1077371</v>
       </c>
       <c r="G60" s="125"/>
       <c r="H60" s="128" t="s">
@@ -9680,7 +9696,7 @@
       </c>
       <c r="I60" s="129">
         <f>SUM(I5:I59)</f>
-        <v>5555</v>
+        <v>8098.5</v>
       </c>
       <c r="J60" s="130"/>
       <c r="K60" s="131" t="s">
@@ -9688,7 +9704,7 @@
       </c>
       <c r="L60" s="132">
         <f>SUM(L5:L59)</f>
-        <v>12200</v>
+        <v>21857</v>
       </c>
       <c r="M60" s="133"/>
       <c r="N60" s="133"/>
@@ -9706,32 +9722,32 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="267" t="s">
+      <c r="H62" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="268"/>
+      <c r="I62" s="269"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="269">
+      <c r="K62" s="270">
         <f>I60+L60</f>
-        <v>17755</v>
-      </c>
-      <c r="L62" s="270"/>
-      <c r="M62" s="271">
+        <v>29955.5</v>
+      </c>
+      <c r="L62" s="271"/>
+      <c r="M62" s="272">
         <f>N49+M49</f>
-        <v>631959</v>
-      </c>
-      <c r="N62" s="272"/>
+        <v>1039968</v>
+      </c>
+      <c r="N62" s="273"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="264" t="s">
+      <c r="D63" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="264"/>
+      <c r="E63" s="265"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
-        <v>594228.5</v>
+        <v>1002164.5</v>
       </c>
       <c r="I63" s="139"/>
       <c r="J63" s="140"/>
@@ -9739,22 +9755,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="235" t="s">
+      <c r="D64" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="235"/>
+      <c r="E64" s="236"/>
       <c r="F64" s="133">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I64" s="236" t="s">
+      <c r="I64" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="237"/>
-      <c r="K64" s="238">
+      <c r="J64" s="238"/>
+      <c r="K64" s="239">
         <f>F66+F67+F68</f>
-        <v>-1629961.2400000002</v>
-      </c>
-      <c r="L64" s="239"/>
+        <v>-1222025.2400000002</v>
+      </c>
+      <c r="L64" s="240"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -9778,18 +9794,18 @@
       </c>
       <c r="F66" s="133">
         <f>SUM(F63:F65)</f>
-        <v>-1629961.2400000002</v>
+        <v>-1222025.2400000002</v>
       </c>
       <c r="H66" s="23"/>
       <c r="I66" s="148" t="s">
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="240">
+      <c r="K66" s="241">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L66" s="241"/>
+      <c r="L66" s="242"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -9806,22 +9822,22 @@
       <c r="C68" s="152">
         <v>44985</v>
       </c>
-      <c r="D68" s="242" t="s">
+      <c r="D68" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="243"/>
+      <c r="E68" s="244"/>
       <c r="F68" s="153">
         <v>0</v>
       </c>
-      <c r="I68" s="244" t="s">
+      <c r="I68" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="245"/>
-      <c r="K68" s="246">
+      <c r="J68" s="246"/>
+      <c r="K68" s="247">
         <f>K64+K66</f>
-        <v>-1853490.1400000001</v>
-      </c>
-      <c r="L68" s="246"/>
+        <v>-1445554.1400000001</v>
+      </c>
+      <c r="L68" s="247"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
@@ -9969,8 +9985,9 @@
     <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -11445,23 +11462,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="247"/>
-      <c r="C1" s="249" t="s">
+      <c r="B1" s="248"/>
+      <c r="C1" s="250" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="250"/>
-      <c r="E1" s="250"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="250"/>
-      <c r="H1" s="250"/>
-      <c r="I1" s="250"/>
-      <c r="J1" s="250"/>
-      <c r="K1" s="250"/>
-      <c r="L1" s="250"/>
-      <c r="M1" s="250"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="248"/>
+      <c r="B2" s="249"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11471,21 +11488,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="252"/>
+      <c r="B3" s="252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="253"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="253" t="s">
+      <c r="H3" s="254" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="253"/>
+      <c r="I3" s="254"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="256" t="s">
+      <c r="R3" s="257" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11500,14 +11517,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="258" t="s">
+      <c r="E4" s="259" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="259"/>
-      <c r="H4" s="260" t="s">
+      <c r="F4" s="260"/>
+      <c r="H4" s="261" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="261"/>
+      <c r="I4" s="262"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11517,11 +11534,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="262" t="s">
+      <c r="P4" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="263"/>
-      <c r="R4" s="257"/>
+      <c r="Q4" s="264"/>
+      <c r="R4" s="258"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13284,11 +13301,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="254">
+      <c r="M49" s="255">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="265">
+      <c r="N49" s="266">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -13317,8 +13334,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="255"/>
-      <c r="N50" s="266"/>
+      <c r="M50" s="256"/>
+      <c r="N50" s="267"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -13536,29 +13553,29 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="267" t="s">
+      <c r="H62" s="268" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="268"/>
+      <c r="I62" s="269"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="269">
+      <c r="K62" s="270">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="270"/>
-      <c r="M62" s="271">
+      <c r="L62" s="271"/>
+      <c r="M62" s="272">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="272"/>
+      <c r="N62" s="273"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="264" t="s">
+      <c r="D63" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="264"/>
+      <c r="E63" s="265"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
         <v>780704</v>
@@ -13569,22 +13586,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="235" t="s">
+      <c r="D64" s="236" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="235"/>
+      <c r="E64" s="236"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="236" t="s">
+      <c r="I64" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="237"/>
-      <c r="K64" s="238">
+      <c r="J64" s="238"/>
+      <c r="K64" s="239">
         <f>F66+F67+F68</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L64" s="239"/>
+      <c r="L64" s="240"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -13615,11 +13632,11 @@
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="240">
+      <c r="K66" s="241">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="241"/>
+      <c r="L66" s="242"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -13636,22 +13653,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="242" t="s">
+      <c r="D68" s="243" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="243"/>
+      <c r="E68" s="244"/>
       <c r="F68" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="244" t="s">
+      <c r="I68" s="245" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="245"/>
-      <c r="K68" s="246">
+      <c r="J68" s="246"/>
+      <c r="K68" s="247">
         <f>K64+K66</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L68" s="246"/>
+      <c r="L68" s="247"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20715" windowHeight="11730" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="  E N E R O    2 0 2 3     " sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="116">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -522,6 +522,36 @@
   </si>
   <si>
     <t>NOMINA # 6</t>
+  </si>
+  <si>
+    <t>QUESO-Y PALITOS DE QUESO</t>
+  </si>
+  <si>
+    <t>NOMINA # 7</t>
+  </si>
+  <si>
+    <t>NOMINA # 8</t>
+  </si>
+  <si>
+    <t>Fumigacion</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>LUZ</t>
+  </si>
+  <si>
+    <t>TELMEX</t>
+  </si>
+  <si>
+    <t>COMISIONES BANCO</t>
+  </si>
+  <si>
+    <t>FUMIGACION</t>
+  </si>
+  <si>
+    <t>FEBRERO.,</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2209,6 +2239,18 @@
     <xf numFmtId="164" fontId="3" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="15" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2236,6 +2278,93 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2245,84 +2374,85 @@
     <xf numFmtId="166" fontId="14" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="20" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="15" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="19" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="22" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2782,13 +2912,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2835,13 +2965,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2888,13 +3018,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2941,13 +3071,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2994,13 +3124,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3055,7 +3185,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -3150,13 +3280,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3897,7 +4027,7 @@
   <dimension ref="A1:U83"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3922,23 +4052,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="248"/>
-      <c r="C1" s="250" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="249"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -3948,21 +4078,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="253"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="254" t="s">
+      <c r="H3" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="254"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="257" t="s">
+      <c r="R3" s="261" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3977,14 +4107,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="259" t="s">
+      <c r="E4" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="260"/>
-      <c r="H4" s="261" t="s">
+      <c r="F4" s="264"/>
+      <c r="H4" s="265" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="262"/>
+      <c r="I4" s="266"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -3994,11 +4124,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="263" t="s">
+      <c r="P4" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="264"/>
-      <c r="R4" s="258"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="262"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5055,9 +5185,15 @@
       <c r="G27" s="29"/>
       <c r="H27" s="30"/>
       <c r="I27" s="31"/>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="67"/>
+      <c r="J27" s="68">
+        <v>44950</v>
+      </c>
+      <c r="K27" s="237" t="s">
+        <v>109</v>
+      </c>
+      <c r="L27" s="67">
+        <v>1392</v>
+      </c>
       <c r="M27" s="33">
         <v>0</v>
       </c>
@@ -5067,11 +5203,11 @@
       <c r="O27" s="35"/>
       <c r="P27" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="R27" s="13">
         <v>0</v>
@@ -5751,9 +5887,15 @@
       <c r="G48" s="29"/>
       <c r="H48" s="30"/>
       <c r="I48" s="91"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="76"/>
+      <c r="J48" s="74">
+        <v>44951</v>
+      </c>
+      <c r="K48" s="236" t="s">
+        <v>110</v>
+      </c>
+      <c r="L48" s="76">
+        <v>979.68</v>
+      </c>
       <c r="M48" s="92">
         <v>0</v>
       </c>
@@ -5761,11 +5903,11 @@
       <c r="O48" s="35"/>
       <c r="P48" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>979.68</v>
       </c>
       <c r="Q48" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>979.68</v>
       </c>
       <c r="R48" s="13">
         <v>0</v>
@@ -5782,24 +5924,30 @@
       <c r="G49" s="29"/>
       <c r="H49" s="30"/>
       <c r="I49" s="96"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="255">
+      <c r="J49" s="74">
+        <v>44942</v>
+      </c>
+      <c r="K49" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="L49" s="76">
+        <v>549</v>
+      </c>
+      <c r="M49" s="259">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="266">
+      <c r="N49" s="270">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
       <c r="P49" s="98">
         <f t="shared" si="1"/>
-        <v>1715746.5</v>
+        <v>1716295.5</v>
       </c>
       <c r="Q49" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>1</v>
+        <v>1393</v>
       </c>
       <c r="R49" s="13">
         <v>0</v>
@@ -5815,11 +5963,17 @@
       <c r="G50" s="29"/>
       <c r="H50" s="30"/>
       <c r="I50" s="96"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="256"/>
-      <c r="N50" s="267"/>
+      <c r="J50" s="74">
+        <v>44955</v>
+      </c>
+      <c r="K50" s="238" t="s">
+        <v>113</v>
+      </c>
+      <c r="L50" s="76">
+        <v>2591.1799999999998</v>
+      </c>
+      <c r="M50" s="260"/>
+      <c r="N50" s="271"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -5893,7 +6047,7 @@
       </c>
       <c r="L53" s="132">
         <f>SUM(L5:L52)</f>
-        <v>51500</v>
+        <v>57011.86</v>
       </c>
       <c r="M53" s="133"/>
       <c r="N53" s="133"/>
@@ -5911,32 +6065,32 @@
       <c r="A55" s="135"/>
       <c r="B55" s="136"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="268" t="s">
+      <c r="H55" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="269"/>
+      <c r="I55" s="273"/>
       <c r="J55" s="137"/>
-      <c r="K55" s="270">
+      <c r="K55" s="274">
         <f>I53+L53</f>
-        <v>57963.5</v>
-      </c>
-      <c r="L55" s="271"/>
-      <c r="M55" s="272">
+        <v>63475.360000000001</v>
+      </c>
+      <c r="L55" s="275"/>
+      <c r="M55" s="276">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="273"/>
+      <c r="N55" s="277"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="265" t="s">
+      <c r="D56" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="265"/>
+      <c r="E56" s="269"/>
       <c r="F56" s="138">
         <f>F53-K55-C53</f>
-        <v>1662409.5</v>
+        <v>1656897.64</v>
       </c>
       <c r="I56" s="139"/>
       <c r="J56" s="140"/>
@@ -5944,22 +6098,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="236" t="s">
+      <c r="D57" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="236"/>
+      <c r="E57" s="240"/>
       <c r="F57" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="237" t="s">
+      <c r="I57" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="238"/>
-      <c r="K57" s="239">
+      <c r="J57" s="242"/>
+      <c r="K57" s="243">
         <f>F59+F60+F61</f>
-        <v>399275.92000000004</v>
-      </c>
-      <c r="L57" s="240"/>
+        <v>393764.05999999994</v>
+      </c>
+      <c r="L57" s="244"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -5983,18 +6137,18 @@
       </c>
       <c r="F59" s="133">
         <f>SUM(F56:F58)</f>
-        <v>138014.02000000002</v>
+        <v>132502.15999999992</v>
       </c>
       <c r="H59" s="23"/>
       <c r="I59" s="148" t="s">
         <v>19</v>
       </c>
       <c r="J59" s="149"/>
-      <c r="K59" s="241">
+      <c r="K59" s="245">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="242"/>
+      <c r="L59" s="246"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="150" t="s">
@@ -6011,22 +6165,22 @@
       <c r="C61" s="152">
         <v>44955</v>
       </c>
-      <c r="D61" s="243" t="s">
+      <c r="D61" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="244"/>
+      <c r="E61" s="248"/>
       <c r="F61" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="245" t="s">
+      <c r="I61" s="249" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="246"/>
-      <c r="K61" s="247">
+      <c r="J61" s="250"/>
+      <c r="K61" s="251">
         <f>K57+K59</f>
-        <v>25327.20000000007</v>
-      </c>
-      <c r="L61" s="247"/>
+        <v>19815.339999999967</v>
+      </c>
+      <c r="L61" s="251"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="154"/>
@@ -7511,10 +7665,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7539,23 +7693,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="248"/>
-      <c r="C1" s="250" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="249"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7565,21 +7719,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="253"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="254" t="s">
+      <c r="H3" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="254"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="257" t="s">
+      <c r="R3" s="261" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7594,14 +7748,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="259" t="s">
+      <c r="E4" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="260"/>
-      <c r="H4" s="261" t="s">
+      <c r="F4" s="264"/>
+      <c r="H4" s="265" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="262"/>
+      <c r="I4" s="266"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7611,11 +7765,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="263" t="s">
+      <c r="P4" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="264"/>
-      <c r="R4" s="258"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="262"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -8302,28 +8456,29 @@
         <v>44970</v>
       </c>
       <c r="F19" s="28">
-        <v>0</v>
+        <v>136132</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30">
         <v>44970</v>
       </c>
       <c r="I19" s="31">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="J19" s="39"/>
       <c r="K19" s="55"/>
       <c r="L19" s="56"/>
       <c r="M19" s="33">
-        <v>0</v>
+        <f>11000+113000+9809</f>
+        <v>133809</v>
       </c>
       <c r="N19" s="34">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="O19" s="35"/>
       <c r="P19" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>136132</v>
       </c>
       <c r="Q19" s="13">
         <f t="shared" si="0"/>
@@ -8347,20 +8502,21 @@
         <v>44971</v>
       </c>
       <c r="F20" s="28">
-        <v>0</v>
+        <v>60594</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30">
         <v>44971</v>
       </c>
       <c r="I20" s="31">
-        <v>0</v>
+        <v>616</v>
       </c>
       <c r="J20" s="39"/>
       <c r="K20" s="57"/>
       <c r="L20" s="49"/>
       <c r="M20" s="33">
-        <v>0</v>
+        <f>22500+37478</f>
+        <v>59978</v>
       </c>
       <c r="N20" s="34">
         <v>0</v>
@@ -8368,7 +8524,7 @@
       <c r="O20" s="35"/>
       <c r="P20" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60594</v>
       </c>
       <c r="Q20" s="13">
         <f t="shared" si="0"/>
@@ -8392,31 +8548,33 @@
         <v>44972</v>
       </c>
       <c r="F21" s="28">
-        <v>0</v>
+        <v>46506</v>
       </c>
       <c r="G21" s="29"/>
       <c r="H21" s="30">
         <v>44972</v>
       </c>
       <c r="I21" s="31">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="J21" s="39"/>
       <c r="K21" s="58"/>
       <c r="L21" s="49"/>
       <c r="M21" s="33">
-        <v>0</v>
+        <f>18000+25602</f>
+        <v>43602</v>
       </c>
       <c r="N21" s="34">
-        <v>0</v>
+        <v>2193</v>
       </c>
       <c r="O21" s="35"/>
       <c r="P21" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>10</v>
+        <v>46506</v>
+      </c>
+      <c r="Q21" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="R21" s="13">
         <v>0</v>
@@ -8429,35 +8587,38 @@
         <v>44973</v>
       </c>
       <c r="C22" s="25">
-        <v>0</v>
-      </c>
-      <c r="D22" s="38"/>
+        <v>37251</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="E22" s="27">
         <v>44973</v>
       </c>
       <c r="F22" s="28">
-        <v>0</v>
+        <v>64392</v>
       </c>
       <c r="G22" s="29"/>
       <c r="H22" s="30">
         <v>44973</v>
       </c>
       <c r="I22" s="31">
-        <v>0</v>
+        <v>569</v>
       </c>
       <c r="J22" s="39"/>
       <c r="K22" s="45"/>
       <c r="L22" s="59"/>
       <c r="M22" s="33">
-        <v>0</v>
+        <f>15692+9200</f>
+        <v>24892</v>
       </c>
       <c r="N22" s="34">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="O22" s="35"/>
       <c r="P22" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>64392</v>
       </c>
       <c r="Q22" s="13">
         <f t="shared" si="0"/>
@@ -8470,39 +8631,40 @@
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
-      <c r="B23" s="24">
+      <c r="B23" s="281">
         <v>44974</v>
       </c>
-      <c r="C23" s="25">
-        <v>0</v>
-      </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="27">
+      <c r="C23" s="282">
+        <v>0</v>
+      </c>
+      <c r="D23" s="293"/>
+      <c r="E23" s="284">
         <v>44974</v>
       </c>
-      <c r="F23" s="28">
-        <v>0</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="30">
+      <c r="F23" s="285">
+        <v>85305</v>
+      </c>
+      <c r="G23" s="286"/>
+      <c r="H23" s="287">
         <v>44974</v>
       </c>
-      <c r="I23" s="31">
-        <v>0</v>
-      </c>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="33">
-        <v>0</v>
-      </c>
-      <c r="N23" s="34">
-        <v>0</v>
+      <c r="I23" s="288">
+        <v>570</v>
+      </c>
+      <c r="J23" s="294"/>
+      <c r="K23" s="295"/>
+      <c r="L23" s="292"/>
+      <c r="M23" s="290">
+        <f>36500+45330</f>
+        <v>81830</v>
+      </c>
+      <c r="N23" s="291">
+        <v>2905</v>
       </c>
       <c r="O23" s="35"/>
       <c r="P23" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85305</v>
       </c>
       <c r="Q23" s="13">
         <f t="shared" si="0"/>
@@ -8515,43 +8677,52 @@
     </row>
     <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
-      <c r="B24" s="24">
+      <c r="B24" s="281">
         <v>44975</v>
       </c>
-      <c r="C24" s="25">
-        <v>0</v>
-      </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="27">
+      <c r="C24" s="282">
+        <v>568</v>
+      </c>
+      <c r="D24" s="296" t="s">
+        <v>106</v>
+      </c>
+      <c r="E24" s="284">
         <v>44975</v>
       </c>
-      <c r="F24" s="28">
-        <v>0</v>
-      </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30">
+      <c r="F24" s="285">
+        <v>68722</v>
+      </c>
+      <c r="G24" s="286"/>
+      <c r="H24" s="287">
         <v>44975</v>
       </c>
-      <c r="I24" s="31">
-        <v>0</v>
-      </c>
-      <c r="J24" s="62"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="33">
-        <v>0</v>
-      </c>
-      <c r="N24" s="34">
-        <v>0</v>
+      <c r="I24" s="288">
+        <v>539</v>
+      </c>
+      <c r="J24" s="297">
+        <v>44975</v>
+      </c>
+      <c r="K24" s="298" t="s">
+        <v>107</v>
+      </c>
+      <c r="L24" s="299">
+        <v>8316.67</v>
+      </c>
+      <c r="M24" s="290">
+        <f>38114+15000</f>
+        <v>53114</v>
+      </c>
+      <c r="N24" s="291">
+        <v>6184</v>
       </c>
       <c r="O24" s="35"/>
       <c r="P24" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68721.67</v>
       </c>
       <c r="Q24" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.33000000000174623</v>
       </c>
       <c r="R24" s="13">
         <v>0</v>
@@ -8560,39 +8731,40 @@
     </row>
     <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
-      <c r="B25" s="24">
+      <c r="B25" s="281">
         <v>44976</v>
       </c>
-      <c r="C25" s="25">
-        <v>0</v>
-      </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="27">
+      <c r="C25" s="282">
+        <v>0</v>
+      </c>
+      <c r="D25" s="283"/>
+      <c r="E25" s="284">
         <v>44976</v>
       </c>
-      <c r="F25" s="28">
-        <v>0</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="30">
+      <c r="F25" s="285">
+        <v>104132</v>
+      </c>
+      <c r="G25" s="286"/>
+      <c r="H25" s="287">
         <v>44976</v>
       </c>
-      <c r="I25" s="31">
-        <v>0</v>
-      </c>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="33">
-        <v>0</v>
-      </c>
-      <c r="N25" s="34">
-        <v>0</v>
+      <c r="I25" s="288">
+        <v>500</v>
+      </c>
+      <c r="J25" s="300"/>
+      <c r="K25" s="301"/>
+      <c r="L25" s="302"/>
+      <c r="M25" s="290">
+        <f>88000+13246</f>
+        <v>101246</v>
+      </c>
+      <c r="N25" s="291">
+        <v>2386</v>
       </c>
       <c r="O25" s="35"/>
       <c r="P25" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104132</v>
       </c>
       <c r="Q25" s="13">
         <f t="shared" si="0"/>
@@ -8605,37 +8777,42 @@
     </row>
     <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
-      <c r="B26" s="24">
+      <c r="B26" s="281">
         <v>44977</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="27">
+      <c r="C26" s="282">
+        <v>4120</v>
+      </c>
+      <c r="D26" s="283" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="284">
         <v>44977</v>
       </c>
-      <c r="F26" s="28">
-        <v>0</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="30">
+      <c r="F26" s="285">
+        <v>143460</v>
+      </c>
+      <c r="G26" s="286"/>
+      <c r="H26" s="287">
         <v>44977</v>
       </c>
-      <c r="I26" s="31">
-        <v>0</v>
-      </c>
-      <c r="J26" s="39"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="33">
-        <v>0</v>
-      </c>
-      <c r="N26" s="34">
+      <c r="I26" s="288">
+        <v>633</v>
+      </c>
+      <c r="J26" s="289"/>
+      <c r="K26" s="298"/>
+      <c r="L26" s="292"/>
+      <c r="M26" s="290">
+        <f>5000+133707</f>
+        <v>138707</v>
+      </c>
+      <c r="N26" s="291">
         <v>0</v>
       </c>
       <c r="O26" s="35"/>
       <c r="P26" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>143460</v>
       </c>
       <c r="Q26" s="13">
         <f t="shared" si="0"/>
@@ -8648,37 +8825,40 @@
     </row>
     <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
-      <c r="B27" s="24">
+      <c r="B27" s="281">
         <v>44978</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="27">
+      <c r="C27" s="282">
+        <v>0</v>
+      </c>
+      <c r="D27" s="296"/>
+      <c r="E27" s="284">
         <v>44978</v>
       </c>
-      <c r="F27" s="28">
-        <v>0</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30">
+      <c r="F27" s="285">
+        <v>58359</v>
+      </c>
+      <c r="G27" s="286"/>
+      <c r="H27" s="287">
         <v>44978</v>
       </c>
-      <c r="I27" s="31">
-        <v>0</v>
-      </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="33">
-        <v>0</v>
-      </c>
-      <c r="N27" s="34">
-        <v>0</v>
+      <c r="I27" s="288">
+        <v>565</v>
+      </c>
+      <c r="J27" s="303"/>
+      <c r="K27" s="304"/>
+      <c r="L27" s="302"/>
+      <c r="M27" s="290">
+        <f>15000+42694</f>
+        <v>57694</v>
+      </c>
+      <c r="N27" s="291">
+        <v>100</v>
       </c>
       <c r="O27" s="35"/>
       <c r="P27" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>58359</v>
       </c>
       <c r="Q27" s="13">
         <f t="shared" si="0"/>
@@ -8691,37 +8871,39 @@
     </row>
     <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
-      <c r="B28" s="24">
+      <c r="B28" s="281">
         <v>44979</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="27">
+      <c r="C28" s="282">
+        <v>0</v>
+      </c>
+      <c r="D28" s="296"/>
+      <c r="E28" s="284">
         <v>44979</v>
       </c>
-      <c r="F28" s="28">
-        <v>0</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30">
+      <c r="F28" s="285">
+        <v>42871</v>
+      </c>
+      <c r="G28" s="286"/>
+      <c r="H28" s="287">
         <v>44979</v>
       </c>
-      <c r="I28" s="31">
-        <v>0</v>
-      </c>
-      <c r="J28" s="70"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="33">
-        <v>0</v>
-      </c>
-      <c r="N28" s="34">
-        <v>0</v>
+      <c r="I28" s="288">
+        <v>563</v>
+      </c>
+      <c r="J28" s="305"/>
+      <c r="K28" s="306"/>
+      <c r="L28" s="302"/>
+      <c r="M28" s="290">
+        <v>40533</v>
+      </c>
+      <c r="N28" s="291">
+        <v>1775</v>
       </c>
       <c r="O28" s="35"/>
       <c r="P28" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>42871</v>
       </c>
       <c r="Q28" s="13">
         <f t="shared" si="0"/>
@@ -8734,37 +8916,40 @@
     </row>
     <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
-      <c r="B29" s="24">
+      <c r="B29" s="281">
         <v>44980</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="27">
+      <c r="C29" s="282">
+        <v>0</v>
+      </c>
+      <c r="D29" s="307"/>
+      <c r="E29" s="284">
         <v>44980</v>
       </c>
-      <c r="F29" s="28">
-        <v>0</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="30">
+      <c r="F29" s="285">
+        <v>68524</v>
+      </c>
+      <c r="G29" s="286"/>
+      <c r="H29" s="287">
         <v>44980</v>
       </c>
-      <c r="I29" s="31">
-        <v>0</v>
-      </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="73"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="33">
-        <v>0</v>
-      </c>
-      <c r="N29" s="34">
+      <c r="I29" s="288">
+        <v>72</v>
+      </c>
+      <c r="J29" s="303"/>
+      <c r="K29" s="308"/>
+      <c r="L29" s="302"/>
+      <c r="M29" s="290">
+        <f>54452+14000</f>
+        <v>68452</v>
+      </c>
+      <c r="N29" s="291">
         <v>0</v>
       </c>
       <c r="O29" s="35"/>
       <c r="P29" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68524</v>
       </c>
       <c r="Q29" s="13">
         <f t="shared" si="0"/>
@@ -8778,37 +8963,42 @@
     </row>
     <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
-      <c r="B30" s="24">
+      <c r="B30" s="281">
         <v>44981</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="27">
+      <c r="C30" s="282">
+        <v>27141</v>
+      </c>
+      <c r="D30" s="307" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="284">
         <v>44981</v>
       </c>
-      <c r="F30" s="28">
-        <v>0</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="30">
+      <c r="F30" s="285">
+        <v>79698</v>
+      </c>
+      <c r="G30" s="286"/>
+      <c r="H30" s="287">
         <v>44981</v>
       </c>
-      <c r="I30" s="31">
-        <v>0</v>
-      </c>
-      <c r="J30" s="74"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="33">
-        <v>0</v>
-      </c>
-      <c r="N30" s="34">
-        <v>0</v>
+      <c r="I30" s="288">
+        <v>124</v>
+      </c>
+      <c r="J30" s="309"/>
+      <c r="K30" s="310"/>
+      <c r="L30" s="311"/>
+      <c r="M30" s="290">
+        <f>11476+35000</f>
+        <v>46476</v>
+      </c>
+      <c r="N30" s="291">
+        <v>5957</v>
       </c>
       <c r="O30" s="35"/>
       <c r="P30" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>79698</v>
       </c>
       <c r="Q30" s="13">
         <f t="shared" si="0"/>
@@ -8821,37 +9011,46 @@
     </row>
     <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="24">
+      <c r="B31" s="281">
         <v>44982</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="27">
+      <c r="C31" s="282">
+        <v>0</v>
+      </c>
+      <c r="D31" s="312"/>
+      <c r="E31" s="284">
         <v>44982</v>
       </c>
-      <c r="F31" s="28">
-        <v>0</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="30">
+      <c r="F31" s="285">
+        <v>99687</v>
+      </c>
+      <c r="G31" s="286"/>
+      <c r="H31" s="287">
         <v>44982</v>
       </c>
-      <c r="I31" s="31">
-        <v>0</v>
-      </c>
-      <c r="J31" s="74"/>
-      <c r="K31" s="78"/>
-      <c r="L31" s="79"/>
-      <c r="M31" s="33">
-        <v>0</v>
-      </c>
-      <c r="N31" s="34">
-        <v>0</v>
+      <c r="I31" s="288">
+        <v>150</v>
+      </c>
+      <c r="J31" s="309">
+        <v>44982</v>
+      </c>
+      <c r="K31" s="313" t="s">
+        <v>108</v>
+      </c>
+      <c r="L31" s="314">
+        <v>9657</v>
+      </c>
+      <c r="M31" s="290">
+        <f>42916+26000</f>
+        <v>68916</v>
+      </c>
+      <c r="N31" s="291">
+        <v>20964</v>
       </c>
       <c r="O31" s="35"/>
       <c r="P31" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99687</v>
       </c>
       <c r="Q31" s="13">
         <f t="shared" si="0"/>
@@ -8864,37 +9063,40 @@
     </row>
     <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
-      <c r="B32" s="24">
+      <c r="B32" s="281">
         <v>44983</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="27">
+      <c r="C32" s="282">
+        <v>0</v>
+      </c>
+      <c r="D32" s="315"/>
+      <c r="E32" s="284">
         <v>44983</v>
       </c>
-      <c r="F32" s="28">
-        <v>0</v>
-      </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="30">
+      <c r="F32" s="285">
+        <v>110573</v>
+      </c>
+      <c r="G32" s="286"/>
+      <c r="H32" s="287">
         <v>44983</v>
       </c>
-      <c r="I32" s="31">
-        <v>0</v>
-      </c>
-      <c r="J32" s="74"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="33">
-        <v>0</v>
-      </c>
-      <c r="N32" s="34">
-        <v>0</v>
+      <c r="I32" s="288">
+        <v>0</v>
+      </c>
+      <c r="J32" s="309"/>
+      <c r="K32" s="310"/>
+      <c r="L32" s="311"/>
+      <c r="M32" s="290">
+        <f>8305+101000</f>
+        <v>109305</v>
+      </c>
+      <c r="N32" s="291">
+        <v>1268</v>
       </c>
       <c r="O32" s="35"/>
       <c r="P32" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110573</v>
       </c>
       <c r="Q32" s="13">
         <f t="shared" si="0"/>
@@ -8907,37 +9109,40 @@
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="24">
+      <c r="B33" s="281">
         <v>44984</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="27">
+      <c r="C33" s="282">
+        <v>0</v>
+      </c>
+      <c r="D33" s="316"/>
+      <c r="E33" s="284">
         <v>44984</v>
       </c>
-      <c r="F33" s="28">
-        <v>0</v>
-      </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="30">
+      <c r="F33" s="285">
+        <v>144123</v>
+      </c>
+      <c r="G33" s="286"/>
+      <c r="H33" s="287">
         <v>44984</v>
       </c>
-      <c r="I33" s="31">
-        <v>0</v>
-      </c>
-      <c r="J33" s="74"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="33">
-        <v>0</v>
-      </c>
-      <c r="N33" s="34">
-        <v>0</v>
+      <c r="I33" s="288">
+        <v>28</v>
+      </c>
+      <c r="J33" s="309"/>
+      <c r="K33" s="313"/>
+      <c r="L33" s="317"/>
+      <c r="M33" s="290">
+        <f>11500+75000+57539</f>
+        <v>144039</v>
+      </c>
+      <c r="N33" s="291">
+        <v>56</v>
       </c>
       <c r="O33" s="35"/>
       <c r="P33" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>144123</v>
       </c>
       <c r="Q33" s="13">
         <f t="shared" si="0"/>
@@ -8950,41 +9155,44 @@
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="24">
+      <c r="B34" s="281">
         <v>44985</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="27">
+      <c r="C34" s="282">
+        <v>0</v>
+      </c>
+      <c r="D34" s="315"/>
+      <c r="E34" s="284">
         <v>44985</v>
       </c>
-      <c r="F34" s="28">
-        <v>0</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="30">
+      <c r="F34" s="285">
+        <v>76623</v>
+      </c>
+      <c r="G34" s="286"/>
+      <c r="H34" s="287">
         <v>44985</v>
       </c>
-      <c r="I34" s="31">
-        <v>0</v>
-      </c>
-      <c r="J34" s="74"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="33">
-        <v>0</v>
-      </c>
-      <c r="N34" s="34">
-        <v>0</v>
+      <c r="I34" s="288">
+        <v>589</v>
+      </c>
+      <c r="J34" s="309"/>
+      <c r="K34" s="318"/>
+      <c r="L34" s="319"/>
+      <c r="M34" s="290">
+        <f>17771+30000+27000</f>
+        <v>74771</v>
+      </c>
+      <c r="N34" s="291">
+        <v>1253</v>
       </c>
       <c r="O34" s="35"/>
       <c r="P34" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>76613</v>
       </c>
       <c r="Q34" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="R34" s="13">
         <v>0</v>
@@ -9073,9 +9281,15 @@
       <c r="G37" s="29"/>
       <c r="H37" s="30"/>
       <c r="I37" s="31"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="81"/>
+      <c r="J37" s="74">
+        <v>44974</v>
+      </c>
+      <c r="K37" s="88" t="s">
+        <v>114</v>
+      </c>
+      <c r="L37" s="81">
+        <v>1392</v>
+      </c>
       <c r="M37" s="33">
         <v>0</v>
       </c>
@@ -9085,11 +9299,11 @@
       <c r="O37" s="35"/>
       <c r="P37" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="Q37" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1392</v>
       </c>
       <c r="R37" s="13">
         <v>0</v>
@@ -9106,9 +9320,15 @@
       <c r="G38" s="29"/>
       <c r="H38" s="30"/>
       <c r="I38" s="31"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="81"/>
+      <c r="J38" s="74">
+        <v>44980</v>
+      </c>
+      <c r="K38" s="78" t="s">
+        <v>110</v>
+      </c>
+      <c r="L38" s="81">
+        <v>979.68</v>
+      </c>
       <c r="M38" s="33">
         <v>0</v>
       </c>
@@ -9118,11 +9338,11 @@
       <c r="O38" s="35"/>
       <c r="P38" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>979.68</v>
       </c>
       <c r="Q38" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>979.68</v>
       </c>
       <c r="R38" s="13">
         <v>0</v>
@@ -9139,9 +9359,15 @@
       <c r="G39" s="29"/>
       <c r="H39" s="30"/>
       <c r="I39" s="31"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="76"/>
+      <c r="J39" s="74">
+        <v>44979</v>
+      </c>
+      <c r="K39" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="L39" s="76">
+        <v>549</v>
+      </c>
       <c r="M39" s="33">
         <v>0</v>
       </c>
@@ -9151,18 +9377,18 @@
       <c r="O39" s="35"/>
       <c r="P39" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="Q39" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="R39" s="13">
         <v>0</v>
       </c>
       <c r="S39" s="37"/>
     </row>
-    <row r="40" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -9172,9 +9398,15 @@
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
       <c r="I40" s="31"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="76"/>
+      <c r="J40" s="74">
+        <v>44977</v>
+      </c>
+      <c r="K40" s="239" t="s">
+        <v>111</v>
+      </c>
+      <c r="L40" s="76">
+        <v>27676</v>
+      </c>
       <c r="M40" s="33">
         <v>0</v>
       </c>
@@ -9184,11 +9416,11 @@
       <c r="O40" s="35"/>
       <c r="P40" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27676</v>
       </c>
       <c r="Q40" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27676</v>
       </c>
       <c r="R40" s="13">
         <v>0</v>
@@ -9205,9 +9437,15 @@
       <c r="G41" s="29"/>
       <c r="H41" s="30"/>
       <c r="I41" s="31"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="76"/>
+      <c r="J41" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="L41" s="76">
+        <v>5407.19</v>
+      </c>
       <c r="M41" s="33">
         <v>0</v>
       </c>
@@ -9217,11 +9455,11 @@
       <c r="O41" s="35"/>
       <c r="P41" s="36">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5407.19</v>
       </c>
       <c r="Q41" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5407.19</v>
       </c>
       <c r="R41" s="13">
         <v>0</v>
@@ -9470,21 +9708,21 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="255">
+      <c r="M49" s="259">
         <f>SUM(M5:M39)</f>
-        <v>991159</v>
-      </c>
-      <c r="N49" s="266">
+        <v>2238523</v>
+      </c>
+      <c r="N49" s="270">
         <f>SUM(N5:N39)</f>
-        <v>48809</v>
+        <v>97258</v>
       </c>
       <c r="P49" s="98">
         <f t="shared" si="1"/>
-        <v>1039968</v>
+        <v>2335781</v>
       </c>
       <c r="Q49" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>70.5</v>
+        <v>2980.8499999999981</v>
       </c>
       <c r="R49" s="13">
         <v>0</v>
@@ -9503,393 +9741,302 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="256"/>
-      <c r="N50" s="267"/>
+      <c r="M50" s="260"/>
+      <c r="N50" s="271"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="30"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="108"/>
+      <c r="D51" s="109"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="115"/>
       <c r="I51" s="91"/>
       <c r="J51" s="74"/>
-      <c r="K51" s="103"/>
-      <c r="L51" s="76"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="81"/>
       <c r="M51" s="105"/>
       <c r="N51" s="106"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="23"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="100"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="30"/>
+      <c r="B52" s="113"/>
+      <c r="C52" s="25">
+        <v>0</v>
+      </c>
+      <c r="D52" s="117"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="108"/>
+      <c r="H52" s="119"/>
       <c r="I52" s="91"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="81"/>
-      <c r="M52" s="105"/>
-      <c r="N52" s="106"/>
+      <c r="J52" s="120"/>
+      <c r="K52" s="121"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="34"/>
       <c r="P52" s="36"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="23"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="100"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="81"/>
-      <c r="M53" s="105"/>
-      <c r="N53" s="106"/>
+    <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C53" s="124">
+        <f>SUM(C5:C52)</f>
+        <v>114331</v>
+      </c>
+      <c r="D53" s="125"/>
+      <c r="E53" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" s="127">
+        <f>SUM(F5:F52)</f>
+        <v>2467072</v>
+      </c>
+      <c r="G53" s="125"/>
+      <c r="H53" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="129">
+        <f>SUM(I5:I52)</f>
+        <v>14922.5</v>
+      </c>
+      <c r="J53" s="130"/>
+      <c r="K53" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L53" s="132">
+        <f>SUM(L5:L52)</f>
+        <v>75834.540000000008</v>
+      </c>
+      <c r="M53" s="133"/>
+      <c r="N53" s="133"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="23"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="78"/>
-      <c r="L54" s="81"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="106"/>
+    <row r="54" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="P54" s="36"/>
       <c r="Q54" s="9"/>
     </row>
-    <row r="55" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="23"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="109"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="110"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="112"/>
-      <c r="L55" s="81"/>
-      <c r="M55" s="105"/>
-      <c r="N55" s="106"/>
+    <row r="55" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="135"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="1"/>
+      <c r="H55" s="272" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="273"/>
+      <c r="J55" s="137"/>
+      <c r="K55" s="274">
+        <f>I53+L53</f>
+        <v>90757.040000000008</v>
+      </c>
+      <c r="L55" s="275"/>
+      <c r="M55" s="276">
+        <f>N49+M49</f>
+        <v>2335781</v>
+      </c>
+      <c r="N55" s="277"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
-    <row r="56" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="23"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="109"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="110"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="81"/>
-      <c r="M56" s="105"/>
-      <c r="N56" s="106"/>
+    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D56" s="269" t="s">
+        <v>15</v>
+      </c>
+      <c r="E56" s="269"/>
+      <c r="F56" s="138">
+        <f>F53-K55-C53</f>
+        <v>2261983.96</v>
+      </c>
+      <c r="I56" s="139"/>
+      <c r="J56" s="140"/>
       <c r="P56" s="36"/>
       <c r="Q56" s="9"/>
     </row>
-    <row r="57" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="23"/>
-      <c r="B57" s="113"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="114"/>
-      <c r="F57" s="110"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="116"/>
-      <c r="L57" s="81"/>
-      <c r="M57" s="105"/>
-      <c r="N57" s="106"/>
+    <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D57" s="240" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="240"/>
+      <c r="F57" s="133">
+        <v>-2224189.7400000002</v>
+      </c>
+      <c r="I57" s="241" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="242"/>
+      <c r="K57" s="243">
+        <f>F59+F60+F61</f>
+        <v>301610.76999999973</v>
+      </c>
+      <c r="L57" s="244"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
-    <row r="58" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="23"/>
-      <c r="B58" s="113"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="110"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="74"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="81"/>
-      <c r="M58" s="105"/>
-      <c r="N58" s="106"/>
-      <c r="P58" s="36"/>
-      <c r="Q58" s="9"/>
-    </row>
-    <row r="59" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23"/>
-      <c r="B59" s="113"/>
-      <c r="C59" s="25">
-        <v>0</v>
-      </c>
-      <c r="D59" s="117"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="108"/>
-      <c r="H59" s="119"/>
-      <c r="I59" s="91"/>
-      <c r="J59" s="120"/>
-      <c r="K59" s="121"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="122"/>
-      <c r="N59" s="34"/>
-      <c r="P59" s="36"/>
-      <c r="Q59" s="9"/>
-    </row>
-    <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="C60" s="124">
-        <f>SUM(C5:C59)</f>
-        <v>45251</v>
-      </c>
-      <c r="D60" s="125"/>
-      <c r="E60" s="126" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="127">
-        <f>SUM(F5:F59)</f>
-        <v>1077371</v>
-      </c>
-      <c r="G60" s="125"/>
-      <c r="H60" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="I60" s="129">
-        <f>SUM(I5:I59)</f>
-        <v>8098.5</v>
-      </c>
-      <c r="J60" s="130"/>
-      <c r="K60" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="L60" s="132">
-        <f>SUM(L5:L59)</f>
-        <v>21857</v>
-      </c>
-      <c r="M60" s="133"/>
-      <c r="N60" s="133"/>
-      <c r="P60" s="36"/>
-      <c r="Q60" s="9"/>
-    </row>
-    <row r="61" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="4" t="s">
+    <row r="58" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D58" s="141"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="143">
+        <v>0</v>
+      </c>
+      <c r="I58" s="144"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="146"/>
+      <c r="L58" s="147"/>
+    </row>
+    <row r="59" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="9"/>
-    </row>
-    <row r="62" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="135"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="1"/>
-      <c r="H62" s="268" t="s">
-        <v>14</v>
-      </c>
-      <c r="I62" s="269"/>
-      <c r="J62" s="137"/>
-      <c r="K62" s="270">
-        <f>I60+L60</f>
-        <v>29955.5</v>
-      </c>
-      <c r="L62" s="271"/>
-      <c r="M62" s="272">
-        <f>N49+M49</f>
-        <v>1039968</v>
-      </c>
-      <c r="N62" s="273"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="9"/>
-    </row>
-    <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="265" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" s="265"/>
-      <c r="F63" s="138">
-        <f>F60-K62-C60</f>
-        <v>1002164.5</v>
-      </c>
-      <c r="I63" s="139"/>
-      <c r="J63" s="140"/>
-      <c r="P63" s="36"/>
-      <c r="Q63" s="9"/>
-    </row>
-    <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="236" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="236"/>
-      <c r="F64" s="133">
-        <v>-2224189.7400000002</v>
-      </c>
-      <c r="I64" s="237" t="s">
-        <v>17</v>
-      </c>
-      <c r="J64" s="238"/>
-      <c r="K64" s="239">
-        <f>F66+F67+F68</f>
-        <v>-1222025.2400000002</v>
-      </c>
-      <c r="L64" s="240"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="9"/>
-    </row>
-    <row r="65" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D65" s="141"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="143">
-        <v>0</v>
-      </c>
-      <c r="I65" s="144"/>
-      <c r="J65" s="145"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="147"/>
-    </row>
-    <row r="66" spans="2:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" s="135" t="s">
+      <c r="E59" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="F66" s="133">
-        <f>SUM(F63:F65)</f>
-        <v>-1222025.2400000002</v>
-      </c>
-      <c r="H66" s="23"/>
-      <c r="I66" s="148" t="s">
+      <c r="F59" s="133">
+        <f>SUM(F56:F58)</f>
+        <v>37794.219999999739</v>
+      </c>
+      <c r="H59" s="23"/>
+      <c r="I59" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J66" s="149"/>
-      <c r="K66" s="241">
+      <c r="J59" s="149"/>
+      <c r="K59" s="245">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L66" s="242"/>
-    </row>
-    <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D67" s="150" t="s">
+      <c r="L59" s="246"/>
+    </row>
+    <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="135" t="s">
+      <c r="E60" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="152">
+      <c r="F60" s="151">
+        <v>33262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C61" s="152">
         <v>44985</v>
       </c>
-      <c r="D68" s="243" t="s">
+      <c r="D61" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="244"/>
-      <c r="F68" s="153">
-        <v>0</v>
-      </c>
-      <c r="I68" s="245" t="s">
+      <c r="E61" s="248"/>
+      <c r="F61" s="153">
+        <v>230554.55</v>
+      </c>
+      <c r="I61" s="249" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="246"/>
-      <c r="K68" s="247">
-        <f>K64+K66</f>
-        <v>-1445554.1400000001</v>
-      </c>
-      <c r="L68" s="247"/>
-    </row>
-    <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C69" s="154"/>
-      <c r="D69" s="155"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="157"/>
-      <c r="J69" s="158"/>
-    </row>
-    <row r="70" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I70" s="159"/>
-      <c r="J70" s="159"/>
-      <c r="K70" s="160"/>
-      <c r="L70" s="160"/>
-    </row>
-    <row r="71" spans="2:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="161"/>
-      <c r="C71" s="162"/>
-      <c r="D71" s="163"/>
-      <c r="E71" s="36"/>
-      <c r="I71" s="159"/>
-      <c r="J71" s="159"/>
-      <c r="K71" s="160"/>
-      <c r="L71" s="160"/>
-      <c r="M71" s="164"/>
-      <c r="N71" s="135"/>
-    </row>
-    <row r="72" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="161"/>
-      <c r="C72" s="165"/>
-      <c r="E72" s="36"/>
-      <c r="M72" s="164"/>
-      <c r="N72" s="135"/>
-    </row>
-    <row r="73" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="161"/>
-      <c r="C73" s="165"/>
-      <c r="E73" s="36"/>
-      <c r="F73" s="166"/>
-      <c r="L73" s="167"/>
+      <c r="J61" s="250"/>
+      <c r="K61" s="251">
+        <f>K57+K59</f>
+        <v>78081.869999999733</v>
+      </c>
+      <c r="L61" s="251"/>
+    </row>
+    <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C62" s="154"/>
+      <c r="D62" s="155"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="157"/>
+      <c r="J62" s="158"/>
+    </row>
+    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="159"/>
+      <c r="J63" s="159"/>
+      <c r="K63" s="160"/>
+      <c r="L63" s="160"/>
+    </row>
+    <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="161"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="163"/>
+      <c r="E64" s="36"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="160"/>
+      <c r="L64" s="160"/>
+      <c r="M64" s="164"/>
+      <c r="N64" s="135"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B65" s="161"/>
+      <c r="C65" s="165"/>
+      <c r="E65" s="36"/>
+      <c r="M65" s="164"/>
+      <c r="N65" s="135"/>
+    </row>
+    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="161"/>
+      <c r="C66" s="165"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="166"/>
+      <c r="L66" s="167"/>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" s="161"/>
+      <c r="C67" s="165"/>
+      <c r="E67" s="36"/>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" s="161"/>
+      <c r="C68" s="165"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="168"/>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E69" s="169"/>
+      <c r="F69" s="36"/>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E70" s="169"/>
+      <c r="F70" s="36"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E71" s="169"/>
+      <c r="F71" s="36"/>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E72" s="169"/>
+      <c r="F72" s="36"/>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E73" s="169"/>
+      <c r="F73" s="36"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="161"/>
-      <c r="C74" s="165"/>
-      <c r="E74" s="36"/>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E74" s="169"/>
+      <c r="F74" s="36"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B75" s="161"/>
-      <c r="C75" s="165"/>
-      <c r="E75" s="36"/>
-      <c r="F75" s="168"/>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E75" s="169"/>
+      <c r="F75" s="36"/>
       <c r="M75" s="1"/>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
@@ -9915,50 +10062,15 @@
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E80" s="169"/>
       <c r="F80" s="36"/>
-      <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E81" s="169"/>
-      <c r="F81" s="36"/>
-      <c r="M81" s="1"/>
-    </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E82" s="169"/>
-      <c r="F82" s="36"/>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E83" s="169"/>
-      <c r="F83" s="36"/>
-      <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E84" s="169"/>
-      <c r="F84" s="36"/>
-      <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E85" s="169"/>
-      <c r="F85" s="36"/>
-      <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E86" s="169"/>
-      <c r="F86" s="36"/>
-      <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="E87" s="169"/>
-      <c r="F87" s="36"/>
-    </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F88" s="168"/>
-    </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F89" s="168"/>
-    </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
-      <c r="F90" s="168"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="168"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="168"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -9966,23 +10078,23 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D56:E56"/>
     <mergeCell ref="N49:N50"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="M55:N55"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11462,23 +11574,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="248"/>
-      <c r="C1" s="250" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="254" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="255"/>
+      <c r="K1" s="255"/>
+      <c r="L1" s="255"/>
+      <c r="M1" s="255"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="249"/>
+      <c r="B2" s="253"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11488,21 +11600,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="252" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="253"/>
+      <c r="B3" s="256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="257"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="254" t="s">
+      <c r="H3" s="258" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="254"/>
+      <c r="I3" s="258"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="257" t="s">
+      <c r="R3" s="261" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11517,14 +11629,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="259" t="s">
+      <c r="E4" s="263" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="260"/>
-      <c r="H4" s="261" t="s">
+      <c r="F4" s="264"/>
+      <c r="H4" s="265" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="262"/>
+      <c r="I4" s="266"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11534,11 +11646,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="263" t="s">
+      <c r="P4" s="267" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="264"/>
-      <c r="R4" s="258"/>
+      <c r="Q4" s="268"/>
+      <c r="R4" s="262"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13301,11 +13413,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="255">
+      <c r="M49" s="259">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="266">
+      <c r="N49" s="270">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -13334,8 +13446,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="256"/>
-      <c r="N50" s="267"/>
+      <c r="M50" s="260"/>
+      <c r="N50" s="271"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -13553,29 +13665,29 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="268" t="s">
+      <c r="H62" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="269"/>
+      <c r="I62" s="273"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="270">
+      <c r="K62" s="274">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="271"/>
-      <c r="M62" s="272">
+      <c r="L62" s="275"/>
+      <c r="M62" s="276">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="273"/>
+      <c r="N62" s="277"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="265" t="s">
+      <c r="D63" s="269" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="265"/>
+      <c r="E63" s="269"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
         <v>780704</v>
@@ -13586,22 +13698,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="236" t="s">
+      <c r="D64" s="240" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="236"/>
+      <c r="E64" s="240"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="237" t="s">
+      <c r="I64" s="241" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="238"/>
-      <c r="K64" s="239">
+      <c r="J64" s="242"/>
+      <c r="K64" s="243">
         <f>F66+F67+F68</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L64" s="240"/>
+      <c r="L64" s="244"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -13632,11 +13744,11 @@
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="241">
+      <c r="K66" s="245">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="242"/>
+      <c r="L66" s="246"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -13653,22 +13765,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="243" t="s">
+      <c r="D68" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="244"/>
+      <c r="E68" s="248"/>
       <c r="F68" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="245" t="s">
+      <c r="I68" s="278" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="246"/>
-      <c r="K68" s="247">
+      <c r="J68" s="279"/>
+      <c r="K68" s="280">
         <f>K64+K66</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L68" s="247"/>
+      <c r="L68" s="280"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
@@ -1028,7 +1028,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1783,12 +1783,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="320">
+  <cellXfs count="323">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2238,7 +2339,6 @@
     <xf numFmtId="44" fontId="3" fillId="12" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="13" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="13" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="47" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="13" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2250,129 +2350,6 @@
     </xf>
     <xf numFmtId="16" fontId="15" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2392,27 +2369,8 @@
     <xf numFmtId="44" fontId="2" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="166" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="21" fillId="4" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2453,6 +2411,146 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="9" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="47" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -4052,23 +4150,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="253"/>
+      <c r="B2" s="289"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -4078,21 +4176,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="293"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="294" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="294"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="261" t="s">
+      <c r="R3" s="271" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4107,14 +4205,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="263" t="s">
+      <c r="E4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="264"/>
-      <c r="H4" s="265" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="266"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -4124,11 +4222,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="267" t="s">
+      <c r="P4" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="262"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -5188,7 +5286,7 @@
       <c r="J27" s="68">
         <v>44950</v>
       </c>
-      <c r="K27" s="237" t="s">
+      <c r="K27" s="236" t="s">
         <v>109</v>
       </c>
       <c r="L27" s="67">
@@ -5890,7 +5988,7 @@
       <c r="J48" s="74">
         <v>44951</v>
       </c>
-      <c r="K48" s="236" t="s">
+      <c r="K48" s="235" t="s">
         <v>110</v>
       </c>
       <c r="L48" s="76">
@@ -5933,11 +6031,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="259">
+      <c r="M49" s="295">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="270">
+      <c r="N49" s="280">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -5966,14 +6064,14 @@
       <c r="J50" s="74">
         <v>44955</v>
       </c>
-      <c r="K50" s="238" t="s">
+      <c r="K50" s="237" t="s">
         <v>113</v>
       </c>
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="260"/>
-      <c r="N50" s="271"/>
+      <c r="M50" s="296"/>
+      <c r="N50" s="281"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -6065,29 +6163,29 @@
       <c r="A55" s="135"/>
       <c r="B55" s="136"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="272" t="s">
+      <c r="H55" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="273"/>
+      <c r="I55" s="283"/>
       <c r="J55" s="137"/>
-      <c r="K55" s="274">
+      <c r="K55" s="284">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="275"/>
-      <c r="M55" s="276">
+      <c r="L55" s="285"/>
+      <c r="M55" s="286">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="277"/>
+      <c r="N55" s="287"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="269" t="s">
+      <c r="D56" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="269"/>
+      <c r="E56" s="279"/>
       <c r="F56" s="138">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -6098,22 +6196,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="240" t="s">
+      <c r="D57" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="240"/>
+      <c r="E57" s="297"/>
       <c r="F57" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="241" t="s">
+      <c r="I57" s="298" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="242"/>
-      <c r="K57" s="243">
+      <c r="J57" s="299"/>
+      <c r="K57" s="300">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="244"/>
+      <c r="L57" s="301"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -6144,11 +6242,11 @@
         <v>19</v>
       </c>
       <c r="J59" s="149"/>
-      <c r="K59" s="245">
+      <c r="K59" s="302">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="246"/>
+      <c r="L59" s="303"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="150" t="s">
@@ -6165,22 +6263,22 @@
       <c r="C61" s="152">
         <v>44955</v>
       </c>
-      <c r="D61" s="247" t="s">
+      <c r="D61" s="304" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="248"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="249" t="s">
+      <c r="I61" s="306" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="250"/>
-      <c r="K61" s="251">
+      <c r="J61" s="307"/>
+      <c r="K61" s="308">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="251"/>
+      <c r="L61" s="308"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="154"/>
@@ -6305,6 +6403,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6314,18 +6424,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7667,8 +7765,8 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7693,23 +7791,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="290" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="253"/>
+      <c r="B2" s="289"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7719,21 +7817,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="293"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="294" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="294"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="261" t="s">
+      <c r="R3" s="271" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7748,14 +7846,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="263" t="s">
+      <c r="E4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="264"/>
-      <c r="H4" s="265" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="266"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7765,11 +7863,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="267" t="s">
+      <c r="P4" s="312" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="262"/>
+      <c r="Q4" s="313"/>
+      <c r="R4" s="314"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7806,14 +7904,14 @@
         <v>373</v>
       </c>
       <c r="O5" s="35"/>
-      <c r="P5" s="36">
+      <c r="P5" s="315">
         <f>N5+M5+L5+I5+C5</f>
         <v>65454</v>
       </c>
-      <c r="Q5" s="13">
-        <v>0</v>
-      </c>
-      <c r="R5" s="226">
+      <c r="Q5" s="316">
+        <v>0</v>
+      </c>
+      <c r="R5" s="317">
         <v>19685</v>
       </c>
       <c r="S5" s="37"/>
@@ -7851,14 +7949,14 @@
         <v>1226</v>
       </c>
       <c r="O6" s="35"/>
-      <c r="P6" s="36">
+      <c r="P6" s="315">
         <f>N6+M6+L6+I6+C6</f>
         <v>65983</v>
       </c>
-      <c r="Q6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="226">
+      <c r="Q6" s="316">
+        <v>0</v>
+      </c>
+      <c r="R6" s="317">
         <v>1248</v>
       </c>
       <c r="S6" s="37"/>
@@ -7899,15 +7997,15 @@
         <v>1627</v>
       </c>
       <c r="O7" s="35"/>
-      <c r="P7" s="36">
+      <c r="P7" s="315">
         <f>N7+M7+L7+I7+C7</f>
         <v>50236</v>
       </c>
-      <c r="Q7" s="13">
+      <c r="Q7" s="316">
         <f t="shared" ref="Q7:Q48" si="0">P7-F7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="13">
+      <c r="R7" s="318">
         <v>0</v>
       </c>
       <c r="S7" s="37"/>
@@ -7951,15 +8049,15 @@
         <v>3872</v>
       </c>
       <c r="O8" s="35"/>
-      <c r="P8" s="36">
+      <c r="P8" s="315">
         <f t="shared" ref="P8:P49" si="1">N8+M8+L8+I8+C8</f>
         <v>79623</v>
       </c>
-      <c r="Q8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="13">
+      <c r="Q8" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="318">
         <v>0</v>
       </c>
       <c r="S8" s="37"/>
@@ -7999,15 +8097,15 @@
         <v>9293</v>
       </c>
       <c r="O9" s="35"/>
-      <c r="P9" s="36">
+      <c r="P9" s="315">
         <f t="shared" si="1"/>
         <v>85123</v>
       </c>
-      <c r="Q9" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="13">
+      <c r="Q9" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="318">
         <v>0</v>
       </c>
       <c r="S9" s="37"/>
@@ -8050,15 +8148,15 @@
         <v>7921</v>
       </c>
       <c r="O10" s="35"/>
-      <c r="P10" s="36">
+      <c r="P10" s="315">
         <f>N10+M10+L10+I10+C10</f>
         <v>60464</v>
       </c>
-      <c r="Q10" s="13">
+      <c r="Q10" s="316">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R10" s="13">
+      <c r="R10" s="318">
         <v>0</v>
       </c>
       <c r="S10" s="37"/>
@@ -8101,14 +8199,14 @@
         <v>4669</v>
       </c>
       <c r="O11" s="35"/>
-      <c r="P11" s="36">
+      <c r="P11" s="315">
         <f>N11+M11+L11+I11+C11</f>
         <v>93030</v>
       </c>
-      <c r="Q11" s="13">
-        <v>0</v>
-      </c>
-      <c r="R11" s="226">
+      <c r="Q11" s="316">
+        <v>0</v>
+      </c>
+      <c r="R11" s="317">
         <v>16800</v>
       </c>
       <c r="S11" s="37"/>
@@ -8146,15 +8244,15 @@
         <v>1251</v>
       </c>
       <c r="O12" s="35"/>
-      <c r="P12" s="36">
+      <c r="P12" s="315">
         <f t="shared" si="1"/>
         <v>111609</v>
       </c>
-      <c r="Q12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="13">
+      <c r="Q12" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="318">
         <v>0</v>
       </c>
       <c r="S12" s="37"/>
@@ -8192,15 +8290,15 @@
         <v>98</v>
       </c>
       <c r="O13" s="35"/>
-      <c r="P13" s="36">
+      <c r="P13" s="315">
         <f t="shared" si="1"/>
         <v>58468.5</v>
       </c>
-      <c r="Q13" s="235">
+      <c r="Q13" s="319">
         <f t="shared" si="0"/>
         <v>-5.5</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="318">
         <v>0</v>
       </c>
       <c r="S13" s="37"/>
@@ -8237,15 +8335,15 @@
         <v>1164</v>
       </c>
       <c r="O14" s="35"/>
-      <c r="P14" s="36">
+      <c r="P14" s="315">
         <f t="shared" si="1"/>
         <v>68468.5</v>
       </c>
-      <c r="Q14" s="235">
+      <c r="Q14" s="319">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="R14" s="13">
+      <c r="R14" s="318">
         <v>0</v>
       </c>
       <c r="S14" s="37"/>
@@ -8283,15 +8381,15 @@
         <v>10137</v>
       </c>
       <c r="O15" s="35"/>
-      <c r="P15" s="36">
+      <c r="P15" s="315">
         <f t="shared" si="1"/>
         <v>109720</v>
       </c>
-      <c r="Q15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="13">
+      <c r="Q15" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="318">
         <v>0</v>
       </c>
       <c r="S15" s="37"/>
@@ -8330,15 +8428,15 @@
         <v>142</v>
       </c>
       <c r="O16" s="35"/>
-      <c r="P16" s="36">
+      <c r="P16" s="315">
         <f t="shared" si="1"/>
         <v>68417</v>
       </c>
-      <c r="Q16" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="13">
+      <c r="Q16" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="318">
         <v>0</v>
       </c>
       <c r="S16" s="37"/>
@@ -8382,15 +8480,15 @@
         <v>5124</v>
       </c>
       <c r="O17" s="35"/>
-      <c r="P17" s="36">
+      <c r="P17" s="315">
         <f t="shared" si="1"/>
         <v>86318</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="316">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="318">
         <v>0</v>
       </c>
       <c r="S17" s="37"/>
@@ -8430,15 +8528,15 @@
         <v>1912</v>
       </c>
       <c r="O18" s="35"/>
-      <c r="P18" s="36">
+      <c r="P18" s="315">
         <f t="shared" si="1"/>
         <v>112260.5</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="316">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="R18" s="13">
+      <c r="R18" s="318">
         <v>0</v>
       </c>
       <c r="S18" s="37"/>
@@ -8476,15 +8574,15 @@
         <v>1728</v>
       </c>
       <c r="O19" s="35"/>
-      <c r="P19" s="36">
+      <c r="P19" s="315">
         <f t="shared" si="1"/>
         <v>136132</v>
       </c>
-      <c r="Q19" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="13">
+      <c r="Q19" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="318">
         <v>0</v>
       </c>
       <c r="S19" s="37"/>
@@ -8522,15 +8620,15 @@
         <v>0</v>
       </c>
       <c r="O20" s="35"/>
-      <c r="P20" s="36">
+      <c r="P20" s="315">
         <f t="shared" si="1"/>
         <v>60594</v>
       </c>
-      <c r="Q20" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="13">
+      <c r="Q20" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="318">
         <v>0</v>
       </c>
       <c r="S20" s="37"/>
@@ -8568,15 +8666,15 @@
         <v>2193</v>
       </c>
       <c r="O21" s="35"/>
-      <c r="P21" s="36">
+      <c r="P21" s="315">
         <f t="shared" si="1"/>
         <v>46506</v>
       </c>
-      <c r="Q21" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="13">
+      <c r="Q21" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="318">
         <v>0</v>
       </c>
       <c r="S21" s="37"/>
@@ -8616,346 +8714,346 @@
         <v>1680</v>
       </c>
       <c r="O22" s="35"/>
-      <c r="P22" s="36">
+      <c r="P22" s="315">
         <f t="shared" si="1"/>
         <v>64392</v>
       </c>
-      <c r="Q22" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="13">
+      <c r="Q22" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="318">
         <v>0</v>
       </c>
       <c r="S22" s="37"/>
     </row>
     <row r="23" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="23"/>
-      <c r="B23" s="281">
+      <c r="B23" s="24">
         <v>44974</v>
       </c>
-      <c r="C23" s="282">
-        <v>0</v>
-      </c>
-      <c r="D23" s="293"/>
-      <c r="E23" s="284">
+      <c r="C23" s="25">
+        <v>0</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="27">
         <v>44974</v>
       </c>
-      <c r="F23" s="285">
+      <c r="F23" s="28">
         <v>85305</v>
       </c>
-      <c r="G23" s="286"/>
-      <c r="H23" s="287">
+      <c r="G23" s="29"/>
+      <c r="H23" s="30">
         <v>44974</v>
       </c>
-      <c r="I23" s="288">
+      <c r="I23" s="31">
         <v>570</v>
       </c>
-      <c r="J23" s="294"/>
-      <c r="K23" s="295"/>
-      <c r="L23" s="292"/>
-      <c r="M23" s="290">
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="33">
         <f>36500+45330</f>
         <v>81830</v>
       </c>
-      <c r="N23" s="291">
+      <c r="N23" s="34">
         <v>2905</v>
       </c>
       <c r="O23" s="35"/>
-      <c r="P23" s="36">
+      <c r="P23" s="315">
         <f t="shared" si="1"/>
         <v>85305</v>
       </c>
-      <c r="Q23" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="13">
+      <c r="Q23" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="318">
         <v>0</v>
       </c>
       <c r="S23" s="37"/>
     </row>
     <row r="24" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="23"/>
-      <c r="B24" s="281">
+      <c r="B24" s="24">
         <v>44975</v>
       </c>
-      <c r="C24" s="282">
+      <c r="C24" s="25">
         <v>568</v>
       </c>
-      <c r="D24" s="296" t="s">
+      <c r="D24" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="284">
+      <c r="E24" s="27">
         <v>44975</v>
       </c>
-      <c r="F24" s="285">
+      <c r="F24" s="28">
         <v>68722</v>
       </c>
-      <c r="G24" s="286"/>
-      <c r="H24" s="287">
+      <c r="G24" s="29"/>
+      <c r="H24" s="30">
         <v>44975</v>
       </c>
-      <c r="I24" s="288">
+      <c r="I24" s="31">
         <v>539</v>
       </c>
-      <c r="J24" s="297">
+      <c r="J24" s="62">
         <v>44975</v>
       </c>
-      <c r="K24" s="298" t="s">
+      <c r="K24" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="L24" s="299">
+      <c r="L24" s="64">
         <v>8316.67</v>
       </c>
-      <c r="M24" s="290">
+      <c r="M24" s="33">
         <f>38114+15000</f>
         <v>53114</v>
       </c>
-      <c r="N24" s="291">
+      <c r="N24" s="34">
         <v>6184</v>
       </c>
       <c r="O24" s="35"/>
-      <c r="P24" s="36">
+      <c r="P24" s="315">
         <f t="shared" si="1"/>
         <v>68721.67</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="316">
         <f t="shared" si="0"/>
         <v>-0.33000000000174623</v>
       </c>
-      <c r="R24" s="13">
+      <c r="R24" s="318">
         <v>0</v>
       </c>
       <c r="S24" s="37"/>
     </row>
     <row r="25" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="23"/>
-      <c r="B25" s="281">
+      <c r="B25" s="24">
         <v>44976</v>
       </c>
-      <c r="C25" s="282">
-        <v>0</v>
-      </c>
-      <c r="D25" s="283"/>
-      <c r="E25" s="284">
+      <c r="C25" s="25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="38"/>
+      <c r="E25" s="27">
         <v>44976</v>
       </c>
-      <c r="F25" s="285">
+      <c r="F25" s="28">
         <v>104132</v>
       </c>
-      <c r="G25" s="286"/>
-      <c r="H25" s="287">
+      <c r="G25" s="29"/>
+      <c r="H25" s="30">
         <v>44976</v>
       </c>
-      <c r="I25" s="288">
+      <c r="I25" s="31">
         <v>500</v>
       </c>
-      <c r="J25" s="300"/>
-      <c r="K25" s="301"/>
-      <c r="L25" s="302"/>
-      <c r="M25" s="290">
+      <c r="J25" s="65"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="33">
         <f>88000+13246</f>
         <v>101246</v>
       </c>
-      <c r="N25" s="291">
+      <c r="N25" s="34">
         <v>2386</v>
       </c>
       <c r="O25" s="35"/>
-      <c r="P25" s="36">
+      <c r="P25" s="315">
         <f t="shared" si="1"/>
         <v>104132</v>
       </c>
-      <c r="Q25" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="13">
+      <c r="Q25" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="318">
         <v>0</v>
       </c>
       <c r="S25" s="37"/>
     </row>
     <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
-      <c r="B26" s="281">
+      <c r="B26" s="239">
         <v>44977</v>
       </c>
-      <c r="C26" s="282">
+      <c r="C26" s="240">
         <v>4120</v>
       </c>
-      <c r="D26" s="283" t="s">
+      <c r="D26" s="241" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="284">
+      <c r="E26" s="242">
         <v>44977</v>
       </c>
-      <c r="F26" s="285">
+      <c r="F26" s="243">
         <v>143460</v>
       </c>
-      <c r="G26" s="286"/>
-      <c r="H26" s="287">
+      <c r="G26" s="244"/>
+      <c r="H26" s="245">
         <v>44977</v>
       </c>
-      <c r="I26" s="288">
+      <c r="I26" s="246">
         <v>633</v>
       </c>
-      <c r="J26" s="289"/>
-      <c r="K26" s="298"/>
-      <c r="L26" s="292"/>
-      <c r="M26" s="290">
+      <c r="J26" s="247"/>
+      <c r="K26" s="252"/>
+      <c r="L26" s="250"/>
+      <c r="M26" s="248">
         <f>5000+133707</f>
         <v>138707</v>
       </c>
-      <c r="N26" s="291">
+      <c r="N26" s="249">
         <v>0</v>
       </c>
       <c r="O26" s="35"/>
-      <c r="P26" s="36">
+      <c r="P26" s="315">
         <f t="shared" si="1"/>
         <v>143460</v>
       </c>
-      <c r="Q26" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="13">
+      <c r="Q26" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="318">
         <v>0</v>
       </c>
       <c r="S26" s="37"/>
     </row>
     <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
-      <c r="B27" s="281">
+      <c r="B27" s="239">
         <v>44978</v>
       </c>
-      <c r="C27" s="282">
-        <v>0</v>
-      </c>
-      <c r="D27" s="296"/>
-      <c r="E27" s="284">
+      <c r="C27" s="240">
+        <v>0</v>
+      </c>
+      <c r="D27" s="251"/>
+      <c r="E27" s="242">
         <v>44978</v>
       </c>
-      <c r="F27" s="285">
+      <c r="F27" s="243">
         <v>58359</v>
       </c>
-      <c r="G27" s="286"/>
-      <c r="H27" s="287">
+      <c r="G27" s="244"/>
+      <c r="H27" s="245">
         <v>44978</v>
       </c>
-      <c r="I27" s="288">
+      <c r="I27" s="246">
         <v>565</v>
       </c>
-      <c r="J27" s="303"/>
-      <c r="K27" s="304"/>
-      <c r="L27" s="302"/>
-      <c r="M27" s="290">
+      <c r="J27" s="254"/>
+      <c r="K27" s="255"/>
+      <c r="L27" s="253"/>
+      <c r="M27" s="248">
         <f>15000+42694</f>
         <v>57694</v>
       </c>
-      <c r="N27" s="291">
+      <c r="N27" s="249">
         <v>100</v>
       </c>
       <c r="O27" s="35"/>
-      <c r="P27" s="36">
+      <c r="P27" s="315">
         <f t="shared" si="1"/>
         <v>58359</v>
       </c>
-      <c r="Q27" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="13">
+      <c r="Q27" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="318">
         <v>0</v>
       </c>
       <c r="S27" s="37"/>
     </row>
     <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
-      <c r="B28" s="281">
+      <c r="B28" s="239">
         <v>44979</v>
       </c>
-      <c r="C28" s="282">
-        <v>0</v>
-      </c>
-      <c r="D28" s="296"/>
-      <c r="E28" s="284">
+      <c r="C28" s="240">
+        <v>0</v>
+      </c>
+      <c r="D28" s="251"/>
+      <c r="E28" s="242">
         <v>44979</v>
       </c>
-      <c r="F28" s="285">
+      <c r="F28" s="243">
         <v>42871</v>
       </c>
-      <c r="G28" s="286"/>
-      <c r="H28" s="287">
+      <c r="G28" s="244"/>
+      <c r="H28" s="245">
         <v>44979</v>
       </c>
-      <c r="I28" s="288">
+      <c r="I28" s="246">
         <v>563</v>
       </c>
-      <c r="J28" s="305"/>
-      <c r="K28" s="306"/>
-      <c r="L28" s="302"/>
-      <c r="M28" s="290">
+      <c r="J28" s="256"/>
+      <c r="K28" s="257"/>
+      <c r="L28" s="253"/>
+      <c r="M28" s="248">
         <v>40533</v>
       </c>
-      <c r="N28" s="291">
+      <c r="N28" s="249">
         <v>1775</v>
       </c>
       <c r="O28" s="35"/>
-      <c r="P28" s="36">
+      <c r="P28" s="315">
         <f t="shared" si="1"/>
         <v>42871</v>
       </c>
-      <c r="Q28" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="13">
+      <c r="Q28" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="318">
         <v>0</v>
       </c>
       <c r="S28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
-      <c r="B29" s="281">
+      <c r="B29" s="239">
         <v>44980</v>
       </c>
-      <c r="C29" s="282">
-        <v>0</v>
-      </c>
-      <c r="D29" s="307"/>
-      <c r="E29" s="284">
+      <c r="C29" s="240">
+        <v>0</v>
+      </c>
+      <c r="D29" s="258"/>
+      <c r="E29" s="242">
         <v>44980</v>
       </c>
-      <c r="F29" s="285">
+      <c r="F29" s="243">
         <v>68524</v>
       </c>
-      <c r="G29" s="286"/>
-      <c r="H29" s="287">
+      <c r="G29" s="244"/>
+      <c r="H29" s="245">
         <v>44980</v>
       </c>
-      <c r="I29" s="288">
+      <c r="I29" s="246">
         <v>72</v>
       </c>
-      <c r="J29" s="303"/>
-      <c r="K29" s="308"/>
-      <c r="L29" s="302"/>
-      <c r="M29" s="290">
+      <c r="J29" s="254"/>
+      <c r="K29" s="259"/>
+      <c r="L29" s="253"/>
+      <c r="M29" s="248">
         <f>54452+14000</f>
         <v>68452</v>
       </c>
-      <c r="N29" s="291">
+      <c r="N29" s="249">
         <v>0</v>
       </c>
       <c r="O29" s="35"/>
-      <c r="P29" s="36">
+      <c r="P29" s="315">
         <f t="shared" si="1"/>
         <v>68524</v>
       </c>
-      <c r="Q29" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="13">
+      <c r="Q29" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="318">
         <v>0</v>
       </c>
       <c r="S29" s="37"/>
@@ -8963,238 +9061,238 @@
     </row>
     <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
-      <c r="B30" s="281">
+      <c r="B30" s="239">
         <v>44981</v>
       </c>
-      <c r="C30" s="282">
+      <c r="C30" s="240">
         <v>27141</v>
       </c>
-      <c r="D30" s="307" t="s">
+      <c r="D30" s="258" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="284">
+      <c r="E30" s="242">
         <v>44981</v>
       </c>
-      <c r="F30" s="285">
+      <c r="F30" s="243">
         <v>79698</v>
       </c>
-      <c r="G30" s="286"/>
-      <c r="H30" s="287">
+      <c r="G30" s="244"/>
+      <c r="H30" s="245">
         <v>44981</v>
       </c>
-      <c r="I30" s="288">
+      <c r="I30" s="246">
         <v>124</v>
       </c>
-      <c r="J30" s="309"/>
-      <c r="K30" s="310"/>
-      <c r="L30" s="311"/>
-      <c r="M30" s="290">
+      <c r="J30" s="260"/>
+      <c r="K30" s="261"/>
+      <c r="L30" s="262"/>
+      <c r="M30" s="248">
         <f>11476+35000</f>
         <v>46476</v>
       </c>
-      <c r="N30" s="291">
+      <c r="N30" s="249">
         <v>5957</v>
       </c>
       <c r="O30" s="35"/>
-      <c r="P30" s="36">
+      <c r="P30" s="315">
         <f t="shared" si="1"/>
         <v>79698</v>
       </c>
-      <c r="Q30" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="13">
+      <c r="Q30" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="318">
         <v>0</v>
       </c>
       <c r="S30" s="37"/>
     </row>
     <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="281">
+      <c r="B31" s="239">
         <v>44982</v>
       </c>
-      <c r="C31" s="282">
-        <v>0</v>
-      </c>
-      <c r="D31" s="312"/>
-      <c r="E31" s="284">
+      <c r="C31" s="240">
+        <v>0</v>
+      </c>
+      <c r="D31" s="263"/>
+      <c r="E31" s="242">
         <v>44982</v>
       </c>
-      <c r="F31" s="285">
+      <c r="F31" s="243">
         <v>99687</v>
       </c>
-      <c r="G31" s="286"/>
-      <c r="H31" s="287">
+      <c r="G31" s="244"/>
+      <c r="H31" s="245">
         <v>44982</v>
       </c>
-      <c r="I31" s="288">
+      <c r="I31" s="246">
         <v>150</v>
       </c>
-      <c r="J31" s="309">
+      <c r="J31" s="260">
         <v>44982</v>
       </c>
-      <c r="K31" s="313" t="s">
+      <c r="K31" s="264" t="s">
         <v>108</v>
       </c>
-      <c r="L31" s="314">
+      <c r="L31" s="265">
         <v>9657</v>
       </c>
-      <c r="M31" s="290">
+      <c r="M31" s="248">
         <f>42916+26000</f>
         <v>68916</v>
       </c>
-      <c r="N31" s="291">
+      <c r="N31" s="249">
         <v>20964</v>
       </c>
       <c r="O31" s="35"/>
-      <c r="P31" s="36">
+      <c r="P31" s="315">
         <f t="shared" si="1"/>
         <v>99687</v>
       </c>
-      <c r="Q31" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="13">
+      <c r="Q31" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="318">
         <v>0</v>
       </c>
       <c r="S31" s="37"/>
     </row>
     <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
-      <c r="B32" s="281">
+      <c r="B32" s="239">
         <v>44983</v>
       </c>
-      <c r="C32" s="282">
-        <v>0</v>
-      </c>
-      <c r="D32" s="315"/>
-      <c r="E32" s="284">
+      <c r="C32" s="240">
+        <v>0</v>
+      </c>
+      <c r="D32" s="266"/>
+      <c r="E32" s="242">
         <v>44983</v>
       </c>
-      <c r="F32" s="285">
+      <c r="F32" s="243">
         <v>110573</v>
       </c>
-      <c r="G32" s="286"/>
-      <c r="H32" s="287">
+      <c r="G32" s="244"/>
+      <c r="H32" s="245">
         <v>44983</v>
       </c>
-      <c r="I32" s="288">
-        <v>0</v>
-      </c>
-      <c r="J32" s="309"/>
-      <c r="K32" s="310"/>
-      <c r="L32" s="311"/>
-      <c r="M32" s="290">
+      <c r="I32" s="246">
+        <v>0</v>
+      </c>
+      <c r="J32" s="260"/>
+      <c r="K32" s="261"/>
+      <c r="L32" s="262"/>
+      <c r="M32" s="248">
         <f>8305+101000</f>
         <v>109305</v>
       </c>
-      <c r="N32" s="291">
+      <c r="N32" s="249">
         <v>1268</v>
       </c>
       <c r="O32" s="35"/>
-      <c r="P32" s="36">
+      <c r="P32" s="315">
         <f t="shared" si="1"/>
         <v>110573</v>
       </c>
-      <c r="Q32" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="13">
+      <c r="Q32" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="318">
         <v>0</v>
       </c>
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="281">
+      <c r="B33" s="239">
         <v>44984</v>
       </c>
-      <c r="C33" s="282">
-        <v>0</v>
-      </c>
-      <c r="D33" s="316"/>
-      <c r="E33" s="284">
+      <c r="C33" s="240">
+        <v>0</v>
+      </c>
+      <c r="D33" s="267"/>
+      <c r="E33" s="242">
         <v>44984</v>
       </c>
-      <c r="F33" s="285">
+      <c r="F33" s="243">
         <v>144123</v>
       </c>
-      <c r="G33" s="286"/>
-      <c r="H33" s="287">
+      <c r="G33" s="244"/>
+      <c r="H33" s="245">
         <v>44984</v>
       </c>
-      <c r="I33" s="288">
+      <c r="I33" s="246">
         <v>28</v>
       </c>
-      <c r="J33" s="309"/>
-      <c r="K33" s="313"/>
-      <c r="L33" s="317"/>
-      <c r="M33" s="290">
+      <c r="J33" s="260"/>
+      <c r="K33" s="264"/>
+      <c r="L33" s="268"/>
+      <c r="M33" s="248">
         <f>11500+75000+57539</f>
         <v>144039</v>
       </c>
-      <c r="N33" s="291">
+      <c r="N33" s="249">
         <v>56</v>
       </c>
       <c r="O33" s="35"/>
-      <c r="P33" s="36">
+      <c r="P33" s="315">
         <f t="shared" si="1"/>
         <v>144123</v>
       </c>
-      <c r="Q33" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="13">
+      <c r="Q33" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="318">
         <v>0</v>
       </c>
       <c r="S33" s="37"/>
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="281">
+      <c r="B34" s="239">
         <v>44985</v>
       </c>
-      <c r="C34" s="282">
-        <v>0</v>
-      </c>
-      <c r="D34" s="315"/>
-      <c r="E34" s="284">
+      <c r="C34" s="240">
+        <v>0</v>
+      </c>
+      <c r="D34" s="266"/>
+      <c r="E34" s="242">
         <v>44985</v>
       </c>
-      <c r="F34" s="285">
+      <c r="F34" s="243">
         <v>76623</v>
       </c>
-      <c r="G34" s="286"/>
-      <c r="H34" s="287">
+      <c r="G34" s="244"/>
+      <c r="H34" s="245">
         <v>44985</v>
       </c>
-      <c r="I34" s="288">
+      <c r="I34" s="246">
         <v>589</v>
       </c>
-      <c r="J34" s="309"/>
-      <c r="K34" s="318"/>
-      <c r="L34" s="319"/>
-      <c r="M34" s="290">
+      <c r="J34" s="260"/>
+      <c r="K34" s="269"/>
+      <c r="L34" s="270"/>
+      <c r="M34" s="248">
         <f>17771+30000+27000</f>
         <v>74771</v>
       </c>
-      <c r="N34" s="291">
+      <c r="N34" s="249">
         <v>1253</v>
       </c>
       <c r="O34" s="35"/>
-      <c r="P34" s="36">
+      <c r="P34" s="315">
         <f t="shared" si="1"/>
         <v>76613</v>
       </c>
-      <c r="Q34" s="13">
+      <c r="Q34" s="316">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="R34" s="13">
+      <c r="R34" s="318">
         <v>0</v>
       </c>
       <c r="S34" s="37"/>
@@ -9221,15 +9319,15 @@
         <v>0</v>
       </c>
       <c r="O35" s="35"/>
-      <c r="P35" s="36">
+      <c r="P35" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="13">
+      <c r="Q35" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="318">
         <v>0</v>
       </c>
       <c r="S35" s="37"/>
@@ -9256,15 +9354,15 @@
         <v>0</v>
       </c>
       <c r="O36" s="35"/>
-      <c r="P36" s="36">
+      <c r="P36" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="13">
+      <c r="Q36" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="318">
         <v>0</v>
       </c>
       <c r="S36" s="37"/>
@@ -9297,15 +9395,14 @@
         <v>0</v>
       </c>
       <c r="O37" s="35"/>
-      <c r="P37" s="36">
-        <f t="shared" si="1"/>
-        <v>1392</v>
-      </c>
-      <c r="Q37" s="13">
-        <f t="shared" si="0"/>
-        <v>1392</v>
-      </c>
-      <c r="R37" s="13">
+      <c r="P37" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="318">
         <v>0</v>
       </c>
       <c r="S37" s="37"/>
@@ -9336,15 +9433,14 @@
         <v>0</v>
       </c>
       <c r="O38" s="35"/>
-      <c r="P38" s="36">
-        <f t="shared" si="1"/>
-        <v>979.68</v>
-      </c>
-      <c r="Q38" s="13">
-        <f t="shared" si="0"/>
-        <v>979.68</v>
-      </c>
-      <c r="R38" s="13">
+      <c r="P38" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="318">
         <v>0</v>
       </c>
       <c r="S38" s="37"/>
@@ -9375,15 +9471,14 @@
         <v>0</v>
       </c>
       <c r="O39" s="35"/>
-      <c r="P39" s="36">
-        <f t="shared" si="1"/>
-        <v>549</v>
-      </c>
-      <c r="Q39" s="13">
-        <f t="shared" si="0"/>
-        <v>549</v>
-      </c>
-      <c r="R39" s="13">
+      <c r="P39" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="318">
         <v>0</v>
       </c>
       <c r="S39" s="37"/>
@@ -9401,7 +9496,7 @@
       <c r="J40" s="74">
         <v>44977</v>
       </c>
-      <c r="K40" s="239" t="s">
+      <c r="K40" s="238" t="s">
         <v>111</v>
       </c>
       <c r="L40" s="76">
@@ -9414,15 +9509,14 @@
         <v>0</v>
       </c>
       <c r="O40" s="35"/>
-      <c r="P40" s="36">
-        <f t="shared" si="1"/>
-        <v>27676</v>
-      </c>
-      <c r="Q40" s="13">
-        <f t="shared" si="0"/>
-        <v>27676</v>
-      </c>
-      <c r="R40" s="13">
+      <c r="P40" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="318">
         <v>0</v>
       </c>
       <c r="S40" s="37"/>
@@ -9453,15 +9547,14 @@
         <v>0</v>
       </c>
       <c r="O41" s="35"/>
-      <c r="P41" s="36">
-        <f t="shared" si="1"/>
-        <v>5407.19</v>
-      </c>
-      <c r="Q41" s="13">
-        <f t="shared" si="0"/>
-        <v>5407.19</v>
-      </c>
-      <c r="R41" s="13">
+      <c r="P41" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="318">
         <v>0</v>
       </c>
       <c r="S41" s="37"/>
@@ -9486,15 +9579,14 @@
         <v>0</v>
       </c>
       <c r="O42" s="35"/>
-      <c r="P42" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="13">
+      <c r="P42" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="318">
         <v>0</v>
       </c>
       <c r="S42" s="37"/>
@@ -9519,15 +9611,14 @@
         <v>0</v>
       </c>
       <c r="O43" s="35"/>
-      <c r="P43" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="13">
+      <c r="P43" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="318">
         <v>0</v>
       </c>
       <c r="S43" s="37"/>
@@ -9552,15 +9643,14 @@
         <v>0</v>
       </c>
       <c r="O44" s="35"/>
-      <c r="P44" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="13">
+      <c r="P44" s="315">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="318">
         <v>0</v>
       </c>
       <c r="S44" s="37"/>
@@ -9585,15 +9675,15 @@
         <v>0</v>
       </c>
       <c r="O45" s="35"/>
-      <c r="P45" s="36">
+      <c r="P45" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="13">
+      <c r="Q45" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="318">
         <v>0</v>
       </c>
       <c r="S45" s="37"/>
@@ -9618,15 +9708,15 @@
         <v>0</v>
       </c>
       <c r="O46" s="35"/>
-      <c r="P46" s="36">
+      <c r="P46" s="315">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="13">
+      <c r="Q46" s="316">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="318">
         <v>0</v>
       </c>
       <c r="S46" s="37"/>
@@ -9651,15 +9741,15 @@
         <v>0</v>
       </c>
       <c r="O47" s="35"/>
-      <c r="P47" s="36">
+      <c r="P47" s="320">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="13">
+      <c r="Q47" s="321">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="322">
         <v>0</v>
       </c>
       <c r="S47" s="37"/>
@@ -9708,11 +9798,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="259">
+      <c r="M49" s="295">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N49" s="270">
+      <c r="N49" s="280">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -9722,10 +9812,11 @@
       </c>
       <c r="Q49" s="99">
         <f>SUM(Q5:Q39)</f>
-        <v>2980.8499999999981</v>
-      </c>
-      <c r="R49" s="13">
-        <v>0</v>
+        <v>60.169999999998254</v>
+      </c>
+      <c r="R49" s="99">
+        <f>SUM(R5:R39)</f>
+        <v>37733</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -9741,8 +9832,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="260"/>
-      <c r="N50" s="271"/>
+      <c r="M50" s="296"/>
+      <c r="N50" s="281"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9834,29 +9925,29 @@
       <c r="A55" s="135"/>
       <c r="B55" s="136"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="272" t="s">
+      <c r="H55" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="273"/>
+      <c r="I55" s="283"/>
       <c r="J55" s="137"/>
-      <c r="K55" s="274">
+      <c r="K55" s="284">
         <f>I53+L53</f>
         <v>90757.040000000008</v>
       </c>
-      <c r="L55" s="275"/>
-      <c r="M55" s="276">
+      <c r="L55" s="285"/>
+      <c r="M55" s="286">
         <f>N49+M49</f>
         <v>2335781</v>
       </c>
-      <c r="N55" s="277"/>
+      <c r="N55" s="287"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="269" t="s">
+      <c r="D56" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="269"/>
+      <c r="E56" s="279"/>
       <c r="F56" s="138">
         <f>F53-K55-C53</f>
         <v>2261983.96</v>
@@ -9867,22 +9958,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="240" t="s">
+      <c r="D57" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="240"/>
+      <c r="E57" s="297"/>
       <c r="F57" s="133">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I57" s="241" t="s">
+      <c r="I57" s="298" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="242"/>
-      <c r="K57" s="243">
+      <c r="J57" s="299"/>
+      <c r="K57" s="300">
         <f>F59+F60+F61</f>
         <v>301610.76999999973</v>
       </c>
-      <c r="L57" s="244"/>
+      <c r="L57" s="301"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -9913,11 +10004,11 @@
         <v>19</v>
       </c>
       <c r="J59" s="149"/>
-      <c r="K59" s="245">
+      <c r="K59" s="302">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L59" s="246"/>
+      <c r="L59" s="303"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="150" t="s">
@@ -9934,22 +10025,22 @@
       <c r="C61" s="152">
         <v>44985</v>
       </c>
-      <c r="D61" s="247" t="s">
+      <c r="D61" s="304" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="248"/>
+      <c r="E61" s="305"/>
       <c r="F61" s="153">
         <v>230554.55</v>
       </c>
-      <c r="I61" s="249" t="s">
+      <c r="I61" s="306" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="250"/>
-      <c r="K61" s="251">
+      <c r="J61" s="307"/>
+      <c r="K61" s="308">
         <f>K57+K59</f>
         <v>78081.869999999733</v>
       </c>
-      <c r="L61" s="251"/>
+      <c r="L61" s="308"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="154"/>
@@ -10074,6 +10165,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10083,18 +10186,6 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11574,23 +11665,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="252"/>
-      <c r="C1" s="254" t="s">
+      <c r="B1" s="288"/>
+      <c r="C1" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="253"/>
+      <c r="B2" s="289"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11600,21 +11691,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="256" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="257"/>
+      <c r="B3" s="292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="293"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="258" t="s">
+      <c r="H3" s="294" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="258"/>
+      <c r="I3" s="294"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="261" t="s">
+      <c r="R3" s="271" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11629,14 +11720,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="263" t="s">
+      <c r="E4" s="273" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="264"/>
-      <c r="H4" s="265" t="s">
+      <c r="F4" s="274"/>
+      <c r="H4" s="275" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="266"/>
+      <c r="I4" s="276"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11646,11 +11737,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="267" t="s">
+      <c r="P4" s="277" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="268"/>
-      <c r="R4" s="262"/>
+      <c r="Q4" s="278"/>
+      <c r="R4" s="272"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13413,11 +13504,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="259">
+      <c r="M49" s="295">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="270">
+      <c r="N49" s="280">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -13446,8 +13537,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="260"/>
-      <c r="N50" s="271"/>
+      <c r="M50" s="296"/>
+      <c r="N50" s="281"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -13665,29 +13756,29 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="272" t="s">
+      <c r="H62" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="273"/>
+      <c r="I62" s="283"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="274">
+      <c r="K62" s="284">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="275"/>
-      <c r="M62" s="276">
+      <c r="L62" s="285"/>
+      <c r="M62" s="286">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="277"/>
+      <c r="N62" s="287"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="269" t="s">
+      <c r="D63" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="269"/>
+      <c r="E63" s="279"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
         <v>780704</v>
@@ -13698,22 +13789,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="240" t="s">
+      <c r="D64" s="297" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="240"/>
+      <c r="E64" s="297"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="241" t="s">
+      <c r="I64" s="298" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="242"/>
-      <c r="K64" s="243">
+      <c r="J64" s="299"/>
+      <c r="K64" s="300">
         <f>F66+F67+F68</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L64" s="244"/>
+      <c r="L64" s="301"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -13744,11 +13835,11 @@
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="245">
+      <c r="K66" s="302">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="246"/>
+      <c r="L66" s="303"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -13765,22 +13856,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="247" t="s">
+      <c r="D68" s="304" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="248"/>
+      <c r="E68" s="305"/>
       <c r="F68" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="278" t="s">
+      <c r="I68" s="309" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="279"/>
-      <c r="K68" s="280">
+      <c r="J68" s="310"/>
+      <c r="K68" s="311">
         <f>K64+K66</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L68" s="280"/>
+      <c r="L68" s="311"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
@@ -13905,18 +13996,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -13926,6 +14005,18 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
@@ -1889,7 +1889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="316">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2355,38 +2355,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="20" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="19" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2411,138 +2391,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="9" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2551,6 +2399,139 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="3" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="7" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2560,10 +2541,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFCCFF33"/>
       <color rgb="FF00FF00"/>
-      <color rgb="FF66FFFF"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -4150,23 +4131,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="288"/>
-      <c r="C1" s="290" t="s">
+      <c r="B1" s="283"/>
+      <c r="C1" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="289"/>
+      <c r="B2" s="284"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -4176,21 +4157,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="293"/>
+      <c r="B3" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="288"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="294" t="s">
+      <c r="H3" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="294"/>
+      <c r="I3" s="289"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="292" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4205,14 +4186,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="294" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="295"/>
+      <c r="H4" s="296" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -4222,11 +4203,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="298" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="278"/>
-      <c r="R4" s="272"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="293"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6031,11 +6012,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="295">
+      <c r="M49" s="290">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="280">
+      <c r="N49" s="301">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -6070,8 +6051,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="296"/>
-      <c r="N50" s="281"/>
+      <c r="M50" s="291"/>
+      <c r="N50" s="302"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -6163,29 +6144,29 @@
       <c r="A55" s="135"/>
       <c r="B55" s="136"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="282" t="s">
+      <c r="H55" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="283"/>
+      <c r="I55" s="304"/>
       <c r="J55" s="137"/>
-      <c r="K55" s="284">
+      <c r="K55" s="305">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="285"/>
-      <c r="M55" s="286">
+      <c r="L55" s="306"/>
+      <c r="M55" s="307">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="287"/>
+      <c r="N55" s="308"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="279" t="s">
+      <c r="D56" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="300"/>
       <c r="F56" s="138">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -6196,22 +6177,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="297" t="s">
+      <c r="D57" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="297"/>
+      <c r="E57" s="271"/>
       <c r="F57" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="298" t="s">
+      <c r="I57" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="299"/>
-      <c r="K57" s="300">
+      <c r="J57" s="273"/>
+      <c r="K57" s="274">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="301"/>
+      <c r="L57" s="275"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -6242,11 +6223,11 @@
         <v>19</v>
       </c>
       <c r="J59" s="149"/>
-      <c r="K59" s="302">
+      <c r="K59" s="276">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="303"/>
+      <c r="L59" s="277"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="150" t="s">
@@ -6263,22 +6244,22 @@
       <c r="C61" s="152">
         <v>44955</v>
       </c>
-      <c r="D61" s="304" t="s">
+      <c r="D61" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="305"/>
+      <c r="E61" s="279"/>
       <c r="F61" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="306" t="s">
+      <c r="I61" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="307"/>
-      <c r="K61" s="308">
+      <c r="J61" s="281"/>
+      <c r="K61" s="282">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="308"/>
+      <c r="L61" s="282"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="154"/>
@@ -6403,18 +6384,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -6424,6 +6393,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7765,8 +7746,8 @@
   </sheetPr>
   <dimension ref="A1:U83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7791,23 +7772,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="288"/>
-      <c r="C1" s="290" t="s">
+      <c r="B1" s="283"/>
+      <c r="C1" s="285" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="289"/>
+      <c r="B2" s="284"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7817,21 +7798,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="293"/>
+      <c r="B3" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="288"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="294" t="s">
+      <c r="H3" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="294"/>
+      <c r="I3" s="289"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="292" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7846,14 +7827,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="294" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="295"/>
+      <c r="H4" s="296" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7863,11 +7844,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="312" t="s">
+      <c r="P4" s="310" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="313"/>
-      <c r="R4" s="314"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="309"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7904,14 +7885,14 @@
         <v>373</v>
       </c>
       <c r="O5" s="35"/>
-      <c r="P5" s="315">
+      <c r="P5" s="263">
         <f>N5+M5+L5+I5+C5</f>
         <v>65454</v>
       </c>
-      <c r="Q5" s="316">
-        <v>0</v>
-      </c>
-      <c r="R5" s="317">
+      <c r="Q5" s="264">
+        <v>0</v>
+      </c>
+      <c r="R5" s="265">
         <v>19685</v>
       </c>
       <c r="S5" s="37"/>
@@ -7949,14 +7930,14 @@
         <v>1226</v>
       </c>
       <c r="O6" s="35"/>
-      <c r="P6" s="315">
+      <c r="P6" s="263">
         <f>N6+M6+L6+I6+C6</f>
         <v>65983</v>
       </c>
-      <c r="Q6" s="316">
-        <v>0</v>
-      </c>
-      <c r="R6" s="317">
+      <c r="Q6" s="264">
+        <v>0</v>
+      </c>
+      <c r="R6" s="265">
         <v>1248</v>
       </c>
       <c r="S6" s="37"/>
@@ -7997,15 +7978,15 @@
         <v>1627</v>
       </c>
       <c r="O7" s="35"/>
-      <c r="P7" s="315">
+      <c r="P7" s="263">
         <f>N7+M7+L7+I7+C7</f>
         <v>50236</v>
       </c>
-      <c r="Q7" s="316">
+      <c r="Q7" s="264">
         <f t="shared" ref="Q7:Q48" si="0">P7-F7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="318">
+      <c r="R7" s="266">
         <v>0</v>
       </c>
       <c r="S7" s="37"/>
@@ -8049,15 +8030,15 @@
         <v>3872</v>
       </c>
       <c r="O8" s="35"/>
-      <c r="P8" s="315">
+      <c r="P8" s="263">
         <f t="shared" ref="P8:P49" si="1">N8+M8+L8+I8+C8</f>
         <v>79623</v>
       </c>
-      <c r="Q8" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="318">
+      <c r="Q8" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="266">
         <v>0</v>
       </c>
       <c r="S8" s="37"/>
@@ -8097,15 +8078,15 @@
         <v>9293</v>
       </c>
       <c r="O9" s="35"/>
-      <c r="P9" s="315">
+      <c r="P9" s="263">
         <f t="shared" si="1"/>
         <v>85123</v>
       </c>
-      <c r="Q9" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="318">
+      <c r="Q9" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="266">
         <v>0</v>
       </c>
       <c r="S9" s="37"/>
@@ -8148,15 +8129,15 @@
         <v>7921</v>
       </c>
       <c r="O10" s="35"/>
-      <c r="P10" s="315">
+      <c r="P10" s="263">
         <f>N10+M10+L10+I10+C10</f>
         <v>60464</v>
       </c>
-      <c r="Q10" s="316">
+      <c r="Q10" s="264">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R10" s="318">
+      <c r="R10" s="266">
         <v>0</v>
       </c>
       <c r="S10" s="37"/>
@@ -8199,14 +8180,14 @@
         <v>4669</v>
       </c>
       <c r="O11" s="35"/>
-      <c r="P11" s="315">
+      <c r="P11" s="263">
         <f>N11+M11+L11+I11+C11</f>
         <v>93030</v>
       </c>
-      <c r="Q11" s="316">
-        <v>0</v>
-      </c>
-      <c r="R11" s="317">
+      <c r="Q11" s="264">
+        <v>0</v>
+      </c>
+      <c r="R11" s="265">
         <v>16800</v>
       </c>
       <c r="S11" s="37"/>
@@ -8244,15 +8225,15 @@
         <v>1251</v>
       </c>
       <c r="O12" s="35"/>
-      <c r="P12" s="315">
+      <c r="P12" s="263">
         <f t="shared" si="1"/>
         <v>111609</v>
       </c>
-      <c r="Q12" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="318">
+      <c r="Q12" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="266">
         <v>0</v>
       </c>
       <c r="S12" s="37"/>
@@ -8290,15 +8271,15 @@
         <v>98</v>
       </c>
       <c r="O13" s="35"/>
-      <c r="P13" s="315">
+      <c r="P13" s="263">
         <f t="shared" si="1"/>
         <v>58468.5</v>
       </c>
-      <c r="Q13" s="319">
+      <c r="Q13" s="267">
         <f t="shared" si="0"/>
         <v>-5.5</v>
       </c>
-      <c r="R13" s="318">
+      <c r="R13" s="266">
         <v>0</v>
       </c>
       <c r="S13" s="37"/>
@@ -8335,15 +8316,15 @@
         <v>1164</v>
       </c>
       <c r="O14" s="35"/>
-      <c r="P14" s="315">
+      <c r="P14" s="263">
         <f t="shared" si="1"/>
         <v>68468.5</v>
       </c>
-      <c r="Q14" s="319">
+      <c r="Q14" s="267">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="R14" s="318">
+      <c r="R14" s="266">
         <v>0</v>
       </c>
       <c r="S14" s="37"/>
@@ -8381,15 +8362,15 @@
         <v>10137</v>
       </c>
       <c r="O15" s="35"/>
-      <c r="P15" s="315">
+      <c r="P15" s="263">
         <f t="shared" si="1"/>
         <v>109720</v>
       </c>
-      <c r="Q15" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="318">
+      <c r="Q15" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="266">
         <v>0</v>
       </c>
       <c r="S15" s="37"/>
@@ -8428,15 +8409,15 @@
         <v>142</v>
       </c>
       <c r="O16" s="35"/>
-      <c r="P16" s="315">
+      <c r="P16" s="263">
         <f t="shared" si="1"/>
         <v>68417</v>
       </c>
-      <c r="Q16" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="318">
+      <c r="Q16" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="266">
         <v>0</v>
       </c>
       <c r="S16" s="37"/>
@@ -8480,15 +8461,15 @@
         <v>5124</v>
       </c>
       <c r="O17" s="35"/>
-      <c r="P17" s="315">
+      <c r="P17" s="263">
         <f t="shared" si="1"/>
         <v>86318</v>
       </c>
-      <c r="Q17" s="316">
+      <c r="Q17" s="264">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="R17" s="318">
+      <c r="R17" s="266">
         <v>0</v>
       </c>
       <c r="S17" s="37"/>
@@ -8528,15 +8509,15 @@
         <v>1912</v>
       </c>
       <c r="O18" s="35"/>
-      <c r="P18" s="315">
+      <c r="P18" s="263">
         <f t="shared" si="1"/>
         <v>112260.5</v>
       </c>
-      <c r="Q18" s="316">
+      <c r="Q18" s="264">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="R18" s="318">
+      <c r="R18" s="266">
         <v>0</v>
       </c>
       <c r="S18" s="37"/>
@@ -8574,15 +8555,15 @@
         <v>1728</v>
       </c>
       <c r="O19" s="35"/>
-      <c r="P19" s="315">
+      <c r="P19" s="263">
         <f t="shared" si="1"/>
         <v>136132</v>
       </c>
-      <c r="Q19" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="318">
+      <c r="Q19" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="266">
         <v>0</v>
       </c>
       <c r="S19" s="37"/>
@@ -8620,15 +8601,15 @@
         <v>0</v>
       </c>
       <c r="O20" s="35"/>
-      <c r="P20" s="315">
+      <c r="P20" s="263">
         <f t="shared" si="1"/>
         <v>60594</v>
       </c>
-      <c r="Q20" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="318">
+      <c r="Q20" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="266">
         <v>0</v>
       </c>
       <c r="S20" s="37"/>
@@ -8666,15 +8647,15 @@
         <v>2193</v>
       </c>
       <c r="O21" s="35"/>
-      <c r="P21" s="315">
+      <c r="P21" s="263">
         <f t="shared" si="1"/>
         <v>46506</v>
       </c>
-      <c r="Q21" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="318">
+      <c r="Q21" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="266">
         <v>0</v>
       </c>
       <c r="S21" s="37"/>
@@ -8714,15 +8695,15 @@
         <v>1680</v>
       </c>
       <c r="O22" s="35"/>
-      <c r="P22" s="315">
+      <c r="P22" s="263">
         <f t="shared" si="1"/>
         <v>64392</v>
       </c>
-      <c r="Q22" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="318">
+      <c r="Q22" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="266">
         <v>0</v>
       </c>
       <c r="S22" s="37"/>
@@ -8760,15 +8741,15 @@
         <v>2905</v>
       </c>
       <c r="O23" s="35"/>
-      <c r="P23" s="315">
+      <c r="P23" s="263">
         <f t="shared" si="1"/>
         <v>85305</v>
       </c>
-      <c r="Q23" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="318">
+      <c r="Q23" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="266">
         <v>0</v>
       </c>
       <c r="S23" s="37"/>
@@ -8814,15 +8795,15 @@
         <v>6184</v>
       </c>
       <c r="O24" s="35"/>
-      <c r="P24" s="315">
+      <c r="P24" s="263">
         <f t="shared" si="1"/>
         <v>68721.67</v>
       </c>
-      <c r="Q24" s="316">
+      <c r="Q24" s="264">
         <f t="shared" si="0"/>
         <v>-0.33000000000174623</v>
       </c>
-      <c r="R24" s="318">
+      <c r="R24" s="266">
         <v>0</v>
       </c>
       <c r="S24" s="37"/>
@@ -8860,154 +8841,154 @@
         <v>2386</v>
       </c>
       <c r="O25" s="35"/>
-      <c r="P25" s="315">
+      <c r="P25" s="263">
         <f t="shared" si="1"/>
         <v>104132</v>
       </c>
-      <c r="Q25" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="318">
+      <c r="Q25" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="266">
         <v>0</v>
       </c>
       <c r="S25" s="37"/>
     </row>
     <row r="26" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="23"/>
-      <c r="B26" s="239">
+      <c r="B26" s="24">
         <v>44977</v>
       </c>
-      <c r="C26" s="240">
+      <c r="C26" s="25">
         <v>4120</v>
       </c>
-      <c r="D26" s="241" t="s">
+      <c r="D26" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="242">
+      <c r="E26" s="27">
         <v>44977</v>
       </c>
-      <c r="F26" s="243">
+      <c r="F26" s="28">
         <v>143460</v>
       </c>
-      <c r="G26" s="244"/>
-      <c r="H26" s="245">
+      <c r="G26" s="29"/>
+      <c r="H26" s="30">
         <v>44977</v>
       </c>
-      <c r="I26" s="246">
+      <c r="I26" s="31">
         <v>633</v>
       </c>
-      <c r="J26" s="247"/>
-      <c r="K26" s="252"/>
-      <c r="L26" s="250"/>
-      <c r="M26" s="248">
+      <c r="J26" s="39"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="33">
         <f>5000+133707</f>
         <v>138707</v>
       </c>
-      <c r="N26" s="249">
+      <c r="N26" s="34">
         <v>0</v>
       </c>
       <c r="O26" s="35"/>
-      <c r="P26" s="315">
+      <c r="P26" s="263">
         <f t="shared" si="1"/>
         <v>143460</v>
       </c>
-      <c r="Q26" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="318">
+      <c r="Q26" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="266">
         <v>0</v>
       </c>
       <c r="S26" s="37"/>
     </row>
     <row r="27" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="23"/>
-      <c r="B27" s="239">
+      <c r="B27" s="24">
         <v>44978</v>
       </c>
-      <c r="C27" s="240">
-        <v>0</v>
-      </c>
-      <c r="D27" s="251"/>
-      <c r="E27" s="242">
+      <c r="C27" s="25">
+        <v>0</v>
+      </c>
+      <c r="D27" s="42"/>
+      <c r="E27" s="27">
         <v>44978</v>
       </c>
-      <c r="F27" s="243">
+      <c r="F27" s="28">
         <v>58359</v>
       </c>
-      <c r="G27" s="244"/>
-      <c r="H27" s="245">
+      <c r="G27" s="29"/>
+      <c r="H27" s="30">
         <v>44978</v>
       </c>
-      <c r="I27" s="246">
+      <c r="I27" s="31">
         <v>565</v>
       </c>
-      <c r="J27" s="254"/>
-      <c r="K27" s="255"/>
-      <c r="L27" s="253"/>
-      <c r="M27" s="248">
+      <c r="J27" s="68"/>
+      <c r="K27" s="69"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="33">
         <f>15000+42694</f>
         <v>57694</v>
       </c>
-      <c r="N27" s="249">
-        <v>100</v>
+      <c r="N27" s="34">
+        <v>0</v>
       </c>
       <c r="O27" s="35"/>
-      <c r="P27" s="315">
+      <c r="P27" s="263">
         <f t="shared" si="1"/>
-        <v>58359</v>
-      </c>
-      <c r="Q27" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="318">
+        <v>58259</v>
+      </c>
+      <c r="Q27" s="315">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="R27" s="266">
         <v>0</v>
       </c>
       <c r="S27" s="37"/>
     </row>
     <row r="28" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="23"/>
-      <c r="B28" s="239">
+      <c r="B28" s="24">
         <v>44979</v>
       </c>
-      <c r="C28" s="240">
-        <v>0</v>
-      </c>
-      <c r="D28" s="251"/>
-      <c r="E28" s="242">
+      <c r="C28" s="25">
+        <v>0</v>
+      </c>
+      <c r="D28" s="42"/>
+      <c r="E28" s="27">
         <v>44979</v>
       </c>
-      <c r="F28" s="243">
+      <c r="F28" s="28">
         <v>42871</v>
       </c>
-      <c r="G28" s="244"/>
-      <c r="H28" s="245">
+      <c r="G28" s="29"/>
+      <c r="H28" s="30">
         <v>44979</v>
       </c>
-      <c r="I28" s="246">
+      <c r="I28" s="31">
         <v>563</v>
       </c>
-      <c r="J28" s="256"/>
-      <c r="K28" s="257"/>
-      <c r="L28" s="253"/>
-      <c r="M28" s="248">
+      <c r="J28" s="70"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="33">
         <v>40533</v>
       </c>
-      <c r="N28" s="249">
-        <v>1775</v>
+      <c r="N28" s="34">
+        <v>1875</v>
       </c>
       <c r="O28" s="35"/>
-      <c r="P28" s="315">
+      <c r="P28" s="263">
         <f t="shared" si="1"/>
-        <v>42871</v>
-      </c>
-      <c r="Q28" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="318">
+        <v>42971</v>
+      </c>
+      <c r="Q28" s="315">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="R28" s="266">
         <v>0</v>
       </c>
       <c r="S28" s="37"/>
@@ -9020,40 +9001,40 @@
       <c r="C29" s="240">
         <v>0</v>
       </c>
-      <c r="D29" s="258"/>
-      <c r="E29" s="242">
+      <c r="D29" s="250"/>
+      <c r="E29" s="241">
         <v>44980</v>
       </c>
-      <c r="F29" s="243">
+      <c r="F29" s="242">
         <v>68524</v>
       </c>
-      <c r="G29" s="244"/>
-      <c r="H29" s="245">
+      <c r="G29" s="243"/>
+      <c r="H29" s="244">
         <v>44980</v>
       </c>
-      <c r="I29" s="246">
+      <c r="I29" s="245">
         <v>72</v>
       </c>
-      <c r="J29" s="254"/>
-      <c r="K29" s="259"/>
-      <c r="L29" s="253"/>
-      <c r="M29" s="248">
+      <c r="J29" s="249"/>
+      <c r="K29" s="251"/>
+      <c r="L29" s="248"/>
+      <c r="M29" s="246">
         <f>54452+14000</f>
         <v>68452</v>
       </c>
-      <c r="N29" s="249">
+      <c r="N29" s="247">
         <v>0</v>
       </c>
       <c r="O29" s="35"/>
-      <c r="P29" s="315">
+      <c r="P29" s="263">
         <f t="shared" si="1"/>
         <v>68524</v>
       </c>
-      <c r="Q29" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="318">
+      <c r="Q29" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="266">
         <v>0</v>
       </c>
       <c r="S29" s="37"/>
@@ -9067,42 +9048,42 @@
       <c r="C30" s="240">
         <v>27141</v>
       </c>
-      <c r="D30" s="258" t="s">
+      <c r="D30" s="250" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="242">
+      <c r="E30" s="241">
         <v>44981</v>
       </c>
-      <c r="F30" s="243">
+      <c r="F30" s="242">
         <v>79698</v>
       </c>
-      <c r="G30" s="244"/>
-      <c r="H30" s="245">
+      <c r="G30" s="243"/>
+      <c r="H30" s="244">
         <v>44981</v>
       </c>
-      <c r="I30" s="246">
+      <c r="I30" s="245">
         <v>124</v>
       </c>
-      <c r="J30" s="260"/>
-      <c r="K30" s="261"/>
-      <c r="L30" s="262"/>
-      <c r="M30" s="248">
+      <c r="J30" s="252"/>
+      <c r="K30" s="253"/>
+      <c r="L30" s="254"/>
+      <c r="M30" s="246">
         <f>11476+35000</f>
         <v>46476</v>
       </c>
-      <c r="N30" s="249">
+      <c r="N30" s="247">
         <v>5957</v>
       </c>
       <c r="O30" s="35"/>
-      <c r="P30" s="315">
+      <c r="P30" s="263">
         <f t="shared" si="1"/>
         <v>79698</v>
       </c>
-      <c r="Q30" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="318">
+      <c r="Q30" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="266">
         <v>0</v>
       </c>
       <c r="S30" s="37"/>
@@ -9115,46 +9096,46 @@
       <c r="C31" s="240">
         <v>0</v>
       </c>
-      <c r="D31" s="263"/>
-      <c r="E31" s="242">
+      <c r="D31" s="255"/>
+      <c r="E31" s="241">
         <v>44982</v>
       </c>
-      <c r="F31" s="243">
+      <c r="F31" s="242">
         <v>99687</v>
       </c>
-      <c r="G31" s="244"/>
-      <c r="H31" s="245">
+      <c r="G31" s="243"/>
+      <c r="H31" s="244">
         <v>44982</v>
       </c>
-      <c r="I31" s="246">
+      <c r="I31" s="245">
         <v>150</v>
       </c>
-      <c r="J31" s="260">
+      <c r="J31" s="252">
         <v>44982</v>
       </c>
-      <c r="K31" s="264" t="s">
+      <c r="K31" s="256" t="s">
         <v>108</v>
       </c>
-      <c r="L31" s="265">
+      <c r="L31" s="257">
         <v>9657</v>
       </c>
-      <c r="M31" s="248">
+      <c r="M31" s="246">
         <f>42916+26000</f>
         <v>68916</v>
       </c>
-      <c r="N31" s="249">
+      <c r="N31" s="247">
         <v>20964</v>
       </c>
       <c r="O31" s="35"/>
-      <c r="P31" s="315">
+      <c r="P31" s="263">
         <f t="shared" si="1"/>
         <v>99687</v>
       </c>
-      <c r="Q31" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="318">
+      <c r="Q31" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="266">
         <v>0</v>
       </c>
       <c r="S31" s="37"/>
@@ -9167,40 +9148,40 @@
       <c r="C32" s="240">
         <v>0</v>
       </c>
-      <c r="D32" s="266"/>
-      <c r="E32" s="242">
+      <c r="D32" s="258"/>
+      <c r="E32" s="241">
         <v>44983</v>
       </c>
-      <c r="F32" s="243">
+      <c r="F32" s="242">
         <v>110573</v>
       </c>
-      <c r="G32" s="244"/>
-      <c r="H32" s="245">
+      <c r="G32" s="243"/>
+      <c r="H32" s="244">
         <v>44983</v>
       </c>
-      <c r="I32" s="246">
-        <v>0</v>
-      </c>
-      <c r="J32" s="260"/>
-      <c r="K32" s="261"/>
-      <c r="L32" s="262"/>
-      <c r="M32" s="248">
+      <c r="I32" s="245">
+        <v>0</v>
+      </c>
+      <c r="J32" s="252"/>
+      <c r="K32" s="253"/>
+      <c r="L32" s="254"/>
+      <c r="M32" s="246">
         <f>8305+101000</f>
         <v>109305</v>
       </c>
-      <c r="N32" s="249">
+      <c r="N32" s="247">
         <v>1268</v>
       </c>
       <c r="O32" s="35"/>
-      <c r="P32" s="315">
+      <c r="P32" s="263">
         <f t="shared" si="1"/>
         <v>110573</v>
       </c>
-      <c r="Q32" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="318">
+      <c r="Q32" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="266">
         <v>0</v>
       </c>
       <c r="S32" s="37"/>
@@ -9213,40 +9194,40 @@
       <c r="C33" s="240">
         <v>0</v>
       </c>
-      <c r="D33" s="267"/>
-      <c r="E33" s="242">
+      <c r="D33" s="259"/>
+      <c r="E33" s="241">
         <v>44984</v>
       </c>
-      <c r="F33" s="243">
+      <c r="F33" s="242">
         <v>144123</v>
       </c>
-      <c r="G33" s="244"/>
-      <c r="H33" s="245">
+      <c r="G33" s="243"/>
+      <c r="H33" s="244">
         <v>44984</v>
       </c>
-      <c r="I33" s="246">
+      <c r="I33" s="245">
         <v>28</v>
       </c>
-      <c r="J33" s="260"/>
-      <c r="K33" s="264"/>
-      <c r="L33" s="268"/>
-      <c r="M33" s="248">
+      <c r="J33" s="252"/>
+      <c r="K33" s="256"/>
+      <c r="L33" s="260"/>
+      <c r="M33" s="246">
         <f>11500+75000+57539</f>
         <v>144039</v>
       </c>
-      <c r="N33" s="249">
+      <c r="N33" s="247">
         <v>56</v>
       </c>
       <c r="O33" s="35"/>
-      <c r="P33" s="315">
+      <c r="P33" s="263">
         <f t="shared" si="1"/>
         <v>144123</v>
       </c>
-      <c r="Q33" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="318">
+      <c r="Q33" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="266">
         <v>0</v>
       </c>
       <c r="S33" s="37"/>
@@ -9259,40 +9240,40 @@
       <c r="C34" s="240">
         <v>0</v>
       </c>
-      <c r="D34" s="266"/>
-      <c r="E34" s="242">
+      <c r="D34" s="258"/>
+      <c r="E34" s="241">
         <v>44985</v>
       </c>
-      <c r="F34" s="243">
+      <c r="F34" s="242">
         <v>76623</v>
       </c>
-      <c r="G34" s="244"/>
-      <c r="H34" s="245">
+      <c r="G34" s="243"/>
+      <c r="H34" s="244">
         <v>44985</v>
       </c>
-      <c r="I34" s="246">
+      <c r="I34" s="245">
         <v>589</v>
       </c>
-      <c r="J34" s="260"/>
-      <c r="K34" s="269"/>
-      <c r="L34" s="270"/>
-      <c r="M34" s="248">
+      <c r="J34" s="252"/>
+      <c r="K34" s="261"/>
+      <c r="L34" s="262"/>
+      <c r="M34" s="246">
         <f>17771+30000+27000</f>
         <v>74771</v>
       </c>
-      <c r="N34" s="249">
+      <c r="N34" s="247">
         <v>1253</v>
       </c>
       <c r="O34" s="35"/>
-      <c r="P34" s="315">
+      <c r="P34" s="263">
         <f t="shared" si="1"/>
         <v>76613</v>
       </c>
-      <c r="Q34" s="316">
+      <c r="Q34" s="264">
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
-      <c r="R34" s="318">
+      <c r="R34" s="266">
         <v>0</v>
       </c>
       <c r="S34" s="37"/>
@@ -9319,15 +9300,15 @@
         <v>0</v>
       </c>
       <c r="O35" s="35"/>
-      <c r="P35" s="315">
+      <c r="P35" s="263">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="318">
+      <c r="Q35" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="266">
         <v>0</v>
       </c>
       <c r="S35" s="37"/>
@@ -9354,15 +9335,15 @@
         <v>0</v>
       </c>
       <c r="O36" s="35"/>
-      <c r="P36" s="315">
+      <c r="P36" s="263">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="318">
+      <c r="Q36" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="266">
         <v>0</v>
       </c>
       <c r="S36" s="37"/>
@@ -9395,14 +9376,14 @@
         <v>0</v>
       </c>
       <c r="O37" s="35"/>
-      <c r="P37" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="318">
+      <c r="P37" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="266">
         <v>0</v>
       </c>
       <c r="S37" s="37"/>
@@ -9433,14 +9414,14 @@
         <v>0</v>
       </c>
       <c r="O38" s="35"/>
-      <c r="P38" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="318">
+      <c r="P38" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="266">
         <v>0</v>
       </c>
       <c r="S38" s="37"/>
@@ -9471,14 +9452,14 @@
         <v>0</v>
       </c>
       <c r="O39" s="35"/>
-      <c r="P39" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="318">
+      <c r="P39" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="266">
         <v>0</v>
       </c>
       <c r="S39" s="37"/>
@@ -9509,14 +9490,14 @@
         <v>0</v>
       </c>
       <c r="O40" s="35"/>
-      <c r="P40" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="318">
+      <c r="P40" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="266">
         <v>0</v>
       </c>
       <c r="S40" s="37"/>
@@ -9547,14 +9528,14 @@
         <v>0</v>
       </c>
       <c r="O41" s="35"/>
-      <c r="P41" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="318">
+      <c r="P41" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="266">
         <v>0</v>
       </c>
       <c r="S41" s="37"/>
@@ -9579,14 +9560,14 @@
         <v>0</v>
       </c>
       <c r="O42" s="35"/>
-      <c r="P42" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="318">
+      <c r="P42" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="266">
         <v>0</v>
       </c>
       <c r="S42" s="37"/>
@@ -9611,14 +9592,14 @@
         <v>0</v>
       </c>
       <c r="O43" s="35"/>
-      <c r="P43" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="318">
+      <c r="P43" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="266">
         <v>0</v>
       </c>
       <c r="S43" s="37"/>
@@ -9643,14 +9624,14 @@
         <v>0</v>
       </c>
       <c r="O44" s="35"/>
-      <c r="P44" s="315">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="318">
+      <c r="P44" s="263">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="266">
         <v>0</v>
       </c>
       <c r="S44" s="37"/>
@@ -9675,15 +9656,15 @@
         <v>0</v>
       </c>
       <c r="O45" s="35"/>
-      <c r="P45" s="315">
+      <c r="P45" s="263">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q45" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="318">
+      <c r="Q45" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R45" s="266">
         <v>0</v>
       </c>
       <c r="S45" s="37"/>
@@ -9708,15 +9689,15 @@
         <v>0</v>
       </c>
       <c r="O46" s="35"/>
-      <c r="P46" s="315">
+      <c r="P46" s="263">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q46" s="316">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="318">
+      <c r="Q46" s="264">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="266">
         <v>0</v>
       </c>
       <c r="S46" s="37"/>
@@ -9741,15 +9722,15 @@
         <v>0</v>
       </c>
       <c r="O47" s="35"/>
-      <c r="P47" s="320">
+      <c r="P47" s="268">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q47" s="321">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="322">
+      <c r="Q47" s="269">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="270">
         <v>0</v>
       </c>
       <c r="S47" s="37"/>
@@ -9798,11 +9779,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="295">
+      <c r="M49" s="290">
         <f>SUM(M5:M39)</f>
         <v>2238523</v>
       </c>
-      <c r="N49" s="280">
+      <c r="N49" s="301">
         <f>SUM(N5:N39)</f>
         <v>97258</v>
       </c>
@@ -9832,8 +9813,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="296"/>
-      <c r="N50" s="281"/>
+      <c r="M50" s="291"/>
+      <c r="N50" s="302"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -9925,29 +9906,29 @@
       <c r="A55" s="135"/>
       <c r="B55" s="136"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="282" t="s">
+      <c r="H55" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="283"/>
+      <c r="I55" s="304"/>
       <c r="J55" s="137"/>
-      <c r="K55" s="284">
+      <c r="K55" s="305">
         <f>I53+L53</f>
         <v>90757.040000000008</v>
       </c>
-      <c r="L55" s="285"/>
-      <c r="M55" s="286">
+      <c r="L55" s="306"/>
+      <c r="M55" s="307">
         <f>N49+M49</f>
         <v>2335781</v>
       </c>
-      <c r="N55" s="287"/>
+      <c r="N55" s="308"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="279" t="s">
+      <c r="D56" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="279"/>
+      <c r="E56" s="300"/>
       <c r="F56" s="138">
         <f>F53-K55-C53</f>
         <v>2261983.96</v>
@@ -9958,22 +9939,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="297" t="s">
+      <c r="D57" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="297"/>
+      <c r="E57" s="271"/>
       <c r="F57" s="133">
         <v>-2224189.7400000002</v>
       </c>
-      <c r="I57" s="298" t="s">
+      <c r="I57" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="299"/>
-      <c r="K57" s="300">
+      <c r="J57" s="273"/>
+      <c r="K57" s="274">
         <f>F59+F60+F61</f>
         <v>301610.76999999973</v>
       </c>
-      <c r="L57" s="301"/>
+      <c r="L57" s="275"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -10004,11 +9985,11 @@
         <v>19</v>
       </c>
       <c r="J59" s="149"/>
-      <c r="K59" s="302">
+      <c r="K59" s="276">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L59" s="303"/>
+      <c r="L59" s="277"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="150" t="s">
@@ -10025,22 +10006,22 @@
       <c r="C61" s="152">
         <v>44985</v>
       </c>
-      <c r="D61" s="304" t="s">
+      <c r="D61" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="305"/>
+      <c r="E61" s="279"/>
       <c r="F61" s="153">
         <v>230554.55</v>
       </c>
-      <c r="I61" s="306" t="s">
+      <c r="I61" s="280" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="307"/>
-      <c r="K61" s="308">
+      <c r="J61" s="281"/>
+      <c r="K61" s="282">
         <f>K57+K59</f>
         <v>78081.869999999733</v>
       </c>
-      <c r="L61" s="308"/>
+      <c r="L61" s="282"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="154"/>
@@ -10165,18 +10146,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -10186,6 +10155,18 @@
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="K55:L55"/>
     <mergeCell ref="M55:N55"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11665,23 +11646,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="288"/>
-      <c r="C1" s="290" t="s">
+      <c r="B1" s="283"/>
+      <c r="C1" s="285" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="289"/>
+      <c r="B2" s="284"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11691,21 +11672,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="292" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="293"/>
+      <c r="B3" s="287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="288"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="294" t="s">
+      <c r="H3" s="289" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="294"/>
+      <c r="I3" s="289"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="292" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11720,14 +11701,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="273" t="s">
+      <c r="E4" s="294" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="274"/>
-      <c r="H4" s="275" t="s">
+      <c r="F4" s="295"/>
+      <c r="H4" s="296" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="276"/>
+      <c r="I4" s="297"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11737,11 +11718,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="277" t="s">
+      <c r="P4" s="298" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="278"/>
-      <c r="R4" s="272"/>
+      <c r="Q4" s="299"/>
+      <c r="R4" s="293"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13504,11 +13485,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="295">
+      <c r="M49" s="290">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="280">
+      <c r="N49" s="301">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -13537,8 +13518,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="296"/>
-      <c r="N50" s="281"/>
+      <c r="M50" s="291"/>
+      <c r="N50" s="302"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -13756,29 +13737,29 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="282" t="s">
+      <c r="H62" s="303" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="283"/>
+      <c r="I62" s="304"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="284">
+      <c r="K62" s="305">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="285"/>
-      <c r="M62" s="286">
+      <c r="L62" s="306"/>
+      <c r="M62" s="307">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="287"/>
+      <c r="N62" s="308"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="279" t="s">
+      <c r="D63" s="300" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="279"/>
+      <c r="E63" s="300"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
         <v>780704</v>
@@ -13789,22 +13770,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="297" t="s">
+      <c r="D64" s="271" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="297"/>
+      <c r="E64" s="271"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="298" t="s">
+      <c r="I64" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="299"/>
-      <c r="K64" s="300">
+      <c r="J64" s="273"/>
+      <c r="K64" s="274">
         <f>F66+F67+F68</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L64" s="301"/>
+      <c r="L64" s="275"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -13835,11 +13816,11 @@
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="302">
+      <c r="K66" s="276">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="303"/>
+      <c r="L66" s="277"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -13856,22 +13837,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="304" t="s">
+      <c r="D68" s="278" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="305"/>
+      <c r="E68" s="279"/>
       <c r="F68" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="309" t="s">
+      <c r="I68" s="312" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="310"/>
-      <c r="K68" s="311">
+      <c r="J68" s="313"/>
+      <c r="K68" s="314">
         <f>K64+K66</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L68" s="311"/>
+      <c r="L68" s="314"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
@@ -13996,6 +13977,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
@@ -14005,18 +13998,6 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="K62:L62"/>
     <mergeCell ref="M62:N62"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/BALANCE  HERRADURA  FEBRERO   2023.xlsx
@@ -1889,7 +1889,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="316">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2351,46 +2351,6 @@
     <xf numFmtId="16" fontId="15" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="15" fontId="2" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="2" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="22" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="18" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="9" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2399,6 +2359,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="66" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="67" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2531,7 +2492,6 @@
     <xf numFmtId="166" fontId="14" fillId="7" borderId="54" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="10" borderId="64" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -2991,13 +2951,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3044,13 +3004,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3097,13 +3057,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3150,13 +3110,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3203,13 +3163,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3264,7 +3224,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>64250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1323990" cy="419708"/>
@@ -3359,13 +3319,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4131,23 +4091,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="283"/>
-      <c r="C1" s="285" t="s">
+      <c r="B1" s="260"/>
+      <c r="C1" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="284"/>
+      <c r="B2" s="261"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -4157,21 +4117,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="288"/>
+      <c r="B3" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="265"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="289" t="s">
+      <c r="H3" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="289"/>
+      <c r="I3" s="266"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="292" t="s">
+      <c r="R3" s="269" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4186,14 +4146,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="295"/>
-      <c r="H4" s="296" t="s">
+      <c r="F4" s="272"/>
+      <c r="H4" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="297"/>
+      <c r="I4" s="274"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -4203,11 +4163,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="298" t="s">
+      <c r="P4" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="293"/>
+      <c r="Q4" s="276"/>
+      <c r="R4" s="270"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -6012,11 +5972,11 @@
       <c r="L49" s="76">
         <v>549</v>
       </c>
-      <c r="M49" s="290">
+      <c r="M49" s="267">
         <f>SUM(M5:M39)</f>
         <v>1666347.5</v>
       </c>
-      <c r="N49" s="301">
+      <c r="N49" s="278">
         <f>SUM(N5:N39)</f>
         <v>49399</v>
       </c>
@@ -6051,8 +6011,8 @@
       <c r="L50" s="76">
         <v>2591.1799999999998</v>
       </c>
-      <c r="M50" s="291"/>
-      <c r="N50" s="302"/>
+      <c r="M50" s="268"/>
+      <c r="N50" s="279"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -6144,29 +6104,29 @@
       <c r="A55" s="135"/>
       <c r="B55" s="136"/>
       <c r="C55" s="1"/>
-      <c r="H55" s="303" t="s">
+      <c r="H55" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="304"/>
+      <c r="I55" s="281"/>
       <c r="J55" s="137"/>
-      <c r="K55" s="305">
+      <c r="K55" s="282">
         <f>I53+L53</f>
         <v>63475.360000000001</v>
       </c>
-      <c r="L55" s="306"/>
-      <c r="M55" s="307">
+      <c r="L55" s="283"/>
+      <c r="M55" s="284">
         <f>N49+M49</f>
         <v>1715746.5</v>
       </c>
-      <c r="N55" s="308"/>
+      <c r="N55" s="285"/>
       <c r="P55" s="36"/>
       <c r="Q55" s="9"/>
     </row>
     <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="300" t="s">
+      <c r="D56" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="E56" s="300"/>
+      <c r="E56" s="277"/>
       <c r="F56" s="138">
         <f>F53-K55-C53</f>
         <v>1656897.64</v>
@@ -6177,22 +6137,22 @@
       <c r="Q56" s="9"/>
     </row>
     <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="271" t="s">
+      <c r="D57" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="E57" s="271"/>
+      <c r="E57" s="248"/>
       <c r="F57" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I57" s="272" t="s">
+      <c r="I57" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="273"/>
-      <c r="K57" s="274">
+      <c r="J57" s="250"/>
+      <c r="K57" s="251">
         <f>F59+F60+F61</f>
         <v>393764.05999999994</v>
       </c>
-      <c r="L57" s="275"/>
+      <c r="L57" s="252"/>
       <c r="P57" s="36"/>
       <c r="Q57" s="9"/>
     </row>
@@ -6223,11 +6183,11 @@
         <v>19</v>
       </c>
       <c r="J59" s="149"/>
-      <c r="K59" s="276">
+      <c r="K59" s="253">
         <f>-C4</f>
         <v>-373948.72</v>
       </c>
-      <c r="L59" s="277"/>
+      <c r="L59" s="254"/>
     </row>
     <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="150" t="s">
@@ -6244,22 +6204,22 @@
       <c r="C61" s="152">
         <v>44955</v>
       </c>
-      <c r="D61" s="278" t="s">
+      <c r="D61" s="255" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="279"/>
+      <c r="E61" s="256"/>
       <c r="F61" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I61" s="280" t="s">
+      <c r="I61" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="281"/>
-      <c r="K61" s="282">
+      <c r="J61" s="258"/>
+      <c r="K61" s="259">
         <f>K57+K59</f>
         <v>19815.339999999967</v>
       </c>
-      <c r="L61" s="282"/>
+      <c r="L61" s="259"/>
     </row>
     <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C62" s="154"/>
@@ -7744,10 +7704,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:U83"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7772,23 +7732,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="283"/>
-      <c r="C1" s="285" t="s">
+      <c r="B1" s="260"/>
+      <c r="C1" s="262" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="284"/>
+      <c r="B2" s="261"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -7798,21 +7758,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="288"/>
+      <c r="B3" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="265"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="289" t="s">
+      <c r="H3" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="289"/>
+      <c r="I3" s="266"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="292" t="s">
+      <c r="R3" s="269" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7827,14 +7787,14 @@
       <c r="D4" s="17">
         <v>44955</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="295"/>
-      <c r="H4" s="296" t="s">
+      <c r="F4" s="272"/>
+      <c r="H4" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="297"/>
+      <c r="I4" s="274"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -7844,11 +7804,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="310" t="s">
+      <c r="P4" s="287" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="309"/>
+      <c r="Q4" s="288"/>
+      <c r="R4" s="286"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -7885,14 +7845,14 @@
         <v>373</v>
       </c>
       <c r="O5" s="35"/>
-      <c r="P5" s="263">
+      <c r="P5" s="239">
         <f>N5+M5+L5+I5+C5</f>
         <v>65454</v>
       </c>
-      <c r="Q5" s="264">
-        <v>0</v>
-      </c>
-      <c r="R5" s="265">
+      <c r="Q5" s="240">
+        <v>0</v>
+      </c>
+      <c r="R5" s="241">
         <v>19685</v>
       </c>
       <c r="S5" s="37"/>
@@ -7930,14 +7890,14 @@
         <v>1226</v>
       </c>
       <c r="O6" s="35"/>
-      <c r="P6" s="263">
+      <c r="P6" s="239">
         <f>N6+M6+L6+I6+C6</f>
         <v>65983</v>
       </c>
-      <c r="Q6" s="264">
-        <v>0</v>
-      </c>
-      <c r="R6" s="265">
+      <c r="Q6" s="240">
+        <v>0</v>
+      </c>
+      <c r="R6" s="241">
         <v>1248</v>
       </c>
       <c r="S6" s="37"/>
@@ -7978,15 +7938,15 @@
         <v>1627</v>
       </c>
       <c r="O7" s="35"/>
-      <c r="P7" s="263">
+      <c r="P7" s="239">
         <f>N7+M7+L7+I7+C7</f>
         <v>50236</v>
       </c>
-      <c r="Q7" s="264">
-        <f t="shared" ref="Q7:Q48" si="0">P7-F7</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="266">
+      <c r="Q7" s="240">
+        <f t="shared" ref="Q7:Q44" si="0">P7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="242">
         <v>0</v>
       </c>
       <c r="S7" s="37"/>
@@ -8030,15 +7990,15 @@
         <v>3872</v>
       </c>
       <c r="O8" s="35"/>
-      <c r="P8" s="263">
-        <f t="shared" ref="P8:P49" si="1">N8+M8+L8+I8+C8</f>
+      <c r="P8" s="239">
+        <f t="shared" ref="P8:P45" si="1">N8+M8+L8+I8+C8</f>
         <v>79623</v>
       </c>
-      <c r="Q8" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="266">
+      <c r="Q8" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="242">
         <v>0</v>
       </c>
       <c r="S8" s="37"/>
@@ -8078,15 +8038,15 @@
         <v>9293</v>
       </c>
       <c r="O9" s="35"/>
-      <c r="P9" s="263">
+      <c r="P9" s="239">
         <f t="shared" si="1"/>
         <v>85123</v>
       </c>
-      <c r="Q9" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="266">
+      <c r="Q9" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="242">
         <v>0</v>
       </c>
       <c r="S9" s="37"/>
@@ -8129,15 +8089,15 @@
         <v>7921</v>
       </c>
       <c r="O10" s="35"/>
-      <c r="P10" s="263">
+      <c r="P10" s="239">
         <f>N10+M10+L10+I10+C10</f>
         <v>60464</v>
       </c>
-      <c r="Q10" s="264">
+      <c r="Q10" s="240">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="R10" s="266">
+      <c r="R10" s="242">
         <v>0</v>
       </c>
       <c r="S10" s="37"/>
@@ -8180,14 +8140,14 @@
         <v>4669</v>
       </c>
       <c r="O11" s="35"/>
-      <c r="P11" s="263">
+      <c r="P11" s="239">
         <f>N11+M11+L11+I11+C11</f>
         <v>93030</v>
       </c>
-      <c r="Q11" s="264">
-        <v>0</v>
-      </c>
-      <c r="R11" s="265">
+      <c r="Q11" s="240">
+        <v>0</v>
+      </c>
+      <c r="R11" s="241">
         <v>16800</v>
       </c>
       <c r="S11" s="37"/>
@@ -8225,15 +8185,15 @@
         <v>1251</v>
       </c>
       <c r="O12" s="35"/>
-      <c r="P12" s="263">
+      <c r="P12" s="239">
         <f t="shared" si="1"/>
         <v>111609</v>
       </c>
-      <c r="Q12" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="266">
+      <c r="Q12" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="242">
         <v>0</v>
       </c>
       <c r="S12" s="37"/>
@@ -8271,15 +8231,15 @@
         <v>98</v>
       </c>
       <c r="O13" s="35"/>
-      <c r="P13" s="263">
+      <c r="P13" s="239">
         <f t="shared" si="1"/>
         <v>58468.5</v>
       </c>
-      <c r="Q13" s="267">
+      <c r="Q13" s="243">
         <f t="shared" si="0"/>
         <v>-5.5</v>
       </c>
-      <c r="R13" s="266">
+      <c r="R13" s="242">
         <v>0</v>
       </c>
       <c r="S13" s="37"/>
@@ -8316,15 +8276,15 @@
         <v>1164</v>
       </c>
       <c r="O14" s="35"/>
-      <c r="P14" s="263">
+      <c r="P14" s="239">
         <f t="shared" si="1"/>
         <v>68468.5</v>
       </c>
-      <c r="Q14" s="267">
+      <c r="Q14" s="243">
         <f t="shared" si="0"/>
         <v>-0.5</v>
       </c>
-      <c r="R14" s="266">
+      <c r="R14" s="242">
         <v>0</v>
       </c>
       <c r="S14" s="37"/>
@@ -8362,15 +8322,15 @@
         <v>10137</v>
       </c>
       <c r="O15" s="35"/>
-      <c r="P15" s="263">
+      <c r="P15" s="239">
         <f t="shared" si="1"/>
         <v>109720</v>
       </c>
-      <c r="Q15" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="266">
+      <c r="Q15" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R15" s="242">
         <v>0</v>
       </c>
       <c r="S15" s="37"/>
@@ -8409,15 +8369,15 @@
         <v>142</v>
       </c>
       <c r="O16" s="35"/>
-      <c r="P16" s="263">
+      <c r="P16" s="239">
         <f t="shared" si="1"/>
         <v>68417</v>
       </c>
-      <c r="Q16" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="266">
+      <c r="Q16" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="242">
         <v>0</v>
       </c>
       <c r="S16" s="37"/>
@@ -8461,15 +8421,15 @@
         <v>5124</v>
       </c>
       <c r="O17" s="35"/>
-      <c r="P17" s="263">
+      <c r="P17" s="239">
         <f t="shared" si="1"/>
         <v>86318</v>
       </c>
-      <c r="Q17" s="264">
+      <c r="Q17" s="240">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="R17" s="266">
+      <c r="R17" s="242">
         <v>0</v>
       </c>
       <c r="S17" s="37"/>
@@ -8509,15 +8469,15 @@
         <v>1912</v>
       </c>
       <c r="O18" s="35"/>
-      <c r="P18" s="263">
+      <c r="P18" s="239">
         <f t="shared" si="1"/>
         <v>112260.5</v>
       </c>
-      <c r="Q18" s="264">
+      <c r="Q18" s="240">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="R18" s="266">
+      <c r="R18" s="242">
         <v>0</v>
       </c>
       <c r="S18" s="37"/>
@@ -8555,15 +8515,15 @@
         <v>1728</v>
       </c>
       <c r="O19" s="35"/>
-      <c r="P19" s="263">
+      <c r="P19" s="239">
         <f t="shared" si="1"/>
         <v>136132</v>
       </c>
-      <c r="Q19" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="266">
+      <c r="Q19" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="242">
         <v>0</v>
       </c>
       <c r="S19" s="37"/>
@@ -8601,15 +8561,15 @@
         <v>0</v>
       </c>
       <c r="O20" s="35"/>
-      <c r="P20" s="263">
+      <c r="P20" s="239">
         <f t="shared" si="1"/>
         <v>60594</v>
       </c>
-      <c r="Q20" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="266">
+      <c r="Q20" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="242">
         <v>0</v>
       </c>
       <c r="S20" s="37"/>
@@ -8647,15 +8607,15 @@
         <v>2193</v>
       </c>
       <c r="O21" s="35"/>
-      <c r="P21" s="263">
+      <c r="P21" s="239">
         <f t="shared" si="1"/>
         <v>46506</v>
       </c>
-      <c r="Q21" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="266">
+      <c r="Q21" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="242">
         <v>0</v>
       </c>
       <c r="S21" s="37"/>
@@ -8695,15 +8655,15 @@
         <v>1680</v>
       </c>
       <c r="O22" s="35"/>
-      <c r="P22" s="263">
+      <c r="P22" s="239">
         <f t="shared" si="1"/>
         <v>64392</v>
       </c>
-      <c r="Q22" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="266">
+      <c r="Q22" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="242">
         <v>0</v>
       </c>
       <c r="S22" s="37"/>
@@ -8741,15 +8701,15 @@
         <v>2905</v>
       </c>
       <c r="O23" s="35"/>
-      <c r="P23" s="263">
+      <c r="P23" s="239">
         <f t="shared" si="1"/>
         <v>85305</v>
       </c>
-      <c r="Q23" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="266">
+      <c r="Q23" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="242">
         <v>0</v>
       </c>
       <c r="S23" s="37"/>
@@ -8795,15 +8755,15 @@
         <v>6184</v>
       </c>
       <c r="O24" s="35"/>
-      <c r="P24" s="263">
+      <c r="P24" s="239">
         <f t="shared" si="1"/>
         <v>68721.67</v>
       </c>
-      <c r="Q24" s="264">
+      <c r="Q24" s="240">
         <f t="shared" si="0"/>
         <v>-0.33000000000174623</v>
       </c>
-      <c r="R24" s="266">
+      <c r="R24" s="242">
         <v>0</v>
       </c>
       <c r="S24" s="37"/>
@@ -8841,15 +8801,15 @@
         <v>2386</v>
       </c>
       <c r="O25" s="35"/>
-      <c r="P25" s="263">
+      <c r="P25" s="239">
         <f t="shared" si="1"/>
         <v>104132</v>
       </c>
-      <c r="Q25" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="266">
+      <c r="Q25" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="242">
         <v>0</v>
       </c>
       <c r="S25" s="37"/>
@@ -8889,15 +8849,15 @@
         <v>0</v>
       </c>
       <c r="O26" s="35"/>
-      <c r="P26" s="263">
+      <c r="P26" s="239">
         <f t="shared" si="1"/>
         <v>143460</v>
       </c>
-      <c r="Q26" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="266">
+      <c r="Q26" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="242">
         <v>0</v>
       </c>
       <c r="S26" s="37"/>
@@ -8935,15 +8895,15 @@
         <v>0</v>
       </c>
       <c r="O27" s="35"/>
-      <c r="P27" s="263">
+      <c r="P27" s="239">
         <f t="shared" si="1"/>
         <v>58259</v>
       </c>
-      <c r="Q27" s="315">
+      <c r="Q27" s="247">
         <f t="shared" si="0"/>
         <v>-100</v>
       </c>
-      <c r="R27" s="266">
+      <c r="R27" s="242">
         <v>0</v>
       </c>
       <c r="S27" s="37"/>
@@ -8980,61 +8940,61 @@
         <v>1875</v>
       </c>
       <c r="O28" s="35"/>
-      <c r="P28" s="263">
+      <c r="P28" s="239">
         <f t="shared" si="1"/>
         <v>42971</v>
       </c>
-      <c r="Q28" s="315">
+      <c r="Q28" s="247">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="R28" s="266">
+      <c r="R28" s="242">
         <v>0</v>
       </c>
       <c r="S28" s="37"/>
     </row>
     <row r="29" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="23"/>
-      <c r="B29" s="239">
+      <c r="B29" s="24">
         <v>44980</v>
       </c>
-      <c r="C29" s="240">
-        <v>0</v>
-      </c>
-      <c r="D29" s="250"/>
-      <c r="E29" s="241">
+      <c r="C29" s="25">
+        <v>0</v>
+      </c>
+      <c r="D29" s="72"/>
+      <c r="E29" s="27">
         <v>44980</v>
       </c>
-      <c r="F29" s="242">
+      <c r="F29" s="28">
         <v>68524</v>
       </c>
-      <c r="G29" s="243"/>
-      <c r="H29" s="244">
+      <c r="G29" s="29"/>
+      <c r="H29" s="30">
         <v>44980</v>
       </c>
-      <c r="I29" s="245">
+      <c r="I29" s="31">
         <v>72</v>
       </c>
-      <c r="J29" s="249"/>
-      <c r="K29" s="251"/>
-      <c r="L29" s="248"/>
-      <c r="M29" s="246">
+      <c r="J29" s="68"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="33">
         <f>54452+14000</f>
         <v>68452</v>
       </c>
-      <c r="N29" s="247">
+      <c r="N29" s="34">
         <v>0</v>
       </c>
       <c r="O29" s="35"/>
-      <c r="P29" s="263">
+      <c r="P29" s="239">
         <f t="shared" si="1"/>
         <v>68524</v>
       </c>
-      <c r="Q29" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="266">
+      <c r="Q29" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="242">
         <v>0</v>
       </c>
       <c r="S29" s="37"/>
@@ -9042,238 +9002,238 @@
     </row>
     <row r="30" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="23"/>
-      <c r="B30" s="239">
+      <c r="B30" s="24">
         <v>44981</v>
       </c>
-      <c r="C30" s="240">
+      <c r="C30" s="25">
         <v>27141</v>
       </c>
-      <c r="D30" s="250" t="s">
+      <c r="D30" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="241">
+      <c r="E30" s="27">
         <v>44981</v>
       </c>
-      <c r="F30" s="242">
+      <c r="F30" s="28">
         <v>79698</v>
       </c>
-      <c r="G30" s="243"/>
-      <c r="H30" s="244">
+      <c r="G30" s="29"/>
+      <c r="H30" s="30">
         <v>44981</v>
       </c>
-      <c r="I30" s="245">
+      <c r="I30" s="31">
         <v>124</v>
       </c>
-      <c r="J30" s="252"/>
-      <c r="K30" s="253"/>
-      <c r="L30" s="254"/>
-      <c r="M30" s="246">
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="33">
         <f>11476+35000</f>
         <v>46476</v>
       </c>
-      <c r="N30" s="247">
+      <c r="N30" s="34">
         <v>5957</v>
       </c>
       <c r="O30" s="35"/>
-      <c r="P30" s="263">
+      <c r="P30" s="239">
         <f t="shared" si="1"/>
         <v>79698</v>
       </c>
-      <c r="Q30" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="266">
+      <c r="Q30" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="242">
         <v>0</v>
       </c>
       <c r="S30" s="37"/>
     </row>
     <row r="31" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="23"/>
-      <c r="B31" s="239">
+      <c r="B31" s="24">
         <v>44982</v>
       </c>
-      <c r="C31" s="240">
-        <v>0</v>
-      </c>
-      <c r="D31" s="255"/>
-      <c r="E31" s="241">
+      <c r="C31" s="25">
+        <v>0</v>
+      </c>
+      <c r="D31" s="77"/>
+      <c r="E31" s="27">
         <v>44982</v>
       </c>
-      <c r="F31" s="242">
+      <c r="F31" s="28">
         <v>99687</v>
       </c>
-      <c r="G31" s="243"/>
-      <c r="H31" s="244">
+      <c r="G31" s="29"/>
+      <c r="H31" s="30">
         <v>44982</v>
       </c>
-      <c r="I31" s="245">
+      <c r="I31" s="31">
         <v>150</v>
       </c>
-      <c r="J31" s="252">
+      <c r="J31" s="74">
         <v>44982</v>
       </c>
-      <c r="K31" s="256" t="s">
+      <c r="K31" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="L31" s="257">
+      <c r="L31" s="79">
         <v>9657</v>
       </c>
-      <c r="M31" s="246">
+      <c r="M31" s="33">
         <f>42916+26000</f>
         <v>68916</v>
       </c>
-      <c r="N31" s="247">
+      <c r="N31" s="34">
         <v>20964</v>
       </c>
       <c r="O31" s="35"/>
-      <c r="P31" s="263">
+      <c r="P31" s="239">
         <f t="shared" si="1"/>
         <v>99687</v>
       </c>
-      <c r="Q31" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="266">
+      <c r="Q31" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="242">
         <v>0</v>
       </c>
       <c r="S31" s="37"/>
     </row>
     <row r="32" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="23"/>
-      <c r="B32" s="239">
+      <c r="B32" s="24">
         <v>44983</v>
       </c>
-      <c r="C32" s="240">
-        <v>0</v>
-      </c>
-      <c r="D32" s="258"/>
-      <c r="E32" s="241">
+      <c r="C32" s="25">
+        <v>0</v>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="27">
         <v>44983</v>
       </c>
-      <c r="F32" s="242">
+      <c r="F32" s="28">
         <v>110573</v>
       </c>
-      <c r="G32" s="243"/>
-      <c r="H32" s="244">
+      <c r="G32" s="29"/>
+      <c r="H32" s="30">
         <v>44983</v>
       </c>
-      <c r="I32" s="245">
-        <v>0</v>
-      </c>
-      <c r="J32" s="252"/>
-      <c r="K32" s="253"/>
-      <c r="L32" s="254"/>
-      <c r="M32" s="246">
+      <c r="I32" s="31">
+        <v>0</v>
+      </c>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="33">
         <f>8305+101000</f>
         <v>109305</v>
       </c>
-      <c r="N32" s="247">
+      <c r="N32" s="34">
         <v>1268</v>
       </c>
       <c r="O32" s="35"/>
-      <c r="P32" s="263">
+      <c r="P32" s="239">
         <f t="shared" si="1"/>
         <v>110573</v>
       </c>
-      <c r="Q32" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="266">
+      <c r="Q32" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="242">
         <v>0</v>
       </c>
       <c r="S32" s="37"/>
     </row>
     <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="23"/>
-      <c r="B33" s="239">
+      <c r="B33" s="24">
         <v>44984</v>
       </c>
-      <c r="C33" s="240">
-        <v>0</v>
-      </c>
-      <c r="D33" s="259"/>
-      <c r="E33" s="241">
+      <c r="C33" s="25">
+        <v>0</v>
+      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="27">
         <v>44984</v>
       </c>
-      <c r="F33" s="242">
+      <c r="F33" s="28">
         <v>144123</v>
       </c>
-      <c r="G33" s="243"/>
-      <c r="H33" s="244">
+      <c r="G33" s="29"/>
+      <c r="H33" s="30">
         <v>44984</v>
       </c>
-      <c r="I33" s="245">
+      <c r="I33" s="31">
         <v>28</v>
       </c>
-      <c r="J33" s="252"/>
-      <c r="K33" s="256"/>
-      <c r="L33" s="260"/>
-      <c r="M33" s="246">
+      <c r="J33" s="74"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="33">
         <f>11500+75000+57539</f>
         <v>144039</v>
       </c>
-      <c r="N33" s="247">
+      <c r="N33" s="34">
         <v>56</v>
       </c>
       <c r="O33" s="35"/>
-      <c r="P33" s="263">
+      <c r="P33" s="239">
         <f t="shared" si="1"/>
         <v>144123</v>
       </c>
-      <c r="Q33" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="266">
+      <c r="Q33" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="242">
         <v>0</v>
       </c>
       <c r="S33" s="37"/>
     </row>
     <row r="34" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="23"/>
-      <c r="B34" s="239">
+      <c r="B34" s="24">
         <v>44985</v>
       </c>
-      <c r="C34" s="240">
-        <v>0</v>
-      </c>
-      <c r="D34" s="258"/>
-      <c r="E34" s="241">
+      <c r="C34" s="25">
+        <v>0</v>
+      </c>
+      <c r="D34" s="82"/>
+      <c r="E34" s="27">
         <v>44985</v>
       </c>
-      <c r="F34" s="242">
+      <c r="F34" s="28">
         <v>76623</v>
       </c>
-      <c r="G34" s="243"/>
-      <c r="H34" s="244">
+      <c r="G34" s="29"/>
+      <c r="H34" s="30">
         <v>44985</v>
       </c>
-      <c r="I34" s="245">
-        <v>589</v>
-      </c>
-      <c r="J34" s="252"/>
-      <c r="K34" s="261"/>
-      <c r="L34" s="262"/>
-      <c r="M34" s="246">
+      <c r="I34" s="31">
+        <v>599</v>
+      </c>
+      <c r="J34" s="74"/>
+      <c r="K34" s="83"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="33">
         <f>17771+30000+27000</f>
         <v>74771</v>
       </c>
-      <c r="N34" s="247">
+      <c r="N34" s="34">
         <v>1253</v>
       </c>
       <c r="O34" s="35"/>
-      <c r="P34" s="263">
+      <c r="P34" s="239">
         <f t="shared" si="1"/>
-        <v>76613</v>
-      </c>
-      <c r="Q34" s="264">
-        <f t="shared" si="0"/>
-        <v>-10</v>
-      </c>
-      <c r="R34" s="266">
+        <v>76623</v>
+      </c>
+      <c r="Q34" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="242">
         <v>0</v>
       </c>
       <c r="S34" s="37"/>
@@ -9300,15 +9260,15 @@
         <v>0</v>
       </c>
       <c r="O35" s="35"/>
-      <c r="P35" s="263">
+      <c r="P35" s="239">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="266">
+      <c r="Q35" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="242">
         <v>0</v>
       </c>
       <c r="S35" s="37"/>
@@ -9335,15 +9295,15 @@
         <v>0</v>
       </c>
       <c r="O36" s="35"/>
-      <c r="P36" s="263">
+      <c r="P36" s="239">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="266">
+      <c r="Q36" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="242">
         <v>0</v>
       </c>
       <c r="S36" s="37"/>
@@ -9376,14 +9336,14 @@
         <v>0</v>
       </c>
       <c r="O37" s="35"/>
-      <c r="P37" s="263">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="266">
+      <c r="P37" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="242">
         <v>0</v>
       </c>
       <c r="S37" s="37"/>
@@ -9414,14 +9374,14 @@
         <v>0</v>
       </c>
       <c r="O38" s="35"/>
-      <c r="P38" s="263">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="266">
+      <c r="P38" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="242">
         <v>0</v>
       </c>
       <c r="S38" s="37"/>
@@ -9452,14 +9412,14 @@
         <v>0</v>
       </c>
       <c r="O39" s="35"/>
-      <c r="P39" s="263">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="266">
+      <c r="P39" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="242">
         <v>0</v>
       </c>
       <c r="S39" s="37"/>
@@ -9490,14 +9450,14 @@
         <v>0</v>
       </c>
       <c r="O40" s="35"/>
-      <c r="P40" s="263">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R40" s="266">
+      <c r="P40" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="242">
         <v>0</v>
       </c>
       <c r="S40" s="37"/>
@@ -9528,14 +9488,14 @@
         <v>0</v>
       </c>
       <c r="O41" s="35"/>
-      <c r="P41" s="263">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R41" s="266">
+      <c r="P41" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="242">
         <v>0</v>
       </c>
       <c r="S41" s="37"/>
@@ -9560,14 +9520,14 @@
         <v>0</v>
       </c>
       <c r="O42" s="35"/>
-      <c r="P42" s="263">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R42" s="266">
+      <c r="P42" s="239">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="240">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="242">
         <v>0</v>
       </c>
       <c r="S42" s="37"/>
@@ -9578,10 +9538,10 @@
       <c r="C43" s="25"/>
       <c r="D43" s="80"/>
       <c r="E43" s="27"/>
-      <c r="F43" s="28"/>
+      <c r="F43" s="90"/>
       <c r="G43" s="29"/>
       <c r="H43" s="30"/>
-      <c r="I43" s="31"/>
+      <c r="I43" s="91"/>
       <c r="J43" s="74"/>
       <c r="K43" s="89"/>
       <c r="L43" s="76"/>
@@ -9592,14 +9552,15 @@
         <v>0</v>
       </c>
       <c r="O43" s="35"/>
-      <c r="P43" s="263">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="266">
+      <c r="P43" s="244">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="245">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="246">
         <v>0</v>
       </c>
       <c r="S43" s="37"/>
@@ -9610,539 +9571,408 @@
       <c r="C44" s="25"/>
       <c r="D44" s="80"/>
       <c r="E44" s="27"/>
-      <c r="F44" s="28"/>
+      <c r="F44" s="90"/>
       <c r="G44" s="29"/>
       <c r="H44" s="30"/>
-      <c r="I44" s="31"/>
+      <c r="I44" s="91"/>
       <c r="J44" s="74"/>
       <c r="K44" s="89"/>
       <c r="L44" s="76"/>
-      <c r="M44" s="33">
-        <v>0</v>
-      </c>
-      <c r="N44" s="34">
-        <v>0</v>
-      </c>
+      <c r="M44" s="92">
+        <v>0</v>
+      </c>
+      <c r="N44" s="93"/>
       <c r="O44" s="35"/>
-      <c r="P44" s="263">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R44" s="266">
+      <c r="P44" s="36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="13">
         <v>0</v>
       </c>
       <c r="S44" s="37"/>
     </row>
-    <row r="45" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
-      <c r="D45" s="80"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="27"/>
-      <c r="F45" s="28"/>
+      <c r="F45" s="95"/>
       <c r="G45" s="29"/>
       <c r="H45" s="30"/>
-      <c r="I45" s="31"/>
+      <c r="I45" s="96"/>
       <c r="J45" s="74"/>
-      <c r="K45" s="89"/>
+      <c r="K45" s="97"/>
       <c r="L45" s="76"/>
-      <c r="M45" s="33">
-        <v>0</v>
-      </c>
-      <c r="N45" s="34">
-        <v>0</v>
-      </c>
-      <c r="O45" s="35"/>
-      <c r="P45" s="263">
+      <c r="M45" s="267">
+        <f>SUM(M5:M39)</f>
+        <v>2238523</v>
+      </c>
+      <c r="N45" s="278">
+        <f>SUM(N5:N39)</f>
+        <v>97258</v>
+      </c>
+      <c r="P45" s="98">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R45" s="266">
-        <v>0</v>
-      </c>
-      <c r="S45" s="37"/>
+        <v>2335781</v>
+      </c>
+      <c r="Q45" s="99">
+        <f>SUM(Q5:Q39)</f>
+        <v>70.169999999998254</v>
+      </c>
+      <c r="R45" s="99">
+        <f>SUM(R5:R39)</f>
+        <v>37733</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="80"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="27"/>
-      <c r="F46" s="28"/>
+      <c r="F46" s="101"/>
       <c r="G46" s="29"/>
       <c r="H46" s="30"/>
-      <c r="I46" s="31"/>
+      <c r="I46" s="96"/>
       <c r="J46" s="74"/>
-      <c r="K46" s="89"/>
+      <c r="K46" s="102"/>
       <c r="L46" s="76"/>
-      <c r="M46" s="33">
-        <v>0</v>
-      </c>
-      <c r="N46" s="34">
-        <v>0</v>
-      </c>
-      <c r="O46" s="35"/>
-      <c r="P46" s="263">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="264">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="266">
-        <v>0</v>
-      </c>
-      <c r="S46" s="37"/>
+      <c r="M46" s="268"/>
+      <c r="N46" s="279"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="23"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="115"/>
       <c r="I47" s="91"/>
       <c r="J47" s="74"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="33">
-        <v>0</v>
-      </c>
-      <c r="N47" s="34">
-        <v>0</v>
-      </c>
-      <c r="O47" s="35"/>
-      <c r="P47" s="268">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="269">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R47" s="270">
-        <v>0</v>
-      </c>
-      <c r="S47" s="37"/>
-    </row>
-    <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K47" s="116"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="106"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="9"/>
+    </row>
+    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="23"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="25">
+        <v>0</v>
+      </c>
+      <c r="D48" s="117"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="108"/>
+      <c r="H48" s="119"/>
       <c r="I48" s="91"/>
-      <c r="J48" s="74"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="92">
-        <v>0</v>
-      </c>
-      <c r="N48" s="93"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="13">
-        <v>0</v>
-      </c>
-      <c r="S48" s="37"/>
-    </row>
-    <row r="49" spans="1:18" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="23"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="95"/>
-      <c r="G49" s="29"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="290">
-        <f>SUM(M5:M39)</f>
-        <v>2238523</v>
-      </c>
-      <c r="N49" s="301">
-        <f>SUM(N5:N39)</f>
-        <v>97258</v>
-      </c>
-      <c r="P49" s="98">
-        <f t="shared" si="1"/>
-        <v>2335781</v>
-      </c>
-      <c r="Q49" s="99">
-        <f>SUM(Q5:Q39)</f>
-        <v>60.169999999998254</v>
-      </c>
-      <c r="R49" s="99">
-        <f>SUM(R5:R39)</f>
-        <v>37733</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="23"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="100"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="101"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="291"/>
-      <c r="N50" s="302"/>
+      <c r="J48" s="120"/>
+      <c r="K48" s="121"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="122"/>
+      <c r="N48" s="34"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="9"/>
+    </row>
+    <row r="49" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="124">
+        <f>SUM(C5:C48)</f>
+        <v>114331</v>
+      </c>
+      <c r="D49" s="125"/>
+      <c r="E49" s="126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="127">
+        <f>SUM(F5:F48)</f>
+        <v>2467072</v>
+      </c>
+      <c r="G49" s="125"/>
+      <c r="H49" s="128" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="129">
+        <f>SUM(I5:I48)</f>
+        <v>14932.5</v>
+      </c>
+      <c r="J49" s="130"/>
+      <c r="K49" s="131" t="s">
+        <v>13</v>
+      </c>
+      <c r="L49" s="132">
+        <f>SUM(L5:L48)</f>
+        <v>75834.540000000008</v>
+      </c>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="9"/>
+    </row>
+    <row r="50" spans="1:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
-      <c r="R50" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="23"/>
-      <c r="B51" s="113"/>
-      <c r="C51" s="108"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="114"/>
-      <c r="F51" s="110"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="105"/>
-      <c r="N51" s="106"/>
+    </row>
+    <row r="51" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="135"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="1"/>
+      <c r="H51" s="280" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="281"/>
+      <c r="J51" s="137"/>
+      <c r="K51" s="282">
+        <f>I49+L49</f>
+        <v>90767.040000000008</v>
+      </c>
+      <c r="L51" s="283"/>
+      <c r="M51" s="284">
+        <f>N45+M45</f>
+        <v>2335781</v>
+      </c>
+      <c r="N51" s="285"/>
       <c r="P51" s="36"/>
       <c r="Q51" s="9"/>
     </row>
-    <row r="52" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="23"/>
-      <c r="B52" s="113"/>
-      <c r="C52" s="25">
-        <v>0</v>
-      </c>
-      <c r="D52" s="117"/>
-      <c r="E52" s="118"/>
-      <c r="F52" s="108"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="120"/>
-      <c r="K52" s="121"/>
-      <c r="L52" s="9"/>
-      <c r="M52" s="122"/>
-      <c r="N52" s="34"/>
+    <row r="52" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D52" s="277" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="277"/>
+      <c r="F52" s="138">
+        <f>F49-K51-C49</f>
+        <v>2261973.96</v>
+      </c>
+      <c r="I52" s="139"/>
+      <c r="J52" s="140"/>
       <c r="P52" s="36"/>
       <c r="Q52" s="9"/>
     </row>
-    <row r="53" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="123" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="124">
-        <f>SUM(C5:C52)</f>
-        <v>114331</v>
-      </c>
-      <c r="D53" s="125"/>
-      <c r="E53" s="126" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="127">
-        <f>SUM(F5:F52)</f>
-        <v>2467072</v>
-      </c>
-      <c r="G53" s="125"/>
-      <c r="H53" s="128" t="s">
-        <v>12</v>
-      </c>
-      <c r="I53" s="129">
-        <f>SUM(I5:I52)</f>
-        <v>14922.5</v>
-      </c>
-      <c r="J53" s="130"/>
-      <c r="K53" s="131" t="s">
-        <v>13</v>
-      </c>
-      <c r="L53" s="132">
-        <f>SUM(L5:L52)</f>
-        <v>75834.540000000008</v>
-      </c>
-      <c r="M53" s="133"/>
-      <c r="N53" s="133"/>
+    <row r="53" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D53" s="248" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="248"/>
+      <c r="F53" s="133">
+        <v>-2224189.7400000002</v>
+      </c>
+      <c r="I53" s="249" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="250"/>
+      <c r="K53" s="251">
+        <f>F55+F56+F57</f>
+        <v>296963.76999999973</v>
+      </c>
+      <c r="L53" s="252"/>
       <c r="P53" s="36"/>
       <c r="Q53" s="9"/>
     </row>
-    <row r="54" spans="1:18" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="4" t="s">
+    <row r="54" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D54" s="141"/>
+      <c r="E54" s="142"/>
+      <c r="F54" s="143">
+        <v>0</v>
+      </c>
+      <c r="I54" s="144"/>
+      <c r="J54" s="145"/>
+      <c r="K54" s="146"/>
+      <c r="L54" s="147"/>
+    </row>
+    <row r="55" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P54" s="36"/>
-      <c r="Q54" s="9"/>
-    </row>
-    <row r="55" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="135"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="1"/>
-      <c r="H55" s="303" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="304"/>
-      <c r="J55" s="137"/>
-      <c r="K55" s="305">
-        <f>I53+L53</f>
-        <v>90757.040000000008</v>
-      </c>
-      <c r="L55" s="306"/>
-      <c r="M55" s="307">
-        <f>N49+M49</f>
-        <v>2335781</v>
-      </c>
-      <c r="N55" s="308"/>
-      <c r="P55" s="36"/>
-      <c r="Q55" s="9"/>
-    </row>
-    <row r="56" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D56" s="300" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" s="300"/>
-      <c r="F56" s="138">
-        <f>F53-K55-C53</f>
-        <v>2261983.96</v>
-      </c>
-      <c r="I56" s="139"/>
-      <c r="J56" s="140"/>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="9"/>
-    </row>
-    <row r="57" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D57" s="271" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="271"/>
-      <c r="F57" s="133">
-        <v>-2224189.7400000002</v>
-      </c>
-      <c r="I57" s="272" t="s">
-        <v>17</v>
-      </c>
-      <c r="J57" s="273"/>
-      <c r="K57" s="274">
-        <f>F59+F60+F61</f>
-        <v>301610.76999999973</v>
-      </c>
-      <c r="L57" s="275"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="9"/>
-    </row>
-    <row r="58" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D58" s="141"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="143">
-        <v>0</v>
-      </c>
-      <c r="I58" s="144"/>
-      <c r="J58" s="145"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="147"/>
-    </row>
-    <row r="59" spans="1:18" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E59" s="135" t="s">
+      <c r="E55" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="F59" s="133">
-        <f>SUM(F56:F58)</f>
-        <v>37794.219999999739</v>
-      </c>
-      <c r="H59" s="23"/>
-      <c r="I59" s="148" t="s">
+      <c r="F55" s="133">
+        <f>SUM(F52:F54)</f>
+        <v>37784.219999999739</v>
+      </c>
+      <c r="H55" s="23"/>
+      <c r="I55" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="J59" s="149"/>
-      <c r="K59" s="276">
+      <c r="J55" s="149"/>
+      <c r="K55" s="253">
         <f>-C4</f>
         <v>-223528.9</v>
       </c>
-      <c r="L59" s="277"/>
-    </row>
-    <row r="60" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="150" t="s">
+      <c r="L55" s="254"/>
+    </row>
+    <row r="56" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="135" t="s">
+      <c r="E56" s="135" t="s">
         <v>21</v>
       </c>
-      <c r="F60" s="151">
-        <v>33262</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C61" s="152">
+      <c r="F56" s="151">
+        <v>28625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C57" s="152">
         <v>44985</v>
       </c>
-      <c r="D61" s="278" t="s">
+      <c r="D57" s="255" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="279"/>
-      <c r="F61" s="153">
+      <c r="E57" s="256"/>
+      <c r="F57" s="153">
         <v>230554.55</v>
       </c>
-      <c r="I61" s="280" t="s">
+      <c r="I57" s="257" t="s">
         <v>23</v>
       </c>
-      <c r="J61" s="281"/>
-      <c r="K61" s="282">
-        <f>K57+K59</f>
-        <v>78081.869999999733</v>
-      </c>
-      <c r="L61" s="282"/>
-    </row>
-    <row r="62" spans="1:18" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="C62" s="154"/>
-      <c r="D62" s="155"/>
-      <c r="E62" s="156"/>
-      <c r="F62" s="157"/>
-      <c r="J62" s="158"/>
-    </row>
-    <row r="63" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I63" s="159"/>
-      <c r="J63" s="159"/>
-      <c r="K63" s="160"/>
-      <c r="L63" s="160"/>
-    </row>
-    <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J57" s="258"/>
+      <c r="K57" s="259">
+        <f>K53+K55</f>
+        <v>73434.869999999733</v>
+      </c>
+      <c r="L57" s="259"/>
+    </row>
+    <row r="58" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C58" s="154"/>
+      <c r="D58" s="155"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="157"/>
+      <c r="J58" s="158"/>
+    </row>
+    <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="159"/>
+      <c r="J59" s="159"/>
+      <c r="K59" s="160"/>
+      <c r="L59" s="160"/>
+    </row>
+    <row r="60" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="161"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="163"/>
+      <c r="E60" s="36"/>
+      <c r="I60" s="159"/>
+      <c r="J60" s="159"/>
+      <c r="K60" s="160"/>
+      <c r="L60" s="160"/>
+      <c r="M60" s="164"/>
+      <c r="N60" s="135"/>
+    </row>
+    <row r="61" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B61" s="161"/>
+      <c r="C61" s="165"/>
+      <c r="E61" s="36"/>
+      <c r="M61" s="164"/>
+      <c r="N61" s="135"/>
+    </row>
+    <row r="62" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B62" s="161"/>
+      <c r="C62" s="165"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="166"/>
+      <c r="L62" s="167"/>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="161"/>
+      <c r="C63" s="165"/>
+      <c r="E63" s="36"/>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="161"/>
-      <c r="C64" s="162"/>
-      <c r="D64" s="163"/>
+      <c r="C64" s="165"/>
       <c r="E64" s="36"/>
-      <c r="I64" s="159"/>
-      <c r="J64" s="159"/>
-      <c r="K64" s="160"/>
-      <c r="L64" s="160"/>
-      <c r="M64" s="164"/>
-      <c r="N64" s="135"/>
-    </row>
-    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="161"/>
-      <c r="C65" s="165"/>
-      <c r="E65" s="36"/>
-      <c r="M65" s="164"/>
-      <c r="N65" s="135"/>
-    </row>
-    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B66" s="161"/>
-      <c r="C66" s="165"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="166"/>
-      <c r="L66" s="167"/>
+      <c r="F64" s="168"/>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E65" s="169"/>
+      <c r="F65" s="36"/>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E66" s="169"/>
+      <c r="F66" s="36"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="161"/>
-      <c r="C67" s="165"/>
-      <c r="E67" s="36"/>
+    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E67" s="169"/>
+      <c r="F67" s="36"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="161"/>
-      <c r="C68" s="165"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="168"/>
+    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E68" s="169"/>
+      <c r="F68" s="36"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E69" s="169"/>
       <c r="F69" s="36"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E70" s="169"/>
       <c r="F70" s="36"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E71" s="169"/>
       <c r="F71" s="36"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E72" s="169"/>
       <c r="F72" s="36"/>
       <c r="M72" s="1"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E73" s="169"/>
       <c r="F73" s="36"/>
       <c r="M73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E74" s="169"/>
       <c r="F74" s="36"/>
       <c r="M74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E75" s="169"/>
       <c r="F75" s="36"/>
       <c r="M75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E76" s="169"/>
       <c r="F76" s="36"/>
-      <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E77" s="169"/>
-      <c r="F77" s="36"/>
-      <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E78" s="169"/>
-      <c r="F78" s="36"/>
-      <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E79" s="169"/>
-      <c r="F79" s="36"/>
-      <c r="M79" s="1"/>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E80" s="169"/>
-      <c r="F80" s="36"/>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="168"/>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F82" s="168"/>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F83" s="168"/>
+    </row>
+    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F77" s="168"/>
+    </row>
+    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F78" s="168"/>
+    </row>
+    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F79" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -10150,23 +9980,23 @@
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="N49:N50"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="M51:N51"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:M1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="M49:M50"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K55:L55"/>
     <mergeCell ref="D57:E57"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -11646,23 +11476,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="283"/>
-      <c r="C1" s="285" t="s">
+      <c r="B1" s="260"/>
+      <c r="C1" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
     </row>
     <row r="2" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="284"/>
+      <c r="B2" s="261"/>
       <c r="C2" s="4"/>
       <c r="H2" s="6"/>
       <c r="I2" s="7"/>
@@ -11672,21 +11502,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="287" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="288"/>
+      <c r="B3" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="265"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="289" t="s">
+      <c r="H3" s="266" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="289"/>
+      <c r="I3" s="266"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="6"/>
-      <c r="R3" s="292" t="s">
+      <c r="R3" s="269" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11701,14 +11531,14 @@
       <c r="D4" s="17">
         <v>44934</v>
       </c>
-      <c r="E4" s="294" t="s">
+      <c r="E4" s="271" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="295"/>
-      <c r="H4" s="296" t="s">
+      <c r="F4" s="272"/>
+      <c r="H4" s="273" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="297"/>
+      <c r="I4" s="274"/>
       <c r="J4" s="18"/>
       <c r="K4" s="19"/>
       <c r="L4" s="20"/>
@@ -11718,11 +11548,11 @@
       <c r="N4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="298" t="s">
+      <c r="P4" s="275" t="s">
         <v>8</v>
       </c>
-      <c r="Q4" s="299"/>
-      <c r="R4" s="293"/>
+      <c r="Q4" s="276"/>
+      <c r="R4" s="270"/>
     </row>
     <row r="5" spans="1:21" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13485,11 +13315,11 @@
       <c r="J49" s="74"/>
       <c r="K49" s="97"/>
       <c r="L49" s="76"/>
-      <c r="M49" s="290">
+      <c r="M49" s="267">
         <f>SUM(M5:M39)</f>
         <v>0</v>
       </c>
-      <c r="N49" s="301">
+      <c r="N49" s="278">
         <f>SUM(N5:N39)</f>
         <v>0</v>
       </c>
@@ -13518,8 +13348,8 @@
       <c r="J50" s="74"/>
       <c r="K50" s="102"/>
       <c r="L50" s="76"/>
-      <c r="M50" s="291"/>
-      <c r="N50" s="302"/>
+      <c r="M50" s="268"/>
+      <c r="N50" s="279"/>
       <c r="P50" s="36"/>
       <c r="Q50" s="9"/>
       <c r="R50" s="13">
@@ -13737,29 +13567,29 @@
       <c r="A62" s="135"/>
       <c r="B62" s="136"/>
       <c r="C62" s="1"/>
-      <c r="H62" s="303" t="s">
+      <c r="H62" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="304"/>
+      <c r="I62" s="281"/>
       <c r="J62" s="137"/>
-      <c r="K62" s="305">
+      <c r="K62" s="282">
         <f>I60+L60</f>
         <v>0</v>
       </c>
-      <c r="L62" s="306"/>
-      <c r="M62" s="307">
+      <c r="L62" s="283"/>
+      <c r="M62" s="284">
         <f>N49+M49</f>
         <v>0</v>
       </c>
-      <c r="N62" s="308"/>
+      <c r="N62" s="285"/>
       <c r="P62" s="36"/>
       <c r="Q62" s="9"/>
     </row>
     <row r="63" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D63" s="300" t="s">
+      <c r="D63" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="E63" s="300"/>
+      <c r="E63" s="277"/>
       <c r="F63" s="138">
         <f>F60-K62-C60</f>
         <v>780704</v>
@@ -13770,22 +13600,22 @@
       <c r="Q63" s="9"/>
     </row>
     <row r="64" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D64" s="271" t="s">
+      <c r="D64" s="248" t="s">
         <v>16</v>
       </c>
-      <c r="E64" s="271"/>
+      <c r="E64" s="248"/>
       <c r="F64" s="133">
         <v>-1524395.48</v>
       </c>
-      <c r="I64" s="272" t="s">
+      <c r="I64" s="249" t="s">
         <v>17</v>
       </c>
-      <c r="J64" s="273"/>
-      <c r="K64" s="274">
+      <c r="J64" s="250"/>
+      <c r="K64" s="251">
         <f>F66+F67+F68</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L64" s="275"/>
+      <c r="L64" s="252"/>
       <c r="P64" s="36"/>
       <c r="Q64" s="9"/>
     </row>
@@ -13816,11 +13646,11 @@
         <v>19</v>
       </c>
       <c r="J66" s="149"/>
-      <c r="K66" s="276">
+      <c r="K66" s="253">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L66" s="277"/>
+      <c r="L66" s="254"/>
     </row>
     <row r="67" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="150" t="s">
@@ -13837,22 +13667,22 @@
       <c r="C68" s="152">
         <v>44955</v>
       </c>
-      <c r="D68" s="278" t="s">
+      <c r="D68" s="255" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="279"/>
+      <c r="E68" s="256"/>
       <c r="F68" s="153">
         <v>223528.9</v>
       </c>
-      <c r="I68" s="312" t="s">
+      <c r="I68" s="289" t="s">
         <v>23</v>
       </c>
-      <c r="J68" s="313"/>
-      <c r="K68" s="314">
+      <c r="J68" s="290"/>
+      <c r="K68" s="291">
         <f>K64+K66</f>
         <v>-520162.57999999996</v>
       </c>
-      <c r="L68" s="314"/>
+      <c r="L68" s="291"/>
     </row>
     <row r="69" spans="2:14" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C69" s="154"/>
